--- a/프로젝트 산출물/11.일정관리/캠플렉스 일정관리.xlsx
+++ b/프로젝트 산출물/11.일정관리/캠플렉스 일정관리.xlsx
@@ -752,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="114">
+  <borders count="112">
     <border>
       <left/>
       <right/>
@@ -2174,43 +2174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -2223,12 +2186,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="534">
+  <cellXfs count="536">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3609,13 +3583,112 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3630,145 +3703,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4373,13 +4353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF1000"/>
+  <dimension ref="A1:BF998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="V58" sqref="V58"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4452,11 +4432,11 @@
     </row>
     <row r="2" spans="1:58" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="520" t="s">
+      <c r="B2" s="488" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="520"/>
-      <c r="D2" s="520"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -4512,25 +4492,25 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="422"/>
-      <c r="H3" s="519" t="s">
+      <c r="H3" s="489" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="519"/>
-      <c r="J3" s="528"/>
-      <c r="K3" s="519" t="s">
+      <c r="I3" s="489"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="489" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="519"/>
-      <c r="M3" s="527"/>
-      <c r="N3" s="519" t="s">
+      <c r="L3" s="489"/>
+      <c r="M3" s="481"/>
+      <c r="N3" s="489" t="s">
         <v>123</v>
       </c>
-      <c r="O3" s="519"/>
-      <c r="P3" s="526"/>
-      <c r="Q3" s="519" t="s">
+      <c r="O3" s="489"/>
+      <c r="P3" s="480"/>
+      <c r="Q3" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="519"/>
+      <c r="R3" s="489"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -4556,163 +4536,163 @@
     </row>
     <row r="4" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="490" t="s">
+      <c r="B4" s="511" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="493" t="s">
+      <c r="C4" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="493" t="s">
+      <c r="D4" s="512" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="493" t="s">
+      <c r="E4" s="512" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="493" t="s">
+      <c r="F4" s="512" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="483" t="s">
+      <c r="G4" s="516" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="484"/>
-      <c r="I4" s="484"/>
-      <c r="J4" s="484"/>
-      <c r="K4" s="484"/>
-      <c r="L4" s="484"/>
-      <c r="M4" s="484"/>
-      <c r="N4" s="487" t="s">
+      <c r="H4" s="517"/>
+      <c r="I4" s="517"/>
+      <c r="J4" s="517"/>
+      <c r="K4" s="517"/>
+      <c r="L4" s="517"/>
+      <c r="M4" s="517"/>
+      <c r="N4" s="531" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="488"/>
-      <c r="P4" s="488"/>
-      <c r="Q4" s="488"/>
-      <c r="R4" s="488"/>
-      <c r="S4" s="488"/>
-      <c r="T4" s="488"/>
-      <c r="U4" s="488"/>
-      <c r="V4" s="488"/>
-      <c r="W4" s="488"/>
-      <c r="X4" s="488"/>
-      <c r="Y4" s="488"/>
-      <c r="Z4" s="488"/>
-      <c r="AA4" s="488"/>
-      <c r="AB4" s="488"/>
-      <c r="AC4" s="488"/>
-      <c r="AD4" s="488"/>
-      <c r="AE4" s="488"/>
-      <c r="AF4" s="488"/>
-      <c r="AG4" s="488"/>
-      <c r="AH4" s="488"/>
-      <c r="AI4" s="488"/>
-      <c r="AJ4" s="488"/>
-      <c r="AK4" s="488"/>
-      <c r="AL4" s="488"/>
-      <c r="AM4" s="488"/>
-      <c r="AN4" s="488"/>
-      <c r="AO4" s="489"/>
-      <c r="AP4" s="483"/>
-      <c r="AQ4" s="484"/>
-      <c r="AR4" s="484"/>
-      <c r="AS4" s="485" t="s">
+      <c r="O4" s="532"/>
+      <c r="P4" s="532"/>
+      <c r="Q4" s="532"/>
+      <c r="R4" s="532"/>
+      <c r="S4" s="532"/>
+      <c r="T4" s="532"/>
+      <c r="U4" s="532"/>
+      <c r="V4" s="532"/>
+      <c r="W4" s="532"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="532"/>
+      <c r="Z4" s="532"/>
+      <c r="AA4" s="532"/>
+      <c r="AB4" s="532"/>
+      <c r="AC4" s="532"/>
+      <c r="AD4" s="532"/>
+      <c r="AE4" s="532"/>
+      <c r="AF4" s="532"/>
+      <c r="AG4" s="532"/>
+      <c r="AH4" s="532"/>
+      <c r="AI4" s="532"/>
+      <c r="AJ4" s="532"/>
+      <c r="AK4" s="532"/>
+      <c r="AL4" s="532"/>
+      <c r="AM4" s="532"/>
+      <c r="AN4" s="532"/>
+      <c r="AO4" s="532"/>
+      <c r="AP4" s="532"/>
+      <c r="AQ4" s="532"/>
+      <c r="AR4" s="532"/>
+      <c r="AS4" s="518" t="s">
         <v>121</v>
       </c>
-      <c r="AT4" s="485"/>
-      <c r="AU4" s="485"/>
-      <c r="AV4" s="485"/>
-      <c r="AW4" s="485"/>
-      <c r="AX4" s="485"/>
-      <c r="AY4" s="485"/>
-      <c r="AZ4" s="485"/>
-      <c r="BA4" s="485"/>
-      <c r="BB4" s="485"/>
-      <c r="BC4" s="485"/>
-      <c r="BD4" s="485"/>
-      <c r="BE4" s="485"/>
-      <c r="BF4" s="486"/>
+      <c r="AT4" s="518"/>
+      <c r="AU4" s="518"/>
+      <c r="AV4" s="518"/>
+      <c r="AW4" s="518"/>
+      <c r="AX4" s="518"/>
+      <c r="AY4" s="518"/>
+      <c r="AZ4" s="518"/>
+      <c r="BA4" s="518"/>
+      <c r="BB4" s="518"/>
+      <c r="BC4" s="518"/>
+      <c r="BD4" s="518"/>
+      <c r="BE4" s="518"/>
+      <c r="BF4" s="519"/>
     </row>
     <row r="5" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="491"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="501" t="s">
+      <c r="B5" s="494"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="525" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="497"/>
-      <c r="I5" s="497"/>
-      <c r="J5" s="497"/>
-      <c r="K5" s="498"/>
-      <c r="L5" s="496" t="s">
+      <c r="H5" s="521"/>
+      <c r="I5" s="521"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="522"/>
+      <c r="L5" s="520" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="497"/>
-      <c r="N5" s="497"/>
-      <c r="O5" s="497"/>
-      <c r="P5" s="497"/>
-      <c r="Q5" s="497"/>
-      <c r="R5" s="498"/>
-      <c r="S5" s="496" t="s">
+      <c r="M5" s="521"/>
+      <c r="N5" s="521"/>
+      <c r="O5" s="521"/>
+      <c r="P5" s="521"/>
+      <c r="Q5" s="521"/>
+      <c r="R5" s="522"/>
+      <c r="S5" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="497"/>
-      <c r="U5" s="497"/>
-      <c r="V5" s="497"/>
-      <c r="W5" s="497"/>
-      <c r="X5" s="497"/>
-      <c r="Y5" s="497"/>
-      <c r="Z5" s="499" t="s">
+      <c r="T5" s="521"/>
+      <c r="U5" s="521"/>
+      <c r="V5" s="521"/>
+      <c r="W5" s="521"/>
+      <c r="X5" s="521"/>
+      <c r="Y5" s="521"/>
+      <c r="Z5" s="523" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="497"/>
-      <c r="AB5" s="497"/>
-      <c r="AC5" s="497"/>
-      <c r="AD5" s="497"/>
-      <c r="AE5" s="497"/>
-      <c r="AF5" s="500"/>
-      <c r="AG5" s="501" t="s">
+      <c r="AA5" s="521"/>
+      <c r="AB5" s="521"/>
+      <c r="AC5" s="521"/>
+      <c r="AD5" s="521"/>
+      <c r="AE5" s="521"/>
+      <c r="AF5" s="524"/>
+      <c r="AG5" s="525" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="497"/>
-      <c r="AI5" s="497"/>
-      <c r="AJ5" s="497"/>
-      <c r="AK5" s="497"/>
-      <c r="AL5" s="497"/>
-      <c r="AM5" s="498"/>
-      <c r="AN5" s="496" t="s">
+      <c r="AH5" s="521"/>
+      <c r="AI5" s="521"/>
+      <c r="AJ5" s="521"/>
+      <c r="AK5" s="521"/>
+      <c r="AL5" s="521"/>
+      <c r="AM5" s="522"/>
+      <c r="AN5" s="520" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="497"/>
-      <c r="AP5" s="497"/>
-      <c r="AQ5" s="497"/>
-      <c r="AR5" s="497"/>
-      <c r="AS5" s="497"/>
-      <c r="AT5" s="498"/>
-      <c r="AU5" s="496" t="s">
+      <c r="AO5" s="521"/>
+      <c r="AP5" s="521"/>
+      <c r="AQ5" s="521"/>
+      <c r="AR5" s="521"/>
+      <c r="AS5" s="521"/>
+      <c r="AT5" s="522"/>
+      <c r="AU5" s="520" t="s">
         <v>126</v>
       </c>
-      <c r="AV5" s="497"/>
-      <c r="AW5" s="497"/>
-      <c r="AX5" s="497"/>
-      <c r="AY5" s="497"/>
-      <c r="AZ5" s="497"/>
-      <c r="BA5" s="498"/>
-      <c r="BB5" s="480" t="s">
+      <c r="AV5" s="521"/>
+      <c r="AW5" s="521"/>
+      <c r="AX5" s="521"/>
+      <c r="AY5" s="521"/>
+      <c r="AZ5" s="521"/>
+      <c r="BA5" s="522"/>
+      <c r="BB5" s="513" t="s">
         <v>127</v>
       </c>
-      <c r="BC5" s="481"/>
-      <c r="BD5" s="481"/>
-      <c r="BE5" s="481"/>
-      <c r="BF5" s="482"/>
+      <c r="BC5" s="514"/>
+      <c r="BD5" s="514"/>
+      <c r="BE5" s="514"/>
+      <c r="BF5" s="515"/>
     </row>
     <row r="6" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="492"/>
-      <c r="C6" s="495"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="495"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="505"/>
+      <c r="D6" s="505"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="505"/>
       <c r="G6" s="13">
         <v>24</v>
       </c>
@@ -4872,13 +4852,13 @@
     </row>
     <row r="7" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="510" t="s">
+      <c r="B7" s="490" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
-      <c r="F7" s="512"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
+      <c r="F7" s="492"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -5038,7 +5018,7 @@
     </row>
     <row r="8" spans="1:58" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="513" t="s">
+      <c r="B8" s="493" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -5102,7 +5082,7 @@
     </row>
     <row r="9" spans="1:58" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="491"/>
+      <c r="B9" s="494"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -5164,7 +5144,7 @@
     </row>
     <row r="10" spans="1:58" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="491"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -5226,7 +5206,7 @@
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="491"/>
+      <c r="B11" s="494"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -5288,7 +5268,7 @@
     </row>
     <row r="12" spans="1:58" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="491"/>
+      <c r="B12" s="494"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -5350,7 +5330,7 @@
     </row>
     <row r="13" spans="1:58" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="491"/>
+      <c r="B13" s="494"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -5412,7 +5392,7 @@
     </row>
     <row r="14" spans="1:58" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="491"/>
+      <c r="B14" s="494"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -5474,7 +5454,7 @@
     </row>
     <row r="15" spans="1:58" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="491"/>
+      <c r="B15" s="494"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -5536,7 +5516,7 @@
     </row>
     <row r="16" spans="1:58" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="491"/>
+      <c r="B16" s="494"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -5598,7 +5578,7 @@
     </row>
     <row r="17" spans="1:58" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="491"/>
+      <c r="B17" s="494"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -5660,7 +5640,7 @@
     </row>
     <row r="18" spans="1:58" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="491"/>
+      <c r="B18" s="494"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -5722,7 +5702,7 @@
     </row>
     <row r="19" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="492"/>
+      <c r="B19" s="495"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -5784,13 +5764,13 @@
     </row>
     <row r="20" spans="1:58" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="502" t="s">
+      <c r="B20" s="496" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="514" t="s">
+      <c r="C20" s="497" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="515" t="s">
+      <c r="D20" s="499" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -5812,7 +5792,7 @@
       <c r="S20" s="240"/>
       <c r="T20" s="124"/>
       <c r="U20" s="314"/>
-      <c r="V20" s="529"/>
+      <c r="V20" s="483"/>
       <c r="W20" s="314"/>
       <c r="X20" s="315"/>
       <c r="Y20" s="316"/>
@@ -5852,9 +5832,9 @@
     </row>
     <row r="21" spans="1:58" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="491"/>
-      <c r="C21" s="494"/>
-      <c r="D21" s="494"/>
+      <c r="B21" s="494"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="498"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -5874,7 +5854,7 @@
       <c r="S21" s="321"/>
       <c r="T21" s="124"/>
       <c r="U21" s="80"/>
-      <c r="V21" s="530"/>
+      <c r="V21" s="484"/>
       <c r="W21" s="123"/>
       <c r="X21" s="123"/>
       <c r="Y21" s="322"/>
@@ -5914,9 +5894,9 @@
     </row>
     <row r="22" spans="1:58" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="491"/>
-      <c r="C22" s="494"/>
-      <c r="D22" s="494"/>
+      <c r="B22" s="494"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="498"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -5976,9 +5956,9 @@
     </row>
     <row r="23" spans="1:58" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="491"/>
-      <c r="C23" s="494"/>
-      <c r="D23" s="508"/>
+      <c r="B23" s="494"/>
+      <c r="C23" s="498"/>
+      <c r="D23" s="500"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -6038,9 +6018,9 @@
     </row>
     <row r="24" spans="1:58" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="491"/>
-      <c r="C24" s="494"/>
-      <c r="D24" s="509" t="s">
+      <c r="B24" s="494"/>
+      <c r="C24" s="498"/>
+      <c r="D24" s="501" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -6102,9 +6082,9 @@
     </row>
     <row r="25" spans="1:58" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="491"/>
-      <c r="C25" s="494"/>
-      <c r="D25" s="494"/>
+      <c r="B25" s="494"/>
+      <c r="C25" s="498"/>
+      <c r="D25" s="498"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -6164,9 +6144,9 @@
     </row>
     <row r="26" spans="1:58" ht="16.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="491"/>
-      <c r="C26" s="494"/>
-      <c r="D26" s="494"/>
+      <c r="B26" s="494"/>
+      <c r="C26" s="498"/>
+      <c r="D26" s="498"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -6226,9 +6206,9 @@
     </row>
     <row r="27" spans="1:58" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="491"/>
-      <c r="C27" s="494"/>
-      <c r="D27" s="508"/>
+      <c r="B27" s="494"/>
+      <c r="C27" s="498"/>
+      <c r="D27" s="500"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -6288,9 +6268,9 @@
     </row>
     <row r="28" spans="1:58" ht="17.25" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="491"/>
-      <c r="C28" s="494"/>
-      <c r="D28" s="509" t="s">
+      <c r="B28" s="494"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="501" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -6352,9 +6332,9 @@
     </row>
     <row r="29" spans="1:58" ht="17.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="491"/>
-      <c r="C29" s="494"/>
-      <c r="D29" s="494"/>
+      <c r="B29" s="494"/>
+      <c r="C29" s="498"/>
+      <c r="D29" s="498"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -6414,9 +6394,9 @@
     </row>
     <row r="30" spans="1:58" ht="17.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="491"/>
-      <c r="C30" s="494"/>
-      <c r="D30" s="494"/>
+      <c r="B30" s="494"/>
+      <c r="C30" s="498"/>
+      <c r="D30" s="498"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -6476,9 +6456,9 @@
     </row>
     <row r="31" spans="1:58" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="491"/>
-      <c r="C31" s="494"/>
-      <c r="D31" s="494"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="498"/>
+      <c r="D31" s="498"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -6538,9 +6518,9 @@
     </row>
     <row r="32" spans="1:58" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="491"/>
-      <c r="C32" s="494"/>
-      <c r="D32" s="494"/>
+      <c r="B32" s="494"/>
+      <c r="C32" s="498"/>
+      <c r="D32" s="498"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -6600,9 +6580,9 @@
     </row>
     <row r="33" spans="1:58" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="491"/>
-      <c r="C33" s="494"/>
-      <c r="D33" s="494"/>
+      <c r="B33" s="494"/>
+      <c r="C33" s="498"/>
+      <c r="D33" s="498"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -6662,9 +6642,9 @@
     </row>
     <row r="34" spans="1:58" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="491"/>
-      <c r="C34" s="494"/>
-      <c r="D34" s="509" t="s">
+      <c r="B34" s="494"/>
+      <c r="C34" s="498"/>
+      <c r="D34" s="501" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -6726,9 +6706,9 @@
     </row>
     <row r="35" spans="1:58" ht="18" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="491"/>
-      <c r="C35" s="494"/>
-      <c r="D35" s="494"/>
+      <c r="B35" s="494"/>
+      <c r="C35" s="498"/>
+      <c r="D35" s="498"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -6788,9 +6768,9 @@
     </row>
     <row r="36" spans="1:58" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="491"/>
-      <c r="C36" s="494"/>
-      <c r="D36" s="494"/>
+      <c r="B36" s="494"/>
+      <c r="C36" s="498"/>
+      <c r="D36" s="498"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -6850,9 +6830,9 @@
     </row>
     <row r="37" spans="1:58" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="491"/>
-      <c r="C37" s="494"/>
-      <c r="D37" s="508"/>
+      <c r="B37" s="494"/>
+      <c r="C37" s="498"/>
+      <c r="D37" s="500"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -6912,9 +6892,9 @@
     </row>
     <row r="38" spans="1:58" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="491"/>
-      <c r="C38" s="494"/>
-      <c r="D38" s="517" t="s">
+      <c r="B38" s="494"/>
+      <c r="C38" s="498"/>
+      <c r="D38" s="503" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -6976,9 +6956,9 @@
     </row>
     <row r="39" spans="1:58" ht="16.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="491"/>
-      <c r="C39" s="494"/>
-      <c r="D39" s="494"/>
+      <c r="B39" s="494"/>
+      <c r="C39" s="498"/>
+      <c r="D39" s="498"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -7038,9 +7018,9 @@
     </row>
     <row r="40" spans="1:58" ht="16.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="491"/>
-      <c r="C40" s="494"/>
-      <c r="D40" s="494"/>
+      <c r="B40" s="494"/>
+      <c r="C40" s="498"/>
+      <c r="D40" s="498"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -7100,9 +7080,9 @@
     </row>
     <row r="41" spans="1:58" ht="16.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="491"/>
-      <c r="C41" s="494"/>
-      <c r="D41" s="494"/>
+      <c r="B41" s="494"/>
+      <c r="C41" s="498"/>
+      <c r="D41" s="498"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -7162,9 +7142,9 @@
     </row>
     <row r="42" spans="1:58" ht="16.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="491"/>
-      <c r="C42" s="494"/>
-      <c r="D42" s="494"/>
+      <c r="B42" s="494"/>
+      <c r="C42" s="498"/>
+      <c r="D42" s="498"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -7224,9 +7204,9 @@
     </row>
     <row r="43" spans="1:58" ht="16.5" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="491"/>
-      <c r="C43" s="494"/>
-      <c r="D43" s="494"/>
+      <c r="B43" s="494"/>
+      <c r="C43" s="498"/>
+      <c r="D43" s="498"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -7286,9 +7266,9 @@
     </row>
     <row r="44" spans="1:58" ht="16.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="491"/>
-      <c r="C44" s="494"/>
-      <c r="D44" s="494"/>
+      <c r="B44" s="494"/>
+      <c r="C44" s="498"/>
+      <c r="D44" s="498"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -7348,9 +7328,9 @@
     </row>
     <row r="45" spans="1:58" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="491"/>
-      <c r="C45" s="494"/>
-      <c r="D45" s="508"/>
+      <c r="B45" s="494"/>
+      <c r="C45" s="498"/>
+      <c r="D45" s="500"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -7410,9 +7390,9 @@
     </row>
     <row r="46" spans="1:58" ht="16.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="491"/>
-      <c r="C46" s="494"/>
-      <c r="D46" s="518" t="s">
+      <c r="B46" s="494"/>
+      <c r="C46" s="498"/>
+      <c r="D46" s="504" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -7474,9 +7454,9 @@
     </row>
     <row r="47" spans="1:58" ht="16.5" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="491"/>
-      <c r="C47" s="494"/>
-      <c r="D47" s="494"/>
+      <c r="B47" s="494"/>
+      <c r="C47" s="498"/>
+      <c r="D47" s="498"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -7536,9 +7516,9 @@
     </row>
     <row r="48" spans="1:58" ht="16.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="491"/>
-      <c r="C48" s="494"/>
-      <c r="D48" s="494"/>
+      <c r="B48" s="494"/>
+      <c r="C48" s="498"/>
+      <c r="D48" s="498"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -7598,9 +7578,9 @@
     </row>
     <row r="49" spans="1:58" ht="16.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="491"/>
-      <c r="C49" s="494"/>
-      <c r="D49" s="508"/>
+      <c r="B49" s="494"/>
+      <c r="C49" s="498"/>
+      <c r="D49" s="500"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -7660,9 +7640,9 @@
     </row>
     <row r="50" spans="1:58" ht="16.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="491"/>
-      <c r="C50" s="494"/>
-      <c r="D50" s="517" t="s">
+      <c r="B50" s="494"/>
+      <c r="C50" s="498"/>
+      <c r="D50" s="503" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -7684,7 +7664,7 @@
       <c r="S50" s="355"/>
       <c r="T50" s="344"/>
       <c r="U50" s="344"/>
-      <c r="V50" s="531"/>
+      <c r="V50" s="485"/>
       <c r="W50" s="124"/>
       <c r="X50" s="344"/>
       <c r="Y50" s="345"/>
@@ -7724,9 +7704,9 @@
     </row>
     <row r="51" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="491"/>
-      <c r="C51" s="494"/>
-      <c r="D51" s="495"/>
+      <c r="B51" s="494"/>
+      <c r="C51" s="498"/>
+      <c r="D51" s="505"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -7746,7 +7726,7 @@
       <c r="S51" s="403"/>
       <c r="T51" s="404"/>
       <c r="U51" s="404"/>
-      <c r="V51" s="532"/>
+      <c r="V51" s="486"/>
       <c r="W51" s="279"/>
       <c r="X51" s="404"/>
       <c r="Y51" s="405"/>
@@ -7786,8 +7766,8 @@
     </row>
     <row r="52" spans="1:58" ht="16.5" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="491"/>
-      <c r="C52" s="506" t="s">
+      <c r="B52" s="494"/>
+      <c r="C52" s="509" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -7852,9 +7832,9 @@
     </row>
     <row r="53" spans="1:58" ht="16.5" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="491"/>
-      <c r="C53" s="494"/>
-      <c r="D53" s="507" t="s">
+      <c r="B53" s="494"/>
+      <c r="C53" s="498"/>
+      <c r="D53" s="510" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -7916,9 +7896,9 @@
     </row>
     <row r="54" spans="1:58" ht="16.5" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="491"/>
-      <c r="C54" s="494"/>
-      <c r="D54" s="494"/>
+      <c r="B54" s="494"/>
+      <c r="C54" s="498"/>
+      <c r="D54" s="498"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -7978,9 +7958,9 @@
     </row>
     <row r="55" spans="1:58" ht="16.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="491"/>
-      <c r="C55" s="494"/>
-      <c r="D55" s="508"/>
+      <c r="B55" s="494"/>
+      <c r="C55" s="498"/>
+      <c r="D55" s="500"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -8040,9 +8020,9 @@
     </row>
     <row r="56" spans="1:58" ht="16.5" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="491"/>
-      <c r="C56" s="494"/>
-      <c r="D56" s="507" t="s">
+      <c r="B56" s="494"/>
+      <c r="C56" s="498"/>
+      <c r="D56" s="510" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -8064,7 +8044,7 @@
       <c r="S56" s="409"/>
       <c r="T56" s="124"/>
       <c r="U56" s="125"/>
-      <c r="V56" s="533"/>
+      <c r="V56" s="487"/>
       <c r="W56" s="125"/>
       <c r="X56" s="125"/>
       <c r="Y56" s="213"/>
@@ -8104,9 +8084,9 @@
     </row>
     <row r="57" spans="1:58" ht="16.5" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="491"/>
-      <c r="C57" s="494"/>
-      <c r="D57" s="494"/>
+      <c r="B57" s="494"/>
+      <c r="C57" s="498"/>
+      <c r="D57" s="498"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -8126,7 +8106,7 @@
       <c r="S57" s="409"/>
       <c r="T57" s="124"/>
       <c r="U57" s="124"/>
-      <c r="V57" s="533"/>
+      <c r="V57" s="487"/>
       <c r="W57" s="125"/>
       <c r="X57" s="125"/>
       <c r="Y57" s="213"/>
@@ -8166,9 +8146,9 @@
     </row>
     <row r="58" spans="1:58" ht="16.5" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="491"/>
-      <c r="C58" s="494"/>
-      <c r="D58" s="508"/>
+      <c r="B58" s="494"/>
+      <c r="C58" s="498"/>
+      <c r="D58" s="500"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -8188,7 +8168,7 @@
       <c r="S58" s="409"/>
       <c r="T58" s="125"/>
       <c r="U58" s="125"/>
-      <c r="V58" s="533"/>
+      <c r="V58" s="487"/>
       <c r="W58" s="125"/>
       <c r="X58" s="125"/>
       <c r="Y58" s="213"/>
@@ -8228,9 +8208,9 @@
     </row>
     <row r="59" spans="1:58" ht="16.5" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="491"/>
-      <c r="C59" s="494"/>
-      <c r="D59" s="507" t="s">
+      <c r="B59" s="494"/>
+      <c r="C59" s="498"/>
+      <c r="D59" s="510" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -8292,9 +8272,9 @@
     </row>
     <row r="60" spans="1:58" ht="16.5" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="491"/>
-      <c r="C60" s="494"/>
-      <c r="D60" s="494"/>
+      <c r="B60" s="494"/>
+      <c r="C60" s="498"/>
+      <c r="D60" s="498"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -8354,9 +8334,9 @@
     </row>
     <row r="61" spans="1:58" ht="16.5" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="491"/>
-      <c r="C61" s="494"/>
-      <c r="D61" s="508"/>
+      <c r="B61" s="494"/>
+      <c r="C61" s="498"/>
+      <c r="D61" s="500"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -8416,9 +8396,9 @@
     </row>
     <row r="62" spans="1:58" ht="16.5" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="491"/>
-      <c r="C62" s="494"/>
-      <c r="D62" s="509" t="s">
+      <c r="B62" s="494"/>
+      <c r="C62" s="498"/>
+      <c r="D62" s="501" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -8480,9 +8460,9 @@
     </row>
     <row r="63" spans="1:58" ht="16.5" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="491"/>
-      <c r="C63" s="494"/>
-      <c r="D63" s="494"/>
+      <c r="B63" s="494"/>
+      <c r="C63" s="498"/>
+      <c r="D63" s="498"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -8542,9 +8522,9 @@
     </row>
     <row r="64" spans="1:58" ht="16.5" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="491"/>
-      <c r="C64" s="494"/>
-      <c r="D64" s="508"/>
+      <c r="B64" s="494"/>
+      <c r="C64" s="498"/>
+      <c r="D64" s="500"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -8604,8 +8584,8 @@
     </row>
     <row r="65" spans="1:58" ht="16.5" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="491"/>
-      <c r="C65" s="494"/>
+      <c r="B65" s="494"/>
+      <c r="C65" s="498"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -8668,9 +8648,9 @@
     </row>
     <row r="66" spans="1:58" ht="16.5" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="491"/>
-      <c r="C66" s="494"/>
-      <c r="D66" s="509" t="s">
+      <c r="B66" s="494"/>
+      <c r="C66" s="498"/>
+      <c r="D66" s="501" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -8732,9 +8712,9 @@
     </row>
     <row r="67" spans="1:58" ht="16.5" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="491"/>
-      <c r="C67" s="494"/>
-      <c r="D67" s="508"/>
+      <c r="B67" s="494"/>
+      <c r="C67" s="498"/>
+      <c r="D67" s="500"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -8794,9 +8774,9 @@
     </row>
     <row r="68" spans="1:58" ht="16.5" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="491"/>
-      <c r="C68" s="494"/>
-      <c r="D68" s="509" t="s">
+      <c r="B68" s="494"/>
+      <c r="C68" s="498"/>
+      <c r="D68" s="501" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -8858,9 +8838,9 @@
     </row>
     <row r="69" spans="1:58" ht="16.5" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="491"/>
-      <c r="C69" s="494"/>
-      <c r="D69" s="494"/>
+      <c r="B69" s="494"/>
+      <c r="C69" s="498"/>
+      <c r="D69" s="498"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -8920,9 +8900,9 @@
     </row>
     <row r="70" spans="1:58" ht="16.5" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="491"/>
-      <c r="C70" s="494"/>
-      <c r="D70" s="508"/>
+      <c r="B70" s="494"/>
+      <c r="C70" s="498"/>
+      <c r="D70" s="500"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -8982,9 +8962,9 @@
     </row>
     <row r="71" spans="1:58" ht="16.5" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="491"/>
-      <c r="C71" s="494"/>
-      <c r="D71" s="509" t="s">
+      <c r="B71" s="494"/>
+      <c r="C71" s="498"/>
+      <c r="D71" s="501" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -9046,9 +9026,9 @@
     </row>
     <row r="72" spans="1:58" ht="16.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="491"/>
-      <c r="C72" s="494"/>
-      <c r="D72" s="494"/>
+      <c r="B72" s="494"/>
+      <c r="C72" s="498"/>
+      <c r="D72" s="498"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -9108,9 +9088,9 @@
     </row>
     <row r="73" spans="1:58" ht="16.5" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="491"/>
-      <c r="C73" s="494"/>
-      <c r="D73" s="508"/>
+      <c r="B73" s="494"/>
+      <c r="C73" s="498"/>
+      <c r="D73" s="500"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -9170,9 +9150,9 @@
     </row>
     <row r="74" spans="1:58" ht="16.5" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="491"/>
-      <c r="C74" s="494"/>
-      <c r="D74" s="516" t="s">
+      <c r="B74" s="494"/>
+      <c r="C74" s="498"/>
+      <c r="D74" s="502" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -9234,9 +9214,9 @@
     </row>
     <row r="75" spans="1:58" ht="16.5" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="491"/>
-      <c r="C75" s="494"/>
-      <c r="D75" s="494"/>
+      <c r="B75" s="494"/>
+      <c r="C75" s="498"/>
+      <c r="D75" s="498"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -9296,9 +9276,9 @@
     </row>
     <row r="76" spans="1:58" ht="16.5" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="491"/>
-      <c r="C76" s="494"/>
-      <c r="D76" s="494"/>
+      <c r="B76" s="494"/>
+      <c r="C76" s="498"/>
+      <c r="D76" s="498"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -9358,9 +9338,9 @@
     </row>
     <row r="77" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="491"/>
-      <c r="C77" s="494"/>
-      <c r="D77" s="494"/>
+      <c r="B77" s="494"/>
+      <c r="C77" s="498"/>
+      <c r="D77" s="498"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -9420,15 +9400,15 @@
     </row>
     <row r="78" spans="1:58" ht="16.5" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="502" t="s">
+      <c r="B78" s="496" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="504" t="s">
+      <c r="E78" s="507" t="s">
         <v>117</v>
       </c>
-      <c r="F78" s="73"/>
+      <c r="F78" s="534"/>
       <c r="G78" s="319"/>
       <c r="H78" s="315"/>
       <c r="I78" s="315"/>
@@ -9484,11 +9464,11 @@
     </row>
     <row r="79" spans="1:58" ht="16.5" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="491"/>
+      <c r="B79" s="494"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="505"/>
-      <c r="F79" s="183"/>
+      <c r="E79" s="508"/>
+      <c r="F79" s="533"/>
       <c r="G79" s="326"/>
       <c r="H79" s="123"/>
       <c r="I79" s="123"/>
@@ -9544,11 +9524,11 @@
     </row>
     <row r="80" spans="1:58" ht="16.5" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="491"/>
+      <c r="B80" s="494"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="505"/>
-      <c r="F80" s="184"/>
+      <c r="E80" s="508"/>
+      <c r="F80" s="535"/>
       <c r="G80" s="326"/>
       <c r="H80" s="123"/>
       <c r="I80" s="123"/>
@@ -9604,11 +9584,13 @@
     </row>
     <row r="81" spans="1:58" ht="16.5" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="491"/>
+      <c r="B81" s="494"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="505"/>
-      <c r="F81" s="185"/>
+      <c r="E81" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="187"/>
       <c r="G81" s="326"/>
       <c r="H81" s="123"/>
       <c r="I81" s="123"/>
@@ -9625,233 +9607,217 @@
       <c r="T81" s="125"/>
       <c r="U81" s="125"/>
       <c r="V81" s="125"/>
-      <c r="W81" s="125"/>
+      <c r="W81" s="154"/>
       <c r="X81" s="125"/>
       <c r="Y81" s="213"/>
       <c r="Z81" s="241"/>
-      <c r="AA81" s="125"/>
+      <c r="AA81" s="154"/>
       <c r="AB81" s="125"/>
-      <c r="AC81" s="125"/>
+      <c r="AC81" s="154"/>
       <c r="AD81" s="125"/>
-      <c r="AE81" s="459"/>
+      <c r="AE81" s="125"/>
       <c r="AF81" s="242"/>
       <c r="AG81" s="223"/>
-      <c r="AH81" s="125"/>
+      <c r="AH81" s="154"/>
       <c r="AI81" s="125"/>
-      <c r="AJ81" s="125"/>
-      <c r="AK81" s="125"/>
-      <c r="AL81" s="459"/>
+      <c r="AJ81" s="154"/>
+      <c r="AK81" s="154"/>
+      <c r="AL81" s="125"/>
       <c r="AM81" s="213"/>
-      <c r="AN81" s="241"/>
+      <c r="AN81" s="291"/>
       <c r="AO81" s="125"/>
       <c r="AP81" s="125"/>
       <c r="AQ81" s="125"/>
       <c r="AR81" s="125"/>
-      <c r="AS81" s="459"/>
+      <c r="AS81" s="125"/>
       <c r="AT81" s="242"/>
-      <c r="AU81" s="241"/>
+      <c r="AU81" s="291"/>
       <c r="AV81" s="125"/>
       <c r="AW81" s="125"/>
       <c r="AX81" s="125"/>
       <c r="AY81" s="125"/>
-      <c r="AZ81" s="459"/>
+      <c r="AZ81" s="125"/>
       <c r="BA81" s="242"/>
-      <c r="BB81" s="241"/>
+      <c r="BB81" s="291"/>
       <c r="BC81" s="125"/>
       <c r="BD81" s="125"/>
       <c r="BE81" s="125"/>
       <c r="BF81" s="242"/>
     </row>
-    <row r="82" spans="1:58" ht="16.5" customHeight="1">
+    <row r="82" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="491"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="505"/>
-      <c r="F82" s="186"/>
-      <c r="G82" s="326"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="123"/>
-      <c r="J82" s="123"/>
-      <c r="K82" s="427"/>
-      <c r="L82" s="428"/>
-      <c r="M82" s="123"/>
-      <c r="N82" s="123"/>
-      <c r="O82" s="123"/>
-      <c r="P82" s="123"/>
-      <c r="Q82" s="123"/>
-      <c r="R82" s="427"/>
-      <c r="S82" s="458"/>
-      <c r="T82" s="125"/>
-      <c r="U82" s="125"/>
-      <c r="V82" s="125"/>
-      <c r="W82" s="125"/>
-      <c r="X82" s="125"/>
-      <c r="Y82" s="213"/>
-      <c r="Z82" s="241"/>
-      <c r="AA82" s="125"/>
-      <c r="AB82" s="125"/>
-      <c r="AC82" s="125"/>
-      <c r="AD82" s="125"/>
-      <c r="AE82" s="459"/>
-      <c r="AF82" s="242"/>
-      <c r="AG82" s="223"/>
-      <c r="AH82" s="125"/>
-      <c r="AI82" s="125"/>
-      <c r="AJ82" s="125"/>
-      <c r="AK82" s="125"/>
-      <c r="AL82" s="459"/>
-      <c r="AM82" s="213"/>
-      <c r="AN82" s="241"/>
-      <c r="AO82" s="125"/>
-      <c r="AP82" s="125"/>
-      <c r="AQ82" s="125"/>
-      <c r="AR82" s="125"/>
-      <c r="AS82" s="459"/>
-      <c r="AT82" s="242"/>
-      <c r="AU82" s="241"/>
-      <c r="AV82" s="125"/>
-      <c r="AW82" s="125"/>
-      <c r="AX82" s="125"/>
-      <c r="AY82" s="125"/>
-      <c r="AZ82" s="459"/>
-      <c r="BA82" s="242"/>
-      <c r="BB82" s="241"/>
-      <c r="BC82" s="125"/>
-      <c r="BD82" s="125"/>
-      <c r="BE82" s="125"/>
-      <c r="BF82" s="242"/>
+      <c r="B82" s="506"/>
+      <c r="C82" s="188"/>
+      <c r="D82" s="189"/>
+      <c r="E82" s="190" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" s="191"/>
+      <c r="G82" s="460"/>
+      <c r="H82" s="461"/>
+      <c r="I82" s="462"/>
+      <c r="J82" s="401"/>
+      <c r="K82" s="463"/>
+      <c r="L82" s="464"/>
+      <c r="M82" s="461"/>
+      <c r="N82" s="461"/>
+      <c r="O82" s="461"/>
+      <c r="P82" s="461"/>
+      <c r="Q82" s="461"/>
+      <c r="R82" s="463"/>
+      <c r="S82" s="465"/>
+      <c r="T82" s="466"/>
+      <c r="U82" s="466"/>
+      <c r="V82" s="466"/>
+      <c r="W82" s="466"/>
+      <c r="X82" s="466"/>
+      <c r="Y82" s="467"/>
+      <c r="Z82" s="468"/>
+      <c r="AA82" s="466"/>
+      <c r="AB82" s="466"/>
+      <c r="AC82" s="466"/>
+      <c r="AD82" s="466"/>
+      <c r="AE82" s="466"/>
+      <c r="AF82" s="469"/>
+      <c r="AG82" s="470"/>
+      <c r="AH82" s="466"/>
+      <c r="AI82" s="466"/>
+      <c r="AJ82" s="466"/>
+      <c r="AK82" s="466"/>
+      <c r="AL82" s="466"/>
+      <c r="AM82" s="467"/>
+      <c r="AN82" s="468"/>
+      <c r="AO82" s="466"/>
+      <c r="AP82" s="466"/>
+      <c r="AQ82" s="466"/>
+      <c r="AR82" s="466"/>
+      <c r="AS82" s="466"/>
+      <c r="AT82" s="469"/>
+      <c r="AU82" s="468"/>
+      <c r="AV82" s="466"/>
+      <c r="AW82" s="466"/>
+      <c r="AX82" s="466"/>
+      <c r="AY82" s="466"/>
+      <c r="AZ82" s="466"/>
+      <c r="BA82" s="469"/>
+      <c r="BB82" s="468"/>
+      <c r="BC82" s="466"/>
+      <c r="BD82" s="466"/>
+      <c r="BE82" s="466"/>
+      <c r="BF82" s="469"/>
     </row>
     <row r="83" spans="1:58" ht="16.5" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="491"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="187"/>
-      <c r="G83" s="326"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="123"/>
-      <c r="J83" s="123"/>
-      <c r="K83" s="427"/>
-      <c r="L83" s="428"/>
-      <c r="M83" s="123"/>
-      <c r="N83" s="123"/>
-      <c r="O83" s="123"/>
-      <c r="P83" s="123"/>
-      <c r="Q83" s="123"/>
-      <c r="R83" s="427"/>
-      <c r="S83" s="458"/>
-      <c r="T83" s="125"/>
-      <c r="U83" s="125"/>
-      <c r="V83" s="125"/>
-      <c r="W83" s="154"/>
-      <c r="X83" s="125"/>
-      <c r="Y83" s="213"/>
-      <c r="Z83" s="241"/>
-      <c r="AA83" s="154"/>
-      <c r="AB83" s="125"/>
-      <c r="AC83" s="154"/>
-      <c r="AD83" s="125"/>
-      <c r="AE83" s="125"/>
-      <c r="AF83" s="242"/>
-      <c r="AG83" s="223"/>
-      <c r="AH83" s="154"/>
-      <c r="AI83" s="125"/>
-      <c r="AJ83" s="154"/>
-      <c r="AK83" s="154"/>
-      <c r="AL83" s="125"/>
-      <c r="AM83" s="213"/>
-      <c r="AN83" s="291"/>
-      <c r="AO83" s="125"/>
-      <c r="AP83" s="125"/>
-      <c r="AQ83" s="125"/>
-      <c r="AR83" s="125"/>
-      <c r="AS83" s="125"/>
-      <c r="AT83" s="242"/>
-      <c r="AU83" s="291"/>
-      <c r="AV83" s="125"/>
-      <c r="AW83" s="125"/>
-      <c r="AX83" s="125"/>
-      <c r="AY83" s="125"/>
-      <c r="AZ83" s="125"/>
-      <c r="BA83" s="242"/>
-      <c r="BB83" s="291"/>
-      <c r="BC83" s="125"/>
-      <c r="BD83" s="125"/>
-      <c r="BE83" s="125"/>
-      <c r="BF83" s="242"/>
-    </row>
-    <row r="84" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="76"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+    </row>
+    <row r="84" spans="1:58" ht="16.5" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="503"/>
-      <c r="C84" s="188"/>
-      <c r="D84" s="189"/>
-      <c r="E84" s="190" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" s="191"/>
-      <c r="G84" s="460"/>
-      <c r="H84" s="461"/>
-      <c r="I84" s="462"/>
-      <c r="J84" s="401"/>
-      <c r="K84" s="463"/>
-      <c r="L84" s="464"/>
-      <c r="M84" s="461"/>
-      <c r="N84" s="461"/>
-      <c r="O84" s="461"/>
-      <c r="P84" s="461"/>
-      <c r="Q84" s="461"/>
-      <c r="R84" s="463"/>
-      <c r="S84" s="465"/>
-      <c r="T84" s="466"/>
-      <c r="U84" s="466"/>
-      <c r="V84" s="466"/>
-      <c r="W84" s="466"/>
-      <c r="X84" s="466"/>
-      <c r="Y84" s="467"/>
-      <c r="Z84" s="468"/>
-      <c r="AA84" s="466"/>
-      <c r="AB84" s="466"/>
-      <c r="AC84" s="466"/>
-      <c r="AD84" s="466"/>
-      <c r="AE84" s="466"/>
-      <c r="AF84" s="469"/>
-      <c r="AG84" s="470"/>
-      <c r="AH84" s="466"/>
-      <c r="AI84" s="466"/>
-      <c r="AJ84" s="466"/>
-      <c r="AK84" s="466"/>
-      <c r="AL84" s="466"/>
-      <c r="AM84" s="467"/>
-      <c r="AN84" s="468"/>
-      <c r="AO84" s="466"/>
-      <c r="AP84" s="466"/>
-      <c r="AQ84" s="466"/>
-      <c r="AR84" s="466"/>
-      <c r="AS84" s="466"/>
-      <c r="AT84" s="469"/>
-      <c r="AU84" s="468"/>
-      <c r="AV84" s="466"/>
-      <c r="AW84" s="466"/>
-      <c r="AX84" s="466"/>
-      <c r="AY84" s="466"/>
-      <c r="AZ84" s="466"/>
-      <c r="BA84" s="469"/>
-      <c r="BB84" s="468"/>
-      <c r="BC84" s="466"/>
-      <c r="BD84" s="466"/>
-      <c r="BE84" s="466"/>
-      <c r="BF84" s="469"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="1"/>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
     </row>
     <row r="85" spans="1:58" ht="16.5" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="12"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -10333,7 +10299,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="76"/>
+      <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -10386,7 +10352,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="76"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -20022,7 +19988,7 @@
       <c r="AX276" s="1"/>
       <c r="AY276" s="1"/>
     </row>
-    <row r="277" spans="1:51" ht="16.5" customHeight="1">
+    <row r="277" spans="1:51" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -20075,7 +20041,7 @@
       <c r="AX277" s="1"/>
       <c r="AY277" s="1"/>
     </row>
-    <row r="278" spans="1:51" ht="16.5" customHeight="1">
+    <row r="278" spans="1:51" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -20340,112 +20306,8 @@
       <c r="AX282" s="1"/>
       <c r="AY282" s="1"/>
     </row>
-    <row r="283" spans="1:51" ht="15.75" customHeight="1">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-      <c r="I283" s="1"/>
-      <c r="J283" s="1"/>
-      <c r="K283" s="1"/>
-      <c r="L283" s="1"/>
-      <c r="M283" s="1"/>
-      <c r="N283" s="1"/>
-      <c r="O283" s="1"/>
-      <c r="P283" s="1"/>
-      <c r="Q283" s="1"/>
-      <c r="R283" s="1"/>
-      <c r="S283" s="1"/>
-      <c r="T283" s="1"/>
-      <c r="U283" s="1"/>
-      <c r="V283" s="1"/>
-      <c r="W283" s="1"/>
-      <c r="X283" s="1"/>
-      <c r="Y283" s="1"/>
-      <c r="Z283" s="1"/>
-      <c r="AA283" s="1"/>
-      <c r="AB283" s="1"/>
-      <c r="AC283" s="1"/>
-      <c r="AD283" s="1"/>
-      <c r="AE283" s="1"/>
-      <c r="AF283" s="1"/>
-      <c r="AG283" s="1"/>
-      <c r="AH283" s="1"/>
-      <c r="AI283" s="1"/>
-      <c r="AJ283" s="1"/>
-      <c r="AK283" s="1"/>
-      <c r="AL283" s="1"/>
-      <c r="AM283" s="1"/>
-      <c r="AN283" s="1"/>
-      <c r="AO283" s="1"/>
-      <c r="AP283" s="1"/>
-      <c r="AQ283" s="1"/>
-      <c r="AR283" s="1"/>
-      <c r="AS283" s="1"/>
-      <c r="AT283" s="1"/>
-      <c r="AU283" s="1"/>
-      <c r="AV283" s="1"/>
-      <c r="AW283" s="1"/>
-      <c r="AX283" s="1"/>
-      <c r="AY283" s="1"/>
-    </row>
-    <row r="284" spans="1:51" ht="15.75" customHeight="1">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="1"/>
-      <c r="M284" s="1"/>
-      <c r="N284" s="1"/>
-      <c r="O284" s="1"/>
-      <c r="P284" s="1"/>
-      <c r="Q284" s="1"/>
-      <c r="R284" s="1"/>
-      <c r="S284" s="1"/>
-      <c r="T284" s="1"/>
-      <c r="U284" s="1"/>
-      <c r="V284" s="1"/>
-      <c r="W284" s="1"/>
-      <c r="X284" s="1"/>
-      <c r="Y284" s="1"/>
-      <c r="Z284" s="1"/>
-      <c r="AA284" s="1"/>
-      <c r="AB284" s="1"/>
-      <c r="AC284" s="1"/>
-      <c r="AD284" s="1"/>
-      <c r="AE284" s="1"/>
-      <c r="AF284" s="1"/>
-      <c r="AG284" s="1"/>
-      <c r="AH284" s="1"/>
-      <c r="AI284" s="1"/>
-      <c r="AJ284" s="1"/>
-      <c r="AK284" s="1"/>
-      <c r="AL284" s="1"/>
-      <c r="AM284" s="1"/>
-      <c r="AN284" s="1"/>
-      <c r="AO284" s="1"/>
-      <c r="AP284" s="1"/>
-      <c r="AQ284" s="1"/>
-      <c r="AR284" s="1"/>
-      <c r="AS284" s="1"/>
-      <c r="AT284" s="1"/>
-      <c r="AU284" s="1"/>
-      <c r="AV284" s="1"/>
-      <c r="AW284" s="1"/>
-      <c r="AX284" s="1"/>
-      <c r="AY284" s="1"/>
-    </row>
+    <row r="283" spans="1:51" ht="15.75" customHeight="1"/>
+    <row r="284" spans="1:51" ht="15.75" customHeight="1"/>
     <row r="285" spans="1:51" ht="15.75" customHeight="1"/>
     <row r="286" spans="1:51" ht="15.75" customHeight="1"/>
     <row r="287" spans="1:51" ht="15.75" customHeight="1"/>
@@ -21160,15 +21022,33 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
+  <mergeCells count="43">
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="AS4:BF4"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="AU5:BA5"/>
+    <mergeCell ref="N4:AR4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="C52:C77"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:B19"/>
     <mergeCell ref="B20:B77"/>
@@ -21182,32 +21062,11 @@
     <mergeCell ref="D38:D45"/>
     <mergeCell ref="D46:D49"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="C52:C77"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="AS4:BF4"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="N4:AO4"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="AU5:BA5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -21337,145 +21196,145 @@
       <c r="AK3" s="4"/>
     </row>
     <row r="4" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="490" t="s">
+      <c r="B4" s="511" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="493" t="s">
+      <c r="C4" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="493" t="s">
+      <c r="D4" s="512" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="493" t="s">
+      <c r="E4" s="512" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="493" t="s">
+      <c r="F4" s="512" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="483" t="s">
+      <c r="G4" s="516" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="521"/>
-      <c r="I4" s="523"/>
-      <c r="J4" s="483" t="s">
+      <c r="H4" s="526"/>
+      <c r="I4" s="528"/>
+      <c r="J4" s="516" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="521"/>
-      <c r="L4" s="521"/>
-      <c r="M4" s="521"/>
-      <c r="N4" s="521"/>
-      <c r="O4" s="521"/>
-      <c r="P4" s="521"/>
-      <c r="Q4" s="521"/>
-      <c r="R4" s="521"/>
-      <c r="S4" s="521"/>
-      <c r="T4" s="521"/>
-      <c r="U4" s="521"/>
-      <c r="V4" s="521"/>
-      <c r="W4" s="521"/>
-      <c r="X4" s="521"/>
-      <c r="Y4" s="521"/>
-      <c r="Z4" s="522"/>
-      <c r="AA4" s="522"/>
-      <c r="AB4" s="522"/>
-      <c r="AC4" s="522"/>
-      <c r="AD4" s="522"/>
-      <c r="AE4" s="522"/>
-      <c r="AF4" s="522"/>
-      <c r="AG4" s="521"/>
-      <c r="AH4" s="521"/>
-      <c r="AI4" s="521"/>
-      <c r="AJ4" s="521"/>
-      <c r="AK4" s="521"/>
-      <c r="AL4" s="521"/>
-      <c r="AM4" s="521"/>
-      <c r="AN4" s="523"/>
-      <c r="AO4" s="483" t="s">
+      <c r="K4" s="526"/>
+      <c r="L4" s="526"/>
+      <c r="M4" s="526"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="526"/>
+      <c r="R4" s="526"/>
+      <c r="S4" s="526"/>
+      <c r="T4" s="526"/>
+      <c r="U4" s="526"/>
+      <c r="V4" s="526"/>
+      <c r="W4" s="526"/>
+      <c r="X4" s="526"/>
+      <c r="Y4" s="526"/>
+      <c r="Z4" s="527"/>
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="527"/>
+      <c r="AG4" s="526"/>
+      <c r="AH4" s="526"/>
+      <c r="AI4" s="526"/>
+      <c r="AJ4" s="526"/>
+      <c r="AK4" s="526"/>
+      <c r="AL4" s="526"/>
+      <c r="AM4" s="526"/>
+      <c r="AN4" s="528"/>
+      <c r="AO4" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="521"/>
-      <c r="AQ4" s="521"/>
-      <c r="AR4" s="521"/>
-      <c r="AS4" s="521"/>
-      <c r="AT4" s="521"/>
-      <c r="AU4" s="521"/>
-      <c r="AV4" s="521"/>
-      <c r="AW4" s="521"/>
-      <c r="AX4" s="521"/>
-      <c r="AY4" s="524"/>
+      <c r="AP4" s="526"/>
+      <c r="AQ4" s="526"/>
+      <c r="AR4" s="526"/>
+      <c r="AS4" s="526"/>
+      <c r="AT4" s="526"/>
+      <c r="AU4" s="526"/>
+      <c r="AV4" s="526"/>
+      <c r="AW4" s="526"/>
+      <c r="AX4" s="526"/>
+      <c r="AY4" s="529"/>
     </row>
     <row r="5" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="491"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="501" t="s">
+      <c r="B5" s="494"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="525" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="497"/>
-      <c r="I5" s="497"/>
-      <c r="J5" s="497"/>
-      <c r="K5" s="498"/>
-      <c r="L5" s="496" t="s">
+      <c r="H5" s="521"/>
+      <c r="I5" s="521"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="522"/>
+      <c r="L5" s="520" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="497"/>
-      <c r="N5" s="497"/>
-      <c r="O5" s="497"/>
-      <c r="P5" s="497"/>
-      <c r="Q5" s="497"/>
-      <c r="R5" s="498"/>
-      <c r="S5" s="496" t="s">
+      <c r="M5" s="521"/>
+      <c r="N5" s="521"/>
+      <c r="O5" s="521"/>
+      <c r="P5" s="521"/>
+      <c r="Q5" s="521"/>
+      <c r="R5" s="522"/>
+      <c r="S5" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="497"/>
-      <c r="U5" s="497"/>
-      <c r="V5" s="497"/>
-      <c r="W5" s="497"/>
-      <c r="X5" s="497"/>
-      <c r="Y5" s="497"/>
-      <c r="Z5" s="525" t="s">
+      <c r="T5" s="521"/>
+      <c r="U5" s="521"/>
+      <c r="V5" s="521"/>
+      <c r="W5" s="521"/>
+      <c r="X5" s="521"/>
+      <c r="Y5" s="521"/>
+      <c r="Z5" s="530" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="521"/>
-      <c r="AB5" s="521"/>
-      <c r="AC5" s="521"/>
-      <c r="AD5" s="521"/>
-      <c r="AE5" s="521"/>
-      <c r="AF5" s="524"/>
-      <c r="AG5" s="501" t="s">
+      <c r="AA5" s="526"/>
+      <c r="AB5" s="526"/>
+      <c r="AC5" s="526"/>
+      <c r="AD5" s="526"/>
+      <c r="AE5" s="526"/>
+      <c r="AF5" s="529"/>
+      <c r="AG5" s="525" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="497"/>
-      <c r="AI5" s="497"/>
-      <c r="AJ5" s="497"/>
-      <c r="AK5" s="497"/>
-      <c r="AL5" s="497"/>
-      <c r="AM5" s="498"/>
-      <c r="AN5" s="496" t="s">
+      <c r="AH5" s="521"/>
+      <c r="AI5" s="521"/>
+      <c r="AJ5" s="521"/>
+      <c r="AK5" s="521"/>
+      <c r="AL5" s="521"/>
+      <c r="AM5" s="522"/>
+      <c r="AN5" s="520" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="497"/>
-      <c r="AP5" s="497"/>
-      <c r="AQ5" s="497"/>
-      <c r="AR5" s="497"/>
-      <c r="AS5" s="497"/>
-      <c r="AT5" s="498"/>
-      <c r="AU5" s="496" t="s">
+      <c r="AO5" s="521"/>
+      <c r="AP5" s="521"/>
+      <c r="AQ5" s="521"/>
+      <c r="AR5" s="521"/>
+      <c r="AS5" s="521"/>
+      <c r="AT5" s="522"/>
+      <c r="AU5" s="520" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="497"/>
-      <c r="AW5" s="497"/>
-      <c r="AX5" s="497"/>
-      <c r="AY5" s="500"/>
+      <c r="AV5" s="521"/>
+      <c r="AW5" s="521"/>
+      <c r="AX5" s="521"/>
+      <c r="AY5" s="524"/>
     </row>
     <row r="6" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="492"/>
-      <c r="C6" s="495"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="495"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="505"/>
+      <c r="D6" s="505"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="505"/>
       <c r="G6" s="13">
         <v>28</v>
       </c>
@@ -21613,13 +21472,13 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="510" t="s">
+      <c r="B7" s="490" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
-      <c r="F7" s="512"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
+      <c r="F7" s="492"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -21757,7 +21616,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B8" s="513" t="s">
+      <c r="B8" s="493" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -21813,7 +21672,7 @@
       <c r="AY8" s="266"/>
     </row>
     <row r="9" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B9" s="491"/>
+      <c r="B9" s="494"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -21867,7 +21726,7 @@
       <c r="AY9" s="163"/>
     </row>
     <row r="10" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B10" s="491"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -21921,7 +21780,7 @@
       <c r="AY10" s="163"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B11" s="491"/>
+      <c r="B11" s="494"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -21975,7 +21834,7 @@
       <c r="AY11" s="163"/>
     </row>
     <row r="12" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B12" s="491"/>
+      <c r="B12" s="494"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -22029,7 +21888,7 @@
       <c r="AY12" s="163"/>
     </row>
     <row r="13" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B13" s="491"/>
+      <c r="B13" s="494"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -22083,7 +21942,7 @@
       <c r="AY13" s="163"/>
     </row>
     <row r="14" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B14" s="491"/>
+      <c r="B14" s="494"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -22137,7 +21996,7 @@
       <c r="AY14" s="163"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B15" s="491"/>
+      <c r="B15" s="494"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -22191,7 +22050,7 @@
       <c r="AY15" s="164"/>
     </row>
     <row r="16" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B16" s="491"/>
+      <c r="B16" s="494"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -22245,7 +22104,7 @@
       <c r="AY16" s="164"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="491"/>
+      <c r="B17" s="494"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -22299,7 +22158,7 @@
       <c r="AY17" s="164"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="491"/>
+      <c r="B18" s="494"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -22353,7 +22212,7 @@
       <c r="AY18" s="164"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="492"/>
+      <c r="B19" s="495"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -22407,13 +22266,13 @@
       <c r="AY19" s="165"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="502" t="s">
+      <c r="B20" s="496" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="514" t="s">
+      <c r="C20" s="497" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="515" t="s">
+      <c r="D20" s="499" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -22467,9 +22326,9 @@
       <c r="AY20" s="169"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="491"/>
-      <c r="C21" s="494"/>
-      <c r="D21" s="494"/>
+      <c r="B21" s="494"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="498"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -22521,9 +22380,9 @@
       <c r="AY21" s="170"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="491"/>
-      <c r="C22" s="494"/>
-      <c r="D22" s="494"/>
+      <c r="B22" s="494"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="498"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -22575,9 +22434,9 @@
       <c r="AY22" s="164"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="491"/>
-      <c r="C23" s="494"/>
-      <c r="D23" s="508"/>
+      <c r="B23" s="494"/>
+      <c r="C23" s="498"/>
+      <c r="D23" s="500"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -22629,9 +22488,9 @@
       <c r="AY23" s="171"/>
     </row>
     <row r="24" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B24" s="491"/>
-      <c r="C24" s="494"/>
-      <c r="D24" s="509" t="s">
+      <c r="B24" s="494"/>
+      <c r="C24" s="498"/>
+      <c r="D24" s="501" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -22685,9 +22544,9 @@
       <c r="AY24" s="172"/>
     </row>
     <row r="25" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B25" s="491"/>
-      <c r="C25" s="494"/>
-      <c r="D25" s="494"/>
+      <c r="B25" s="494"/>
+      <c r="C25" s="498"/>
+      <c r="D25" s="498"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -22739,9 +22598,9 @@
       <c r="AY25" s="173"/>
     </row>
     <row r="26" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B26" s="491"/>
-      <c r="C26" s="494"/>
-      <c r="D26" s="494"/>
+      <c r="B26" s="494"/>
+      <c r="C26" s="498"/>
+      <c r="D26" s="498"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -22793,9 +22652,9 @@
       <c r="AY26" s="173"/>
     </row>
     <row r="27" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B27" s="491"/>
-      <c r="C27" s="494"/>
-      <c r="D27" s="508"/>
+      <c r="B27" s="494"/>
+      <c r="C27" s="498"/>
+      <c r="D27" s="500"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -22847,9 +22706,9 @@
       <c r="AY27" s="172"/>
     </row>
     <row r="28" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B28" s="491"/>
-      <c r="C28" s="494"/>
-      <c r="D28" s="509" t="s">
+      <c r="B28" s="494"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="501" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -22903,9 +22762,9 @@
       <c r="AY28" s="172"/>
     </row>
     <row r="29" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B29" s="491"/>
-      <c r="C29" s="494"/>
-      <c r="D29" s="494"/>
+      <c r="B29" s="494"/>
+      <c r="C29" s="498"/>
+      <c r="D29" s="498"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -22957,9 +22816,9 @@
       <c r="AY29" s="172"/>
     </row>
     <row r="30" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B30" s="491"/>
-      <c r="C30" s="494"/>
-      <c r="D30" s="494"/>
+      <c r="B30" s="494"/>
+      <c r="C30" s="498"/>
+      <c r="D30" s="498"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -23011,9 +22870,9 @@
       <c r="AY30" s="172"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="491"/>
-      <c r="C31" s="494"/>
-      <c r="D31" s="494"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="498"/>
+      <c r="D31" s="498"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -23065,9 +22924,9 @@
       <c r="AY31" s="174"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="491"/>
-      <c r="C32" s="494"/>
-      <c r="D32" s="494"/>
+      <c r="B32" s="494"/>
+      <c r="C32" s="498"/>
+      <c r="D32" s="498"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -23119,9 +22978,9 @@
       <c r="AY32" s="172"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="491"/>
-      <c r="C33" s="494"/>
-      <c r="D33" s="494"/>
+      <c r="B33" s="494"/>
+      <c r="C33" s="498"/>
+      <c r="D33" s="498"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -23173,9 +23032,9 @@
       <c r="AY33" s="175"/>
     </row>
     <row r="34" spans="2:51" ht="18" customHeight="1">
-      <c r="B34" s="491"/>
-      <c r="C34" s="494"/>
-      <c r="D34" s="509" t="s">
+      <c r="B34" s="494"/>
+      <c r="C34" s="498"/>
+      <c r="D34" s="501" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -23229,9 +23088,9 @@
       <c r="AY34" s="176"/>
     </row>
     <row r="35" spans="2:51" ht="18" customHeight="1">
-      <c r="B35" s="491"/>
-      <c r="C35" s="494"/>
-      <c r="D35" s="494"/>
+      <c r="B35" s="494"/>
+      <c r="C35" s="498"/>
+      <c r="D35" s="498"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -23283,9 +23142,9 @@
       <c r="AY35" s="176"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="491"/>
-      <c r="C36" s="494"/>
-      <c r="D36" s="494"/>
+      <c r="B36" s="494"/>
+      <c r="C36" s="498"/>
+      <c r="D36" s="498"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -23337,9 +23196,9 @@
       <c r="AY36" s="176"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="491"/>
-      <c r="C37" s="494"/>
-      <c r="D37" s="508"/>
+      <c r="B37" s="494"/>
+      <c r="C37" s="498"/>
+      <c r="D37" s="500"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -23391,9 +23250,9 @@
       <c r="AY37" s="86"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="491"/>
-      <c r="C38" s="494"/>
-      <c r="D38" s="517" t="s">
+      <c r="B38" s="494"/>
+      <c r="C38" s="498"/>
+      <c r="D38" s="503" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -23447,9 +23306,9 @@
       <c r="AY38" s="176"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="491"/>
-      <c r="C39" s="494"/>
-      <c r="D39" s="494"/>
+      <c r="B39" s="494"/>
+      <c r="C39" s="498"/>
+      <c r="D39" s="498"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -23501,9 +23360,9 @@
       <c r="AY39" s="176"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="491"/>
-      <c r="C40" s="494"/>
-      <c r="D40" s="494"/>
+      <c r="B40" s="494"/>
+      <c r="C40" s="498"/>
+      <c r="D40" s="498"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -23555,9 +23414,9 @@
       <c r="AY40" s="176"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B41" s="491"/>
-      <c r="C41" s="494"/>
-      <c r="D41" s="494"/>
+      <c r="B41" s="494"/>
+      <c r="C41" s="498"/>
+      <c r="D41" s="498"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -23609,9 +23468,9 @@
       <c r="AY41" s="176"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="491"/>
-      <c r="C42" s="494"/>
-      <c r="D42" s="494"/>
+      <c r="B42" s="494"/>
+      <c r="C42" s="498"/>
+      <c r="D42" s="498"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -23663,9 +23522,9 @@
       <c r="AY42" s="176"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="491"/>
-      <c r="C43" s="494"/>
-      <c r="D43" s="494"/>
+      <c r="B43" s="494"/>
+      <c r="C43" s="498"/>
+      <c r="D43" s="498"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -23717,9 +23576,9 @@
       <c r="AY43" s="176"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="491"/>
-      <c r="C44" s="494"/>
-      <c r="D44" s="494"/>
+      <c r="B44" s="494"/>
+      <c r="C44" s="498"/>
+      <c r="D44" s="498"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -23771,9 +23630,9 @@
       <c r="AY44" s="176"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="491"/>
-      <c r="C45" s="494"/>
-      <c r="D45" s="508"/>
+      <c r="B45" s="494"/>
+      <c r="C45" s="498"/>
+      <c r="D45" s="500"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -23825,9 +23684,9 @@
       <c r="AY45" s="176"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="491"/>
-      <c r="C46" s="494"/>
-      <c r="D46" s="518" t="s">
+      <c r="B46" s="494"/>
+      <c r="C46" s="498"/>
+      <c r="D46" s="504" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -23881,9 +23740,9 @@
       <c r="AY46" s="176"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="491"/>
-      <c r="C47" s="494"/>
-      <c r="D47" s="494"/>
+      <c r="B47" s="494"/>
+      <c r="C47" s="498"/>
+      <c r="D47" s="498"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -23935,9 +23794,9 @@
       <c r="AY47" s="86"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="491"/>
-      <c r="C48" s="494"/>
-      <c r="D48" s="494"/>
+      <c r="B48" s="494"/>
+      <c r="C48" s="498"/>
+      <c r="D48" s="498"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -23989,9 +23848,9 @@
       <c r="AY48" s="86"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="491"/>
-      <c r="C49" s="494"/>
-      <c r="D49" s="508"/>
+      <c r="B49" s="494"/>
+      <c r="C49" s="498"/>
+      <c r="D49" s="500"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -24043,9 +23902,9 @@
       <c r="AY49" s="176"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="491"/>
-      <c r="C50" s="494"/>
-      <c r="D50" s="517" t="s">
+      <c r="B50" s="494"/>
+      <c r="C50" s="498"/>
+      <c r="D50" s="503" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -24099,9 +23958,9 @@
       <c r="AY50" s="86"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B51" s="491"/>
-      <c r="C51" s="494"/>
-      <c r="D51" s="495"/>
+      <c r="B51" s="494"/>
+      <c r="C51" s="498"/>
+      <c r="D51" s="505"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -24153,8 +24012,8 @@
       <c r="AY51" s="119"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="491"/>
-      <c r="C52" s="506" t="s">
+      <c r="B52" s="494"/>
+      <c r="C52" s="509" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -24211,9 +24070,9 @@
       <c r="AY52" s="260"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="491"/>
-      <c r="C53" s="494"/>
-      <c r="D53" s="507" t="s">
+      <c r="B53" s="494"/>
+      <c r="C53" s="498"/>
+      <c r="D53" s="510" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -24267,9 +24126,9 @@
       <c r="AY53" s="86"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="491"/>
-      <c r="C54" s="494"/>
-      <c r="D54" s="494"/>
+      <c r="B54" s="494"/>
+      <c r="C54" s="498"/>
+      <c r="D54" s="498"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -24321,9 +24180,9 @@
       <c r="AY54" s="86"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="491"/>
-      <c r="C55" s="494"/>
-      <c r="D55" s="508"/>
+      <c r="B55" s="494"/>
+      <c r="C55" s="498"/>
+      <c r="D55" s="500"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -24375,9 +24234,9 @@
       <c r="AY55" s="86"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="491"/>
-      <c r="C56" s="494"/>
-      <c r="D56" s="507" t="s">
+      <c r="B56" s="494"/>
+      <c r="C56" s="498"/>
+      <c r="D56" s="510" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -24431,9 +24290,9 @@
       <c r="AY56" s="86"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="491"/>
-      <c r="C57" s="494"/>
-      <c r="D57" s="494"/>
+      <c r="B57" s="494"/>
+      <c r="C57" s="498"/>
+      <c r="D57" s="498"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -24485,9 +24344,9 @@
       <c r="AY57" s="86"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="491"/>
-      <c r="C58" s="494"/>
-      <c r="D58" s="508"/>
+      <c r="B58" s="494"/>
+      <c r="C58" s="498"/>
+      <c r="D58" s="500"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -24539,9 +24398,9 @@
       <c r="AY58" s="86"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="491"/>
-      <c r="C59" s="494"/>
-      <c r="D59" s="507" t="s">
+      <c r="B59" s="494"/>
+      <c r="C59" s="498"/>
+      <c r="D59" s="510" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -24595,9 +24454,9 @@
       <c r="AY59" s="86"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="491"/>
-      <c r="C60" s="494"/>
-      <c r="D60" s="494"/>
+      <c r="B60" s="494"/>
+      <c r="C60" s="498"/>
+      <c r="D60" s="498"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -24649,9 +24508,9 @@
       <c r="AY60" s="86"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="491"/>
-      <c r="C61" s="494"/>
-      <c r="D61" s="508"/>
+      <c r="B61" s="494"/>
+      <c r="C61" s="498"/>
+      <c r="D61" s="500"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -24703,9 +24562,9 @@
       <c r="AY61" s="86"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="491"/>
-      <c r="C62" s="494"/>
-      <c r="D62" s="509" t="s">
+      <c r="B62" s="494"/>
+      <c r="C62" s="498"/>
+      <c r="D62" s="501" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -24759,9 +24618,9 @@
       <c r="AY62" s="86"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="491"/>
-      <c r="C63" s="494"/>
-      <c r="D63" s="494"/>
+      <c r="B63" s="494"/>
+      <c r="C63" s="498"/>
+      <c r="D63" s="498"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -24813,9 +24672,9 @@
       <c r="AY63" s="86"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B64" s="491"/>
-      <c r="C64" s="494"/>
-      <c r="D64" s="508"/>
+      <c r="B64" s="494"/>
+      <c r="C64" s="498"/>
+      <c r="D64" s="500"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -24867,8 +24726,8 @@
       <c r="AY64" s="86"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="491"/>
-      <c r="C65" s="494"/>
+      <c r="B65" s="494"/>
+      <c r="C65" s="498"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -24923,9 +24782,9 @@
       <c r="AY65" s="175"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="491"/>
-      <c r="C66" s="494"/>
-      <c r="D66" s="509" t="s">
+      <c r="B66" s="494"/>
+      <c r="C66" s="498"/>
+      <c r="D66" s="501" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -24979,9 +24838,9 @@
       <c r="AY66" s="86"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="491"/>
-      <c r="C67" s="494"/>
-      <c r="D67" s="508"/>
+      <c r="B67" s="494"/>
+      <c r="C67" s="498"/>
+      <c r="D67" s="500"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -25033,9 +24892,9 @@
       <c r="AY67" s="86"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="491"/>
-      <c r="C68" s="494"/>
-      <c r="D68" s="509" t="s">
+      <c r="B68" s="494"/>
+      <c r="C68" s="498"/>
+      <c r="D68" s="501" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -25089,9 +24948,9 @@
       <c r="AY68" s="86"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B69" s="491"/>
-      <c r="C69" s="494"/>
-      <c r="D69" s="494"/>
+      <c r="B69" s="494"/>
+      <c r="C69" s="498"/>
+      <c r="D69" s="498"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -25143,9 +25002,9 @@
       <c r="AY69" s="86"/>
     </row>
     <row r="70" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B70" s="491"/>
-      <c r="C70" s="494"/>
-      <c r="D70" s="508"/>
+      <c r="B70" s="494"/>
+      <c r="C70" s="498"/>
+      <c r="D70" s="500"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -25197,9 +25056,9 @@
       <c r="AY70" s="86"/>
     </row>
     <row r="71" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B71" s="491"/>
-      <c r="C71" s="494"/>
-      <c r="D71" s="509" t="s">
+      <c r="B71" s="494"/>
+      <c r="C71" s="498"/>
+      <c r="D71" s="501" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -25253,9 +25112,9 @@
       <c r="AY71" s="86"/>
     </row>
     <row r="72" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B72" s="491"/>
-      <c r="C72" s="494"/>
-      <c r="D72" s="494"/>
+      <c r="B72" s="494"/>
+      <c r="C72" s="498"/>
+      <c r="D72" s="498"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -25307,9 +25166,9 @@
       <c r="AY72" s="86"/>
     </row>
     <row r="73" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B73" s="491"/>
-      <c r="C73" s="494"/>
-      <c r="D73" s="508"/>
+      <c r="B73" s="494"/>
+      <c r="C73" s="498"/>
+      <c r="D73" s="500"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -25361,9 +25220,9 @@
       <c r="AY73" s="86"/>
     </row>
     <row r="74" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B74" s="491"/>
-      <c r="C74" s="494"/>
-      <c r="D74" s="516" t="s">
+      <c r="B74" s="494"/>
+      <c r="C74" s="498"/>
+      <c r="D74" s="502" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -25417,9 +25276,9 @@
       <c r="AY74" s="86"/>
     </row>
     <row r="75" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B75" s="491"/>
-      <c r="C75" s="494"/>
-      <c r="D75" s="494"/>
+      <c r="B75" s="494"/>
+      <c r="C75" s="498"/>
+      <c r="D75" s="498"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -25471,9 +25330,9 @@
       <c r="AY75" s="86"/>
     </row>
     <row r="76" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B76" s="491"/>
-      <c r="C76" s="494"/>
-      <c r="D76" s="494"/>
+      <c r="B76" s="494"/>
+      <c r="C76" s="498"/>
+      <c r="D76" s="498"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -25525,9 +25384,9 @@
       <c r="AY76" s="86"/>
     </row>
     <row r="77" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B77" s="491"/>
-      <c r="C77" s="494"/>
-      <c r="D77" s="494"/>
+      <c r="B77" s="494"/>
+      <c r="C77" s="498"/>
+      <c r="D77" s="498"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -25579,12 +25438,12 @@
       <c r="AY77" s="119"/>
     </row>
     <row r="78" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B78" s="502" t="s">
+      <c r="B78" s="496" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="504" t="s">
+      <c r="E78" s="507" t="s">
         <v>117</v>
       </c>
       <c r="F78" s="73" t="s">
@@ -25637,10 +25496,10 @@
       <c r="AY78" s="260"/>
     </row>
     <row r="79" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B79" s="491"/>
+      <c r="B79" s="494"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="505"/>
+      <c r="E79" s="508"/>
       <c r="F79" s="183" t="s">
         <v>4</v>
       </c>
@@ -25691,10 +25550,10 @@
       <c r="AY79" s="86"/>
     </row>
     <row r="80" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B80" s="491"/>
+      <c r="B80" s="494"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="505"/>
+      <c r="E80" s="508"/>
       <c r="F80" s="184" t="s">
         <v>5</v>
       </c>
@@ -25745,10 +25604,10 @@
       <c r="AY80" s="86"/>
     </row>
     <row r="81" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B81" s="491"/>
+      <c r="B81" s="494"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="505"/>
+      <c r="E81" s="508"/>
       <c r="F81" s="185" t="s">
         <v>6</v>
       </c>
@@ -25799,10 +25658,10 @@
       <c r="AY81" s="86"/>
     </row>
     <row r="82" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B82" s="491"/>
+      <c r="B82" s="494"/>
       <c r="C82" s="74"/>
       <c r="D82" s="75"/>
-      <c r="E82" s="505"/>
+      <c r="E82" s="508"/>
       <c r="F82" s="186" t="s">
         <v>7</v>
       </c>
@@ -25853,7 +25712,7 @@
       <c r="AY82" s="86"/>
     </row>
     <row r="83" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B83" s="491"/>
+      <c r="B83" s="494"/>
       <c r="C83" s="74"/>
       <c r="D83" s="75"/>
       <c r="E83" s="19" t="s">
@@ -25907,7 +25766,7 @@
       <c r="AY83" s="86"/>
     </row>
     <row r="84" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B84" s="503"/>
+      <c r="B84" s="506"/>
       <c r="C84" s="188"/>
       <c r="D84" s="189"/>
       <c r="E84" s="190" t="s">
@@ -26901,31 +26760,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="AO4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B77"/>
-    <mergeCell ref="C20:C51"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D46:D49"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E82"/>
     <mergeCell ref="D50:D51"/>
@@ -26938,6 +26772,31 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D77"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="B20:B77"/>
+    <mergeCell ref="C20:C51"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27066,145 +26925,145 @@
       <c r="AK3" s="4"/>
     </row>
     <row r="4" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="490" t="s">
+      <c r="B4" s="511" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="493" t="s">
+      <c r="C4" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="493" t="s">
+      <c r="D4" s="512" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="493" t="s">
+      <c r="E4" s="512" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="493" t="s">
+      <c r="F4" s="512" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="483" t="s">
+      <c r="G4" s="516" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="521"/>
-      <c r="I4" s="523"/>
-      <c r="J4" s="483" t="s">
+      <c r="H4" s="526"/>
+      <c r="I4" s="528"/>
+      <c r="J4" s="516" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="521"/>
-      <c r="L4" s="521"/>
-      <c r="M4" s="521"/>
-      <c r="N4" s="521"/>
-      <c r="O4" s="521"/>
-      <c r="P4" s="521"/>
-      <c r="Q4" s="521"/>
-      <c r="R4" s="521"/>
-      <c r="S4" s="521"/>
-      <c r="T4" s="521"/>
-      <c r="U4" s="521"/>
-      <c r="V4" s="521"/>
-      <c r="W4" s="521"/>
-      <c r="X4" s="521"/>
-      <c r="Y4" s="521"/>
-      <c r="Z4" s="522"/>
-      <c r="AA4" s="522"/>
-      <c r="AB4" s="522"/>
-      <c r="AC4" s="522"/>
-      <c r="AD4" s="522"/>
-      <c r="AE4" s="522"/>
-      <c r="AF4" s="522"/>
-      <c r="AG4" s="521"/>
-      <c r="AH4" s="521"/>
-      <c r="AI4" s="521"/>
-      <c r="AJ4" s="521"/>
-      <c r="AK4" s="521"/>
-      <c r="AL4" s="521"/>
-      <c r="AM4" s="521"/>
-      <c r="AN4" s="523"/>
-      <c r="AO4" s="483" t="s">
+      <c r="K4" s="526"/>
+      <c r="L4" s="526"/>
+      <c r="M4" s="526"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="526"/>
+      <c r="R4" s="526"/>
+      <c r="S4" s="526"/>
+      <c r="T4" s="526"/>
+      <c r="U4" s="526"/>
+      <c r="V4" s="526"/>
+      <c r="W4" s="526"/>
+      <c r="X4" s="526"/>
+      <c r="Y4" s="526"/>
+      <c r="Z4" s="527"/>
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="527"/>
+      <c r="AG4" s="526"/>
+      <c r="AH4" s="526"/>
+      <c r="AI4" s="526"/>
+      <c r="AJ4" s="526"/>
+      <c r="AK4" s="526"/>
+      <c r="AL4" s="526"/>
+      <c r="AM4" s="526"/>
+      <c r="AN4" s="528"/>
+      <c r="AO4" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="521"/>
-      <c r="AQ4" s="521"/>
-      <c r="AR4" s="521"/>
-      <c r="AS4" s="521"/>
-      <c r="AT4" s="521"/>
-      <c r="AU4" s="521"/>
-      <c r="AV4" s="521"/>
-      <c r="AW4" s="521"/>
-      <c r="AX4" s="521"/>
-      <c r="AY4" s="524"/>
+      <c r="AP4" s="526"/>
+      <c r="AQ4" s="526"/>
+      <c r="AR4" s="526"/>
+      <c r="AS4" s="526"/>
+      <c r="AT4" s="526"/>
+      <c r="AU4" s="526"/>
+      <c r="AV4" s="526"/>
+      <c r="AW4" s="526"/>
+      <c r="AX4" s="526"/>
+      <c r="AY4" s="529"/>
     </row>
     <row r="5" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="491"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="501" t="s">
+      <c r="B5" s="494"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="525" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="497"/>
-      <c r="I5" s="497"/>
-      <c r="J5" s="497"/>
-      <c r="K5" s="498"/>
-      <c r="L5" s="496" t="s">
+      <c r="H5" s="521"/>
+      <c r="I5" s="521"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="522"/>
+      <c r="L5" s="520" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="497"/>
-      <c r="N5" s="497"/>
-      <c r="O5" s="497"/>
-      <c r="P5" s="497"/>
-      <c r="Q5" s="497"/>
-      <c r="R5" s="498"/>
-      <c r="S5" s="496" t="s">
+      <c r="M5" s="521"/>
+      <c r="N5" s="521"/>
+      <c r="O5" s="521"/>
+      <c r="P5" s="521"/>
+      <c r="Q5" s="521"/>
+      <c r="R5" s="522"/>
+      <c r="S5" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="497"/>
-      <c r="U5" s="497"/>
-      <c r="V5" s="497"/>
-      <c r="W5" s="497"/>
-      <c r="X5" s="497"/>
-      <c r="Y5" s="497"/>
-      <c r="Z5" s="525" t="s">
+      <c r="T5" s="521"/>
+      <c r="U5" s="521"/>
+      <c r="V5" s="521"/>
+      <c r="W5" s="521"/>
+      <c r="X5" s="521"/>
+      <c r="Y5" s="521"/>
+      <c r="Z5" s="530" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="521"/>
-      <c r="AB5" s="521"/>
-      <c r="AC5" s="521"/>
-      <c r="AD5" s="521"/>
-      <c r="AE5" s="521"/>
-      <c r="AF5" s="524"/>
-      <c r="AG5" s="501" t="s">
+      <c r="AA5" s="526"/>
+      <c r="AB5" s="526"/>
+      <c r="AC5" s="526"/>
+      <c r="AD5" s="526"/>
+      <c r="AE5" s="526"/>
+      <c r="AF5" s="529"/>
+      <c r="AG5" s="525" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="497"/>
-      <c r="AI5" s="497"/>
-      <c r="AJ5" s="497"/>
-      <c r="AK5" s="497"/>
-      <c r="AL5" s="497"/>
-      <c r="AM5" s="498"/>
-      <c r="AN5" s="496" t="s">
+      <c r="AH5" s="521"/>
+      <c r="AI5" s="521"/>
+      <c r="AJ5" s="521"/>
+      <c r="AK5" s="521"/>
+      <c r="AL5" s="521"/>
+      <c r="AM5" s="522"/>
+      <c r="AN5" s="520" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="497"/>
-      <c r="AP5" s="497"/>
-      <c r="AQ5" s="497"/>
-      <c r="AR5" s="497"/>
-      <c r="AS5" s="497"/>
-      <c r="AT5" s="498"/>
-      <c r="AU5" s="496" t="s">
+      <c r="AO5" s="521"/>
+      <c r="AP5" s="521"/>
+      <c r="AQ5" s="521"/>
+      <c r="AR5" s="521"/>
+      <c r="AS5" s="521"/>
+      <c r="AT5" s="522"/>
+      <c r="AU5" s="520" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="497"/>
-      <c r="AW5" s="497"/>
-      <c r="AX5" s="497"/>
-      <c r="AY5" s="500"/>
+      <c r="AV5" s="521"/>
+      <c r="AW5" s="521"/>
+      <c r="AX5" s="521"/>
+      <c r="AY5" s="524"/>
     </row>
     <row r="6" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="492"/>
-      <c r="C6" s="495"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="495"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="505"/>
+      <c r="D6" s="505"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="505"/>
       <c r="G6" s="13">
         <v>28</v>
       </c>
@@ -27342,13 +27201,13 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="510" t="s">
+      <c r="B7" s="490" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
-      <c r="F7" s="512"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
+      <c r="F7" s="492"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -27486,7 +27345,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B8" s="513" t="s">
+      <c r="B8" s="493" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -27542,7 +27401,7 @@
       <c r="AY8" s="266"/>
     </row>
     <row r="9" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B9" s="491"/>
+      <c r="B9" s="494"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -27596,7 +27455,7 @@
       <c r="AY9" s="163"/>
     </row>
     <row r="10" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B10" s="491"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -27650,7 +27509,7 @@
       <c r="AY10" s="163"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B11" s="491"/>
+      <c r="B11" s="494"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -27704,7 +27563,7 @@
       <c r="AY11" s="163"/>
     </row>
     <row r="12" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B12" s="491"/>
+      <c r="B12" s="494"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -27758,7 +27617,7 @@
       <c r="AY12" s="163"/>
     </row>
     <row r="13" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B13" s="491"/>
+      <c r="B13" s="494"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -27812,7 +27671,7 @@
       <c r="AY13" s="163"/>
     </row>
     <row r="14" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B14" s="491"/>
+      <c r="B14" s="494"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -27866,7 +27725,7 @@
       <c r="AY14" s="163"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B15" s="491"/>
+      <c r="B15" s="494"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -27920,7 +27779,7 @@
       <c r="AY15" s="164"/>
     </row>
     <row r="16" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B16" s="491"/>
+      <c r="B16" s="494"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -27974,7 +27833,7 @@
       <c r="AY16" s="164"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="491"/>
+      <c r="B17" s="494"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -28028,7 +27887,7 @@
       <c r="AY17" s="164"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="491"/>
+      <c r="B18" s="494"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -28082,7 +27941,7 @@
       <c r="AY18" s="164"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="492"/>
+      <c r="B19" s="495"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -28136,13 +27995,13 @@
       <c r="AY19" s="165"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="502" t="s">
+      <c r="B20" s="496" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="514" t="s">
+      <c r="C20" s="497" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="515" t="s">
+      <c r="D20" s="499" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -28196,9 +28055,9 @@
       <c r="AY20" s="169"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="491"/>
-      <c r="C21" s="494"/>
-      <c r="D21" s="494"/>
+      <c r="B21" s="494"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="498"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -28250,9 +28109,9 @@
       <c r="AY21" s="170"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="491"/>
-      <c r="C22" s="494"/>
-      <c r="D22" s="494"/>
+      <c r="B22" s="494"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="498"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -28304,9 +28163,9 @@
       <c r="AY22" s="164"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="491"/>
-      <c r="C23" s="494"/>
-      <c r="D23" s="508"/>
+      <c r="B23" s="494"/>
+      <c r="C23" s="498"/>
+      <c r="D23" s="500"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -28358,9 +28217,9 @@
       <c r="AY23" s="171"/>
     </row>
     <row r="24" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B24" s="491"/>
-      <c r="C24" s="494"/>
-      <c r="D24" s="509" t="s">
+      <c r="B24" s="494"/>
+      <c r="C24" s="498"/>
+      <c r="D24" s="501" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -28414,9 +28273,9 @@
       <c r="AY24" s="172"/>
     </row>
     <row r="25" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B25" s="491"/>
-      <c r="C25" s="494"/>
-      <c r="D25" s="494"/>
+      <c r="B25" s="494"/>
+      <c r="C25" s="498"/>
+      <c r="D25" s="498"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -28468,9 +28327,9 @@
       <c r="AY25" s="173"/>
     </row>
     <row r="26" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B26" s="491"/>
-      <c r="C26" s="494"/>
-      <c r="D26" s="494"/>
+      <c r="B26" s="494"/>
+      <c r="C26" s="498"/>
+      <c r="D26" s="498"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -28522,9 +28381,9 @@
       <c r="AY26" s="173"/>
     </row>
     <row r="27" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B27" s="491"/>
-      <c r="C27" s="494"/>
-      <c r="D27" s="508"/>
+      <c r="B27" s="494"/>
+      <c r="C27" s="498"/>
+      <c r="D27" s="500"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -28576,9 +28435,9 @@
       <c r="AY27" s="172"/>
     </row>
     <row r="28" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B28" s="491"/>
-      <c r="C28" s="494"/>
-      <c r="D28" s="509" t="s">
+      <c r="B28" s="494"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="501" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -28632,9 +28491,9 @@
       <c r="AY28" s="172"/>
     </row>
     <row r="29" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B29" s="491"/>
-      <c r="C29" s="494"/>
-      <c r="D29" s="494"/>
+      <c r="B29" s="494"/>
+      <c r="C29" s="498"/>
+      <c r="D29" s="498"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -28686,9 +28545,9 @@
       <c r="AY29" s="172"/>
     </row>
     <row r="30" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B30" s="491"/>
-      <c r="C30" s="494"/>
-      <c r="D30" s="494"/>
+      <c r="B30" s="494"/>
+      <c r="C30" s="498"/>
+      <c r="D30" s="498"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -28740,9 +28599,9 @@
       <c r="AY30" s="172"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="491"/>
-      <c r="C31" s="494"/>
-      <c r="D31" s="494"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="498"/>
+      <c r="D31" s="498"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -28794,9 +28653,9 @@
       <c r="AY31" s="174"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="491"/>
-      <c r="C32" s="494"/>
-      <c r="D32" s="494"/>
+      <c r="B32" s="494"/>
+      <c r="C32" s="498"/>
+      <c r="D32" s="498"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -28848,9 +28707,9 @@
       <c r="AY32" s="172"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="491"/>
-      <c r="C33" s="494"/>
-      <c r="D33" s="494"/>
+      <c r="B33" s="494"/>
+      <c r="C33" s="498"/>
+      <c r="D33" s="498"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -28902,9 +28761,9 @@
       <c r="AY33" s="175"/>
     </row>
     <row r="34" spans="2:51" ht="18" customHeight="1">
-      <c r="B34" s="491"/>
-      <c r="C34" s="494"/>
-      <c r="D34" s="509" t="s">
+      <c r="B34" s="494"/>
+      <c r="C34" s="498"/>
+      <c r="D34" s="501" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -28958,9 +28817,9 @@
       <c r="AY34" s="176"/>
     </row>
     <row r="35" spans="2:51" ht="18" customHeight="1">
-      <c r="B35" s="491"/>
-      <c r="C35" s="494"/>
-      <c r="D35" s="494"/>
+      <c r="B35" s="494"/>
+      <c r="C35" s="498"/>
+      <c r="D35" s="498"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -29012,9 +28871,9 @@
       <c r="AY35" s="176"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="491"/>
-      <c r="C36" s="494"/>
-      <c r="D36" s="494"/>
+      <c r="B36" s="494"/>
+      <c r="C36" s="498"/>
+      <c r="D36" s="498"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -29066,9 +28925,9 @@
       <c r="AY36" s="176"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="491"/>
-      <c r="C37" s="494"/>
-      <c r="D37" s="508"/>
+      <c r="B37" s="494"/>
+      <c r="C37" s="498"/>
+      <c r="D37" s="500"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -29120,9 +28979,9 @@
       <c r="AY37" s="86"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="491"/>
-      <c r="C38" s="494"/>
-      <c r="D38" s="517" t="s">
+      <c r="B38" s="494"/>
+      <c r="C38" s="498"/>
+      <c r="D38" s="503" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -29176,9 +29035,9 @@
       <c r="AY38" s="176"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="491"/>
-      <c r="C39" s="494"/>
-      <c r="D39" s="494"/>
+      <c r="B39" s="494"/>
+      <c r="C39" s="498"/>
+      <c r="D39" s="498"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -29230,9 +29089,9 @@
       <c r="AY39" s="176"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="491"/>
-      <c r="C40" s="494"/>
-      <c r="D40" s="494"/>
+      <c r="B40" s="494"/>
+      <c r="C40" s="498"/>
+      <c r="D40" s="498"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -29284,9 +29143,9 @@
       <c r="AY40" s="176"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B41" s="491"/>
-      <c r="C41" s="494"/>
-      <c r="D41" s="494"/>
+      <c r="B41" s="494"/>
+      <c r="C41" s="498"/>
+      <c r="D41" s="498"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -29338,9 +29197,9 @@
       <c r="AY41" s="176"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="491"/>
-      <c r="C42" s="494"/>
-      <c r="D42" s="494"/>
+      <c r="B42" s="494"/>
+      <c r="C42" s="498"/>
+      <c r="D42" s="498"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -29392,9 +29251,9 @@
       <c r="AY42" s="176"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="491"/>
-      <c r="C43" s="494"/>
-      <c r="D43" s="494"/>
+      <c r="B43" s="494"/>
+      <c r="C43" s="498"/>
+      <c r="D43" s="498"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -29446,9 +29305,9 @@
       <c r="AY43" s="176"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="491"/>
-      <c r="C44" s="494"/>
-      <c r="D44" s="494"/>
+      <c r="B44" s="494"/>
+      <c r="C44" s="498"/>
+      <c r="D44" s="498"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -29500,9 +29359,9 @@
       <c r="AY44" s="176"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="491"/>
-      <c r="C45" s="494"/>
-      <c r="D45" s="508"/>
+      <c r="B45" s="494"/>
+      <c r="C45" s="498"/>
+      <c r="D45" s="500"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -29554,9 +29413,9 @@
       <c r="AY45" s="176"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="491"/>
-      <c r="C46" s="494"/>
-      <c r="D46" s="518" t="s">
+      <c r="B46" s="494"/>
+      <c r="C46" s="498"/>
+      <c r="D46" s="504" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -29610,9 +29469,9 @@
       <c r="AY46" s="176"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="491"/>
-      <c r="C47" s="494"/>
-      <c r="D47" s="494"/>
+      <c r="B47" s="494"/>
+      <c r="C47" s="498"/>
+      <c r="D47" s="498"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -29664,9 +29523,9 @@
       <c r="AY47" s="86"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="491"/>
-      <c r="C48" s="494"/>
-      <c r="D48" s="494"/>
+      <c r="B48" s="494"/>
+      <c r="C48" s="498"/>
+      <c r="D48" s="498"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -29718,9 +29577,9 @@
       <c r="AY48" s="86"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="491"/>
-      <c r="C49" s="494"/>
-      <c r="D49" s="508"/>
+      <c r="B49" s="494"/>
+      <c r="C49" s="498"/>
+      <c r="D49" s="500"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -29772,9 +29631,9 @@
       <c r="AY49" s="176"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="491"/>
-      <c r="C50" s="494"/>
-      <c r="D50" s="517" t="s">
+      <c r="B50" s="494"/>
+      <c r="C50" s="498"/>
+      <c r="D50" s="503" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -29828,9 +29687,9 @@
       <c r="AY50" s="86"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B51" s="491"/>
-      <c r="C51" s="494"/>
-      <c r="D51" s="495"/>
+      <c r="B51" s="494"/>
+      <c r="C51" s="498"/>
+      <c r="D51" s="505"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -29882,8 +29741,8 @@
       <c r="AY51" s="119"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="491"/>
-      <c r="C52" s="506" t="s">
+      <c r="B52" s="494"/>
+      <c r="C52" s="509" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -29940,9 +29799,9 @@
       <c r="AY52" s="260"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="491"/>
-      <c r="C53" s="494"/>
-      <c r="D53" s="507" t="s">
+      <c r="B53" s="494"/>
+      <c r="C53" s="498"/>
+      <c r="D53" s="510" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -29996,9 +29855,9 @@
       <c r="AY53" s="86"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="491"/>
-      <c r="C54" s="494"/>
-      <c r="D54" s="494"/>
+      <c r="B54" s="494"/>
+      <c r="C54" s="498"/>
+      <c r="D54" s="498"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -30050,9 +29909,9 @@
       <c r="AY54" s="86"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="491"/>
-      <c r="C55" s="494"/>
-      <c r="D55" s="508"/>
+      <c r="B55" s="494"/>
+      <c r="C55" s="498"/>
+      <c r="D55" s="500"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -30104,9 +29963,9 @@
       <c r="AY55" s="86"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="491"/>
-      <c r="C56" s="494"/>
-      <c r="D56" s="507" t="s">
+      <c r="B56" s="494"/>
+      <c r="C56" s="498"/>
+      <c r="D56" s="510" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -30160,9 +30019,9 @@
       <c r="AY56" s="86"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="491"/>
-      <c r="C57" s="494"/>
-      <c r="D57" s="494"/>
+      <c r="B57" s="494"/>
+      <c r="C57" s="498"/>
+      <c r="D57" s="498"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -30214,9 +30073,9 @@
       <c r="AY57" s="86"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="491"/>
-      <c r="C58" s="494"/>
-      <c r="D58" s="508"/>
+      <c r="B58" s="494"/>
+      <c r="C58" s="498"/>
+      <c r="D58" s="500"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -30268,9 +30127,9 @@
       <c r="AY58" s="86"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="491"/>
-      <c r="C59" s="494"/>
-      <c r="D59" s="507" t="s">
+      <c r="B59" s="494"/>
+      <c r="C59" s="498"/>
+      <c r="D59" s="510" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -30324,9 +30183,9 @@
       <c r="AY59" s="86"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="491"/>
-      <c r="C60" s="494"/>
-      <c r="D60" s="494"/>
+      <c r="B60" s="494"/>
+      <c r="C60" s="498"/>
+      <c r="D60" s="498"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -30378,9 +30237,9 @@
       <c r="AY60" s="86"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="491"/>
-      <c r="C61" s="494"/>
-      <c r="D61" s="508"/>
+      <c r="B61" s="494"/>
+      <c r="C61" s="498"/>
+      <c r="D61" s="500"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -30432,9 +30291,9 @@
       <c r="AY61" s="86"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="491"/>
-      <c r="C62" s="494"/>
-      <c r="D62" s="509" t="s">
+      <c r="B62" s="494"/>
+      <c r="C62" s="498"/>
+      <c r="D62" s="501" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -30488,9 +30347,9 @@
       <c r="AY62" s="86"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="491"/>
-      <c r="C63" s="494"/>
-      <c r="D63" s="494"/>
+      <c r="B63" s="494"/>
+      <c r="C63" s="498"/>
+      <c r="D63" s="498"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -30542,9 +30401,9 @@
       <c r="AY63" s="86"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B64" s="491"/>
-      <c r="C64" s="494"/>
-      <c r="D64" s="508"/>
+      <c r="B64" s="494"/>
+      <c r="C64" s="498"/>
+      <c r="D64" s="500"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -30596,8 +30455,8 @@
       <c r="AY64" s="86"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="491"/>
-      <c r="C65" s="494"/>
+      <c r="B65" s="494"/>
+      <c r="C65" s="498"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -30652,9 +30511,9 @@
       <c r="AY65" s="175"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="491"/>
-      <c r="C66" s="494"/>
-      <c r="D66" s="509" t="s">
+      <c r="B66" s="494"/>
+      <c r="C66" s="498"/>
+      <c r="D66" s="501" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -30708,9 +30567,9 @@
       <c r="AY66" s="86"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="491"/>
-      <c r="C67" s="494"/>
-      <c r="D67" s="508"/>
+      <c r="B67" s="494"/>
+      <c r="C67" s="498"/>
+      <c r="D67" s="500"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -30762,9 +30621,9 @@
       <c r="AY67" s="86"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="491"/>
-      <c r="C68" s="494"/>
-      <c r="D68" s="509" t="s">
+      <c r="B68" s="494"/>
+      <c r="C68" s="498"/>
+      <c r="D68" s="501" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -30818,9 +30677,9 @@
       <c r="AY68" s="86"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B69" s="491"/>
-      <c r="C69" s="494"/>
-      <c r="D69" s="494"/>
+      <c r="B69" s="494"/>
+      <c r="C69" s="498"/>
+      <c r="D69" s="498"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -30872,9 +30731,9 @@
       <c r="AY69" s="86"/>
     </row>
     <row r="70" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B70" s="491"/>
-      <c r="C70" s="494"/>
-      <c r="D70" s="508"/>
+      <c r="B70" s="494"/>
+      <c r="C70" s="498"/>
+      <c r="D70" s="500"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -30926,9 +30785,9 @@
       <c r="AY70" s="86"/>
     </row>
     <row r="71" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B71" s="491"/>
-      <c r="C71" s="494"/>
-      <c r="D71" s="509" t="s">
+      <c r="B71" s="494"/>
+      <c r="C71" s="498"/>
+      <c r="D71" s="501" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -30982,9 +30841,9 @@
       <c r="AY71" s="86"/>
     </row>
     <row r="72" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B72" s="491"/>
-      <c r="C72" s="494"/>
-      <c r="D72" s="494"/>
+      <c r="B72" s="494"/>
+      <c r="C72" s="498"/>
+      <c r="D72" s="498"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -31036,9 +30895,9 @@
       <c r="AY72" s="86"/>
     </row>
     <row r="73" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B73" s="491"/>
-      <c r="C73" s="494"/>
-      <c r="D73" s="508"/>
+      <c r="B73" s="494"/>
+      <c r="C73" s="498"/>
+      <c r="D73" s="500"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -31090,9 +30949,9 @@
       <c r="AY73" s="86"/>
     </row>
     <row r="74" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B74" s="491"/>
-      <c r="C74" s="494"/>
-      <c r="D74" s="516" t="s">
+      <c r="B74" s="494"/>
+      <c r="C74" s="498"/>
+      <c r="D74" s="502" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -31146,9 +31005,9 @@
       <c r="AY74" s="86"/>
     </row>
     <row r="75" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B75" s="491"/>
-      <c r="C75" s="494"/>
-      <c r="D75" s="494"/>
+      <c r="B75" s="494"/>
+      <c r="C75" s="498"/>
+      <c r="D75" s="498"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -31200,9 +31059,9 @@
       <c r="AY75" s="86"/>
     </row>
     <row r="76" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B76" s="491"/>
-      <c r="C76" s="494"/>
-      <c r="D76" s="494"/>
+      <c r="B76" s="494"/>
+      <c r="C76" s="498"/>
+      <c r="D76" s="498"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -31254,9 +31113,9 @@
       <c r="AY76" s="86"/>
     </row>
     <row r="77" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B77" s="491"/>
-      <c r="C77" s="494"/>
-      <c r="D77" s="494"/>
+      <c r="B77" s="494"/>
+      <c r="C77" s="498"/>
+      <c r="D77" s="498"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -31308,12 +31167,12 @@
       <c r="AY77" s="119"/>
     </row>
     <row r="78" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B78" s="502" t="s">
+      <c r="B78" s="496" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="504" t="s">
+      <c r="E78" s="507" t="s">
         <v>117</v>
       </c>
       <c r="F78" s="73" t="s">
@@ -31366,10 +31225,10 @@
       <c r="AY78" s="260"/>
     </row>
     <row r="79" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B79" s="491"/>
+      <c r="B79" s="494"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="505"/>
+      <c r="E79" s="508"/>
       <c r="F79" s="183" t="s">
         <v>4</v>
       </c>
@@ -31420,10 +31279,10 @@
       <c r="AY79" s="86"/>
     </row>
     <row r="80" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B80" s="491"/>
+      <c r="B80" s="494"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="505"/>
+      <c r="E80" s="508"/>
       <c r="F80" s="184" t="s">
         <v>5</v>
       </c>
@@ -31474,10 +31333,10 @@
       <c r="AY80" s="86"/>
     </row>
     <row r="81" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B81" s="491"/>
+      <c r="B81" s="494"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="505"/>
+      <c r="E81" s="508"/>
       <c r="F81" s="185" t="s">
         <v>6</v>
       </c>
@@ -31528,10 +31387,10 @@
       <c r="AY81" s="86"/>
     </row>
     <row r="82" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B82" s="491"/>
+      <c r="B82" s="494"/>
       <c r="C82" s="74"/>
       <c r="D82" s="75"/>
-      <c r="E82" s="505"/>
+      <c r="E82" s="508"/>
       <c r="F82" s="186" t="s">
         <v>7</v>
       </c>
@@ -31582,7 +31441,7 @@
       <c r="AY82" s="86"/>
     </row>
     <row r="83" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B83" s="491"/>
+      <c r="B83" s="494"/>
       <c r="C83" s="74"/>
       <c r="D83" s="75"/>
       <c r="E83" s="19" t="s">
@@ -31636,7 +31495,7 @@
       <c r="AY83" s="86"/>
     </row>
     <row r="84" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B84" s="503"/>
+      <c r="B84" s="506"/>
       <c r="C84" s="188"/>
       <c r="D84" s="189"/>
       <c r="E84" s="190" t="s">
@@ -32630,31 +32489,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="AO4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B77"/>
-    <mergeCell ref="C20:C51"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D46:D49"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E82"/>
     <mergeCell ref="D50:D51"/>
@@ -32667,6 +32501,31 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D77"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="B20:B77"/>
+    <mergeCell ref="C20:C51"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32795,145 +32654,145 @@
       <c r="AK3" s="4"/>
     </row>
     <row r="4" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="490" t="s">
+      <c r="B4" s="511" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="493" t="s">
+      <c r="C4" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="493" t="s">
+      <c r="D4" s="512" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="493" t="s">
+      <c r="E4" s="512" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="493" t="s">
+      <c r="F4" s="512" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="483" t="s">
+      <c r="G4" s="516" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="521"/>
-      <c r="I4" s="523"/>
-      <c r="J4" s="483" t="s">
+      <c r="H4" s="526"/>
+      <c r="I4" s="528"/>
+      <c r="J4" s="516" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="521"/>
-      <c r="L4" s="521"/>
-      <c r="M4" s="521"/>
-      <c r="N4" s="521"/>
-      <c r="O4" s="521"/>
-      <c r="P4" s="521"/>
-      <c r="Q4" s="521"/>
-      <c r="R4" s="521"/>
-      <c r="S4" s="521"/>
-      <c r="T4" s="521"/>
-      <c r="U4" s="521"/>
-      <c r="V4" s="521"/>
-      <c r="W4" s="521"/>
-      <c r="X4" s="521"/>
-      <c r="Y4" s="521"/>
-      <c r="Z4" s="522"/>
-      <c r="AA4" s="522"/>
-      <c r="AB4" s="522"/>
-      <c r="AC4" s="522"/>
-      <c r="AD4" s="522"/>
-      <c r="AE4" s="522"/>
-      <c r="AF4" s="522"/>
-      <c r="AG4" s="521"/>
-      <c r="AH4" s="521"/>
-      <c r="AI4" s="521"/>
-      <c r="AJ4" s="521"/>
-      <c r="AK4" s="521"/>
-      <c r="AL4" s="521"/>
-      <c r="AM4" s="521"/>
-      <c r="AN4" s="523"/>
-      <c r="AO4" s="483" t="s">
+      <c r="K4" s="526"/>
+      <c r="L4" s="526"/>
+      <c r="M4" s="526"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="526"/>
+      <c r="R4" s="526"/>
+      <c r="S4" s="526"/>
+      <c r="T4" s="526"/>
+      <c r="U4" s="526"/>
+      <c r="V4" s="526"/>
+      <c r="W4" s="526"/>
+      <c r="X4" s="526"/>
+      <c r="Y4" s="526"/>
+      <c r="Z4" s="527"/>
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="527"/>
+      <c r="AG4" s="526"/>
+      <c r="AH4" s="526"/>
+      <c r="AI4" s="526"/>
+      <c r="AJ4" s="526"/>
+      <c r="AK4" s="526"/>
+      <c r="AL4" s="526"/>
+      <c r="AM4" s="526"/>
+      <c r="AN4" s="528"/>
+      <c r="AO4" s="516" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="521"/>
-      <c r="AQ4" s="521"/>
-      <c r="AR4" s="521"/>
-      <c r="AS4" s="521"/>
-      <c r="AT4" s="521"/>
-      <c r="AU4" s="521"/>
-      <c r="AV4" s="521"/>
-      <c r="AW4" s="521"/>
-      <c r="AX4" s="521"/>
-      <c r="AY4" s="524"/>
+      <c r="AP4" s="526"/>
+      <c r="AQ4" s="526"/>
+      <c r="AR4" s="526"/>
+      <c r="AS4" s="526"/>
+      <c r="AT4" s="526"/>
+      <c r="AU4" s="526"/>
+      <c r="AV4" s="526"/>
+      <c r="AW4" s="526"/>
+      <c r="AX4" s="526"/>
+      <c r="AY4" s="529"/>
     </row>
     <row r="5" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="491"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="501" t="s">
+      <c r="B5" s="494"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="525" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="497"/>
-      <c r="I5" s="497"/>
-      <c r="J5" s="497"/>
-      <c r="K5" s="498"/>
-      <c r="L5" s="496" t="s">
+      <c r="H5" s="521"/>
+      <c r="I5" s="521"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="522"/>
+      <c r="L5" s="520" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="497"/>
-      <c r="N5" s="497"/>
-      <c r="O5" s="497"/>
-      <c r="P5" s="497"/>
-      <c r="Q5" s="497"/>
-      <c r="R5" s="498"/>
-      <c r="S5" s="496" t="s">
+      <c r="M5" s="521"/>
+      <c r="N5" s="521"/>
+      <c r="O5" s="521"/>
+      <c r="P5" s="521"/>
+      <c r="Q5" s="521"/>
+      <c r="R5" s="522"/>
+      <c r="S5" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="497"/>
-      <c r="U5" s="497"/>
-      <c r="V5" s="497"/>
-      <c r="W5" s="497"/>
-      <c r="X5" s="497"/>
-      <c r="Y5" s="497"/>
-      <c r="Z5" s="525" t="s">
+      <c r="T5" s="521"/>
+      <c r="U5" s="521"/>
+      <c r="V5" s="521"/>
+      <c r="W5" s="521"/>
+      <c r="X5" s="521"/>
+      <c r="Y5" s="521"/>
+      <c r="Z5" s="530" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="521"/>
-      <c r="AB5" s="521"/>
-      <c r="AC5" s="521"/>
-      <c r="AD5" s="521"/>
-      <c r="AE5" s="521"/>
-      <c r="AF5" s="524"/>
-      <c r="AG5" s="501" t="s">
+      <c r="AA5" s="526"/>
+      <c r="AB5" s="526"/>
+      <c r="AC5" s="526"/>
+      <c r="AD5" s="526"/>
+      <c r="AE5" s="526"/>
+      <c r="AF5" s="529"/>
+      <c r="AG5" s="525" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="497"/>
-      <c r="AI5" s="497"/>
-      <c r="AJ5" s="497"/>
-      <c r="AK5" s="497"/>
-      <c r="AL5" s="497"/>
-      <c r="AM5" s="498"/>
-      <c r="AN5" s="496" t="s">
+      <c r="AH5" s="521"/>
+      <c r="AI5" s="521"/>
+      <c r="AJ5" s="521"/>
+      <c r="AK5" s="521"/>
+      <c r="AL5" s="521"/>
+      <c r="AM5" s="522"/>
+      <c r="AN5" s="520" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="497"/>
-      <c r="AP5" s="497"/>
-      <c r="AQ5" s="497"/>
-      <c r="AR5" s="497"/>
-      <c r="AS5" s="497"/>
-      <c r="AT5" s="498"/>
-      <c r="AU5" s="496" t="s">
+      <c r="AO5" s="521"/>
+      <c r="AP5" s="521"/>
+      <c r="AQ5" s="521"/>
+      <c r="AR5" s="521"/>
+      <c r="AS5" s="521"/>
+      <c r="AT5" s="522"/>
+      <c r="AU5" s="520" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="497"/>
-      <c r="AW5" s="497"/>
-      <c r="AX5" s="497"/>
-      <c r="AY5" s="500"/>
+      <c r="AV5" s="521"/>
+      <c r="AW5" s="521"/>
+      <c r="AX5" s="521"/>
+      <c r="AY5" s="524"/>
     </row>
     <row r="6" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="492"/>
-      <c r="C6" s="495"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="495"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="505"/>
+      <c r="D6" s="505"/>
+      <c r="E6" s="505"/>
+      <c r="F6" s="505"/>
       <c r="G6" s="13">
         <v>28</v>
       </c>
@@ -33071,13 +32930,13 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="510" t="s">
+      <c r="B7" s="490" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
-      <c r="F7" s="512"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
+      <c r="F7" s="492"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -33215,7 +33074,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B8" s="513" t="s">
+      <c r="B8" s="493" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -33271,7 +33130,7 @@
       <c r="AY8" s="266"/>
     </row>
     <row r="9" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B9" s="491"/>
+      <c r="B9" s="494"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -33325,7 +33184,7 @@
       <c r="AY9" s="163"/>
     </row>
     <row r="10" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B10" s="491"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -33379,7 +33238,7 @@
       <c r="AY10" s="163"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B11" s="491"/>
+      <c r="B11" s="494"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -33433,7 +33292,7 @@
       <c r="AY11" s="163"/>
     </row>
     <row r="12" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B12" s="491"/>
+      <c r="B12" s="494"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -33487,7 +33346,7 @@
       <c r="AY12" s="163"/>
     </row>
     <row r="13" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B13" s="491"/>
+      <c r="B13" s="494"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -33541,7 +33400,7 @@
       <c r="AY13" s="163"/>
     </row>
     <row r="14" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B14" s="491"/>
+      <c r="B14" s="494"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -33595,7 +33454,7 @@
       <c r="AY14" s="163"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B15" s="491"/>
+      <c r="B15" s="494"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -33649,7 +33508,7 @@
       <c r="AY15" s="164"/>
     </row>
     <row r="16" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B16" s="491"/>
+      <c r="B16" s="494"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -33703,7 +33562,7 @@
       <c r="AY16" s="164"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="491"/>
+      <c r="B17" s="494"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -33757,7 +33616,7 @@
       <c r="AY17" s="164"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="491"/>
+      <c r="B18" s="494"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -33811,7 +33670,7 @@
       <c r="AY18" s="164"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="492"/>
+      <c r="B19" s="495"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -33865,13 +33724,13 @@
       <c r="AY19" s="165"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="502" t="s">
+      <c r="B20" s="496" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="514" t="s">
+      <c r="C20" s="497" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="515" t="s">
+      <c r="D20" s="499" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -33925,9 +33784,9 @@
       <c r="AY20" s="169"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="491"/>
-      <c r="C21" s="494"/>
-      <c r="D21" s="494"/>
+      <c r="B21" s="494"/>
+      <c r="C21" s="498"/>
+      <c r="D21" s="498"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -33979,9 +33838,9 @@
       <c r="AY21" s="170"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="491"/>
-      <c r="C22" s="494"/>
-      <c r="D22" s="494"/>
+      <c r="B22" s="494"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="498"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -34033,9 +33892,9 @@
       <c r="AY22" s="164"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="491"/>
-      <c r="C23" s="494"/>
-      <c r="D23" s="508"/>
+      <c r="B23" s="494"/>
+      <c r="C23" s="498"/>
+      <c r="D23" s="500"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -34087,9 +33946,9 @@
       <c r="AY23" s="171"/>
     </row>
     <row r="24" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B24" s="491"/>
-      <c r="C24" s="494"/>
-      <c r="D24" s="509" t="s">
+      <c r="B24" s="494"/>
+      <c r="C24" s="498"/>
+      <c r="D24" s="501" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -34143,9 +34002,9 @@
       <c r="AY24" s="172"/>
     </row>
     <row r="25" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B25" s="491"/>
-      <c r="C25" s="494"/>
-      <c r="D25" s="494"/>
+      <c r="B25" s="494"/>
+      <c r="C25" s="498"/>
+      <c r="D25" s="498"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -34197,9 +34056,9 @@
       <c r="AY25" s="173"/>
     </row>
     <row r="26" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B26" s="491"/>
-      <c r="C26" s="494"/>
-      <c r="D26" s="494"/>
+      <c r="B26" s="494"/>
+      <c r="C26" s="498"/>
+      <c r="D26" s="498"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -34251,9 +34110,9 @@
       <c r="AY26" s="173"/>
     </row>
     <row r="27" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B27" s="491"/>
-      <c r="C27" s="494"/>
-      <c r="D27" s="508"/>
+      <c r="B27" s="494"/>
+      <c r="C27" s="498"/>
+      <c r="D27" s="500"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -34305,9 +34164,9 @@
       <c r="AY27" s="172"/>
     </row>
     <row r="28" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B28" s="491"/>
-      <c r="C28" s="494"/>
-      <c r="D28" s="509" t="s">
+      <c r="B28" s="494"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="501" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -34361,9 +34220,9 @@
       <c r="AY28" s="172"/>
     </row>
     <row r="29" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B29" s="491"/>
-      <c r="C29" s="494"/>
-      <c r="D29" s="494"/>
+      <c r="B29" s="494"/>
+      <c r="C29" s="498"/>
+      <c r="D29" s="498"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -34415,9 +34274,9 @@
       <c r="AY29" s="172"/>
     </row>
     <row r="30" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B30" s="491"/>
-      <c r="C30" s="494"/>
-      <c r="D30" s="494"/>
+      <c r="B30" s="494"/>
+      <c r="C30" s="498"/>
+      <c r="D30" s="498"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -34469,9 +34328,9 @@
       <c r="AY30" s="172"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="491"/>
-      <c r="C31" s="494"/>
-      <c r="D31" s="494"/>
+      <c r="B31" s="494"/>
+      <c r="C31" s="498"/>
+      <c r="D31" s="498"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -34523,9 +34382,9 @@
       <c r="AY31" s="174"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="491"/>
-      <c r="C32" s="494"/>
-      <c r="D32" s="494"/>
+      <c r="B32" s="494"/>
+      <c r="C32" s="498"/>
+      <c r="D32" s="498"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -34577,9 +34436,9 @@
       <c r="AY32" s="172"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="491"/>
-      <c r="C33" s="494"/>
-      <c r="D33" s="494"/>
+      <c r="B33" s="494"/>
+      <c r="C33" s="498"/>
+      <c r="D33" s="498"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -34631,9 +34490,9 @@
       <c r="AY33" s="175"/>
     </row>
     <row r="34" spans="2:51" ht="18" customHeight="1">
-      <c r="B34" s="491"/>
-      <c r="C34" s="494"/>
-      <c r="D34" s="509" t="s">
+      <c r="B34" s="494"/>
+      <c r="C34" s="498"/>
+      <c r="D34" s="501" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -34687,9 +34546,9 @@
       <c r="AY34" s="176"/>
     </row>
     <row r="35" spans="2:51" ht="18" customHeight="1">
-      <c r="B35" s="491"/>
-      <c r="C35" s="494"/>
-      <c r="D35" s="494"/>
+      <c r="B35" s="494"/>
+      <c r="C35" s="498"/>
+      <c r="D35" s="498"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -34741,9 +34600,9 @@
       <c r="AY35" s="176"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="491"/>
-      <c r="C36" s="494"/>
-      <c r="D36" s="494"/>
+      <c r="B36" s="494"/>
+      <c r="C36" s="498"/>
+      <c r="D36" s="498"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -34795,9 +34654,9 @@
       <c r="AY36" s="176"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="491"/>
-      <c r="C37" s="494"/>
-      <c r="D37" s="508"/>
+      <c r="B37" s="494"/>
+      <c r="C37" s="498"/>
+      <c r="D37" s="500"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -34849,9 +34708,9 @@
       <c r="AY37" s="86"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="491"/>
-      <c r="C38" s="494"/>
-      <c r="D38" s="517" t="s">
+      <c r="B38" s="494"/>
+      <c r="C38" s="498"/>
+      <c r="D38" s="503" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -34905,9 +34764,9 @@
       <c r="AY38" s="176"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="491"/>
-      <c r="C39" s="494"/>
-      <c r="D39" s="494"/>
+      <c r="B39" s="494"/>
+      <c r="C39" s="498"/>
+      <c r="D39" s="498"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -34959,9 +34818,9 @@
       <c r="AY39" s="176"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="491"/>
-      <c r="C40" s="494"/>
-      <c r="D40" s="494"/>
+      <c r="B40" s="494"/>
+      <c r="C40" s="498"/>
+      <c r="D40" s="498"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -35013,9 +34872,9 @@
       <c r="AY40" s="176"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B41" s="491"/>
-      <c r="C41" s="494"/>
-      <c r="D41" s="494"/>
+      <c r="B41" s="494"/>
+      <c r="C41" s="498"/>
+      <c r="D41" s="498"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -35067,9 +34926,9 @@
       <c r="AY41" s="176"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="491"/>
-      <c r="C42" s="494"/>
-      <c r="D42" s="494"/>
+      <c r="B42" s="494"/>
+      <c r="C42" s="498"/>
+      <c r="D42" s="498"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -35121,9 +34980,9 @@
       <c r="AY42" s="176"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="491"/>
-      <c r="C43" s="494"/>
-      <c r="D43" s="494"/>
+      <c r="B43" s="494"/>
+      <c r="C43" s="498"/>
+      <c r="D43" s="498"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -35175,9 +35034,9 @@
       <c r="AY43" s="176"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="491"/>
-      <c r="C44" s="494"/>
-      <c r="D44" s="494"/>
+      <c r="B44" s="494"/>
+      <c r="C44" s="498"/>
+      <c r="D44" s="498"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -35229,9 +35088,9 @@
       <c r="AY44" s="176"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="491"/>
-      <c r="C45" s="494"/>
-      <c r="D45" s="508"/>
+      <c r="B45" s="494"/>
+      <c r="C45" s="498"/>
+      <c r="D45" s="500"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -35283,9 +35142,9 @@
       <c r="AY45" s="176"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="491"/>
-      <c r="C46" s="494"/>
-      <c r="D46" s="518" t="s">
+      <c r="B46" s="494"/>
+      <c r="C46" s="498"/>
+      <c r="D46" s="504" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -35339,9 +35198,9 @@
       <c r="AY46" s="176"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="491"/>
-      <c r="C47" s="494"/>
-      <c r="D47" s="494"/>
+      <c r="B47" s="494"/>
+      <c r="C47" s="498"/>
+      <c r="D47" s="498"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -35393,9 +35252,9 @@
       <c r="AY47" s="86"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="491"/>
-      <c r="C48" s="494"/>
-      <c r="D48" s="494"/>
+      <c r="B48" s="494"/>
+      <c r="C48" s="498"/>
+      <c r="D48" s="498"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -35447,9 +35306,9 @@
       <c r="AY48" s="86"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="491"/>
-      <c r="C49" s="494"/>
-      <c r="D49" s="508"/>
+      <c r="B49" s="494"/>
+      <c r="C49" s="498"/>
+      <c r="D49" s="500"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -35501,9 +35360,9 @@
       <c r="AY49" s="176"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="491"/>
-      <c r="C50" s="494"/>
-      <c r="D50" s="517" t="s">
+      <c r="B50" s="494"/>
+      <c r="C50" s="498"/>
+      <c r="D50" s="503" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -35557,9 +35416,9 @@
       <c r="AY50" s="86"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B51" s="491"/>
-      <c r="C51" s="494"/>
-      <c r="D51" s="495"/>
+      <c r="B51" s="494"/>
+      <c r="C51" s="498"/>
+      <c r="D51" s="505"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -35611,8 +35470,8 @@
       <c r="AY51" s="119"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="491"/>
-      <c r="C52" s="506" t="s">
+      <c r="B52" s="494"/>
+      <c r="C52" s="509" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -35669,9 +35528,9 @@
       <c r="AY52" s="260"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="491"/>
-      <c r="C53" s="494"/>
-      <c r="D53" s="507" t="s">
+      <c r="B53" s="494"/>
+      <c r="C53" s="498"/>
+      <c r="D53" s="510" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -35725,9 +35584,9 @@
       <c r="AY53" s="86"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="491"/>
-      <c r="C54" s="494"/>
-      <c r="D54" s="494"/>
+      <c r="B54" s="494"/>
+      <c r="C54" s="498"/>
+      <c r="D54" s="498"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -35779,9 +35638,9 @@
       <c r="AY54" s="86"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="491"/>
-      <c r="C55" s="494"/>
-      <c r="D55" s="508"/>
+      <c r="B55" s="494"/>
+      <c r="C55" s="498"/>
+      <c r="D55" s="500"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -35833,9 +35692,9 @@
       <c r="AY55" s="86"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="491"/>
-      <c r="C56" s="494"/>
-      <c r="D56" s="507" t="s">
+      <c r="B56" s="494"/>
+      <c r="C56" s="498"/>
+      <c r="D56" s="510" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -35889,9 +35748,9 @@
       <c r="AY56" s="86"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="491"/>
-      <c r="C57" s="494"/>
-      <c r="D57" s="494"/>
+      <c r="B57" s="494"/>
+      <c r="C57" s="498"/>
+      <c r="D57" s="498"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -35943,9 +35802,9 @@
       <c r="AY57" s="86"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="491"/>
-      <c r="C58" s="494"/>
-      <c r="D58" s="508"/>
+      <c r="B58" s="494"/>
+      <c r="C58" s="498"/>
+      <c r="D58" s="500"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -35997,9 +35856,9 @@
       <c r="AY58" s="86"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="491"/>
-      <c r="C59" s="494"/>
-      <c r="D59" s="507" t="s">
+      <c r="B59" s="494"/>
+      <c r="C59" s="498"/>
+      <c r="D59" s="510" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -36053,9 +35912,9 @@
       <c r="AY59" s="86"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="491"/>
-      <c r="C60" s="494"/>
-      <c r="D60" s="494"/>
+      <c r="B60" s="494"/>
+      <c r="C60" s="498"/>
+      <c r="D60" s="498"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -36107,9 +35966,9 @@
       <c r="AY60" s="86"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="491"/>
-      <c r="C61" s="494"/>
-      <c r="D61" s="508"/>
+      <c r="B61" s="494"/>
+      <c r="C61" s="498"/>
+      <c r="D61" s="500"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -36161,9 +36020,9 @@
       <c r="AY61" s="86"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="491"/>
-      <c r="C62" s="494"/>
-      <c r="D62" s="509" t="s">
+      <c r="B62" s="494"/>
+      <c r="C62" s="498"/>
+      <c r="D62" s="501" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -36217,9 +36076,9 @@
       <c r="AY62" s="86"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="491"/>
-      <c r="C63" s="494"/>
-      <c r="D63" s="494"/>
+      <c r="B63" s="494"/>
+      <c r="C63" s="498"/>
+      <c r="D63" s="498"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -36271,9 +36130,9 @@
       <c r="AY63" s="86"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B64" s="491"/>
-      <c r="C64" s="494"/>
-      <c r="D64" s="508"/>
+      <c r="B64" s="494"/>
+      <c r="C64" s="498"/>
+      <c r="D64" s="500"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -36325,8 +36184,8 @@
       <c r="AY64" s="86"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="491"/>
-      <c r="C65" s="494"/>
+      <c r="B65" s="494"/>
+      <c r="C65" s="498"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -36381,9 +36240,9 @@
       <c r="AY65" s="175"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="491"/>
-      <c r="C66" s="494"/>
-      <c r="D66" s="509" t="s">
+      <c r="B66" s="494"/>
+      <c r="C66" s="498"/>
+      <c r="D66" s="501" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -36437,9 +36296,9 @@
       <c r="AY66" s="86"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="491"/>
-      <c r="C67" s="494"/>
-      <c r="D67" s="508"/>
+      <c r="B67" s="494"/>
+      <c r="C67" s="498"/>
+      <c r="D67" s="500"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -36491,9 +36350,9 @@
       <c r="AY67" s="86"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="491"/>
-      <c r="C68" s="494"/>
-      <c r="D68" s="509" t="s">
+      <c r="B68" s="494"/>
+      <c r="C68" s="498"/>
+      <c r="D68" s="501" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -36547,9 +36406,9 @@
       <c r="AY68" s="86"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B69" s="491"/>
-      <c r="C69" s="494"/>
-      <c r="D69" s="494"/>
+      <c r="B69" s="494"/>
+      <c r="C69" s="498"/>
+      <c r="D69" s="498"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -36601,9 +36460,9 @@
       <c r="AY69" s="86"/>
     </row>
     <row r="70" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B70" s="491"/>
-      <c r="C70" s="494"/>
-      <c r="D70" s="508"/>
+      <c r="B70" s="494"/>
+      <c r="C70" s="498"/>
+      <c r="D70" s="500"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -36655,9 +36514,9 @@
       <c r="AY70" s="86"/>
     </row>
     <row r="71" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B71" s="491"/>
-      <c r="C71" s="494"/>
-      <c r="D71" s="509" t="s">
+      <c r="B71" s="494"/>
+      <c r="C71" s="498"/>
+      <c r="D71" s="501" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -36711,9 +36570,9 @@
       <c r="AY71" s="86"/>
     </row>
     <row r="72" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B72" s="491"/>
-      <c r="C72" s="494"/>
-      <c r="D72" s="494"/>
+      <c r="B72" s="494"/>
+      <c r="C72" s="498"/>
+      <c r="D72" s="498"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -36765,9 +36624,9 @@
       <c r="AY72" s="86"/>
     </row>
     <row r="73" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B73" s="491"/>
-      <c r="C73" s="494"/>
-      <c r="D73" s="508"/>
+      <c r="B73" s="494"/>
+      <c r="C73" s="498"/>
+      <c r="D73" s="500"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -36819,9 +36678,9 @@
       <c r="AY73" s="86"/>
     </row>
     <row r="74" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B74" s="491"/>
-      <c r="C74" s="494"/>
-      <c r="D74" s="516" t="s">
+      <c r="B74" s="494"/>
+      <c r="C74" s="498"/>
+      <c r="D74" s="502" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -36875,9 +36734,9 @@
       <c r="AY74" s="86"/>
     </row>
     <row r="75" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B75" s="491"/>
-      <c r="C75" s="494"/>
-      <c r="D75" s="494"/>
+      <c r="B75" s="494"/>
+      <c r="C75" s="498"/>
+      <c r="D75" s="498"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -36929,9 +36788,9 @@
       <c r="AY75" s="86"/>
     </row>
     <row r="76" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B76" s="491"/>
-      <c r="C76" s="494"/>
-      <c r="D76" s="494"/>
+      <c r="B76" s="494"/>
+      <c r="C76" s="498"/>
+      <c r="D76" s="498"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -36983,9 +36842,9 @@
       <c r="AY76" s="86"/>
     </row>
     <row r="77" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B77" s="491"/>
-      <c r="C77" s="494"/>
-      <c r="D77" s="494"/>
+      <c r="B77" s="494"/>
+      <c r="C77" s="498"/>
+      <c r="D77" s="498"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -37037,12 +36896,12 @@
       <c r="AY77" s="119"/>
     </row>
     <row r="78" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B78" s="502" t="s">
+      <c r="B78" s="496" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="504" t="s">
+      <c r="E78" s="507" t="s">
         <v>117</v>
       </c>
       <c r="F78" s="73" t="s">
@@ -37095,10 +36954,10 @@
       <c r="AY78" s="260"/>
     </row>
     <row r="79" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B79" s="491"/>
+      <c r="B79" s="494"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="505"/>
+      <c r="E79" s="508"/>
       <c r="F79" s="183" t="s">
         <v>4</v>
       </c>
@@ -37149,10 +37008,10 @@
       <c r="AY79" s="86"/>
     </row>
     <row r="80" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B80" s="491"/>
+      <c r="B80" s="494"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="505"/>
+      <c r="E80" s="508"/>
       <c r="F80" s="184" t="s">
         <v>5</v>
       </c>
@@ -37203,10 +37062,10 @@
       <c r="AY80" s="86"/>
     </row>
     <row r="81" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B81" s="491"/>
+      <c r="B81" s="494"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="505"/>
+      <c r="E81" s="508"/>
       <c r="F81" s="185" t="s">
         <v>6</v>
       </c>
@@ -37257,10 +37116,10 @@
       <c r="AY81" s="86"/>
     </row>
     <row r="82" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B82" s="491"/>
+      <c r="B82" s="494"/>
       <c r="C82" s="74"/>
       <c r="D82" s="75"/>
-      <c r="E82" s="505"/>
+      <c r="E82" s="508"/>
       <c r="F82" s="186" t="s">
         <v>7</v>
       </c>
@@ -37311,7 +37170,7 @@
       <c r="AY82" s="86"/>
     </row>
     <row r="83" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B83" s="491"/>
+      <c r="B83" s="494"/>
       <c r="C83" s="74"/>
       <c r="D83" s="75"/>
       <c r="E83" s="19" t="s">
@@ -37365,7 +37224,7 @@
       <c r="AY83" s="86"/>
     </row>
     <row r="84" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B84" s="503"/>
+      <c r="B84" s="506"/>
       <c r="C84" s="188"/>
       <c r="D84" s="189"/>
       <c r="E84" s="190" t="s">
@@ -38359,31 +38218,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="AO4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B77"/>
-    <mergeCell ref="C20:C51"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D46:D49"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E82"/>
     <mergeCell ref="D50:D51"/>
@@ -38396,6 +38230,31 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D77"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="B20:B77"/>
+    <mergeCell ref="C20:C51"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 산출물/11.일정관리/캠플렉스 일정관리.xlsx
+++ b/프로젝트 산출물/11.일정관리/캠플렉스 일정관리.xlsx
@@ -3607,120 +3607,135 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3735,21 +3750,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4356,10 +4356,10 @@
   <dimension ref="A1:BF998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4432,11 +4432,11 @@
     </row>
     <row r="2" spans="1:58" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="488" t="s">
+      <c r="B2" s="529" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -4492,25 +4492,25 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="422"/>
-      <c r="H3" s="489" t="s">
+      <c r="H3" s="530" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="489"/>
+      <c r="I3" s="530"/>
       <c r="J3" s="482"/>
-      <c r="K3" s="489" t="s">
+      <c r="K3" s="530" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="489"/>
+      <c r="L3" s="530"/>
       <c r="M3" s="481"/>
-      <c r="N3" s="489" t="s">
+      <c r="N3" s="530" t="s">
         <v>123</v>
       </c>
-      <c r="O3" s="489"/>
+      <c r="O3" s="530"/>
       <c r="P3" s="480"/>
-      <c r="Q3" s="489" t="s">
+      <c r="Q3" s="530" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="489"/>
+      <c r="R3" s="530"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -4536,163 +4536,163 @@
     </row>
     <row r="4" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="511" t="s">
+      <c r="B4" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="512" t="s">
+      <c r="C4" s="509" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="512" t="s">
+      <c r="D4" s="509" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="512" t="s">
+      <c r="E4" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="512" t="s">
+      <c r="F4" s="509" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="516" t="s">
+      <c r="G4" s="494" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="517"/>
-      <c r="I4" s="517"/>
-      <c r="J4" s="517"/>
-      <c r="K4" s="517"/>
-      <c r="L4" s="517"/>
-      <c r="M4" s="517"/>
-      <c r="N4" s="531" t="s">
+      <c r="H4" s="495"/>
+      <c r="I4" s="495"/>
+      <c r="J4" s="495"/>
+      <c r="K4" s="495"/>
+      <c r="L4" s="495"/>
+      <c r="M4" s="495"/>
+      <c r="N4" s="504" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="532"/>
-      <c r="P4" s="532"/>
-      <c r="Q4" s="532"/>
-      <c r="R4" s="532"/>
-      <c r="S4" s="532"/>
-      <c r="T4" s="532"/>
-      <c r="U4" s="532"/>
-      <c r="V4" s="532"/>
-      <c r="W4" s="532"/>
-      <c r="X4" s="532"/>
-      <c r="Y4" s="532"/>
-      <c r="Z4" s="532"/>
-      <c r="AA4" s="532"/>
-      <c r="AB4" s="532"/>
-      <c r="AC4" s="532"/>
-      <c r="AD4" s="532"/>
-      <c r="AE4" s="532"/>
-      <c r="AF4" s="532"/>
-      <c r="AG4" s="532"/>
-      <c r="AH4" s="532"/>
-      <c r="AI4" s="532"/>
-      <c r="AJ4" s="532"/>
-      <c r="AK4" s="532"/>
-      <c r="AL4" s="532"/>
-      <c r="AM4" s="532"/>
-      <c r="AN4" s="532"/>
-      <c r="AO4" s="532"/>
-      <c r="AP4" s="532"/>
-      <c r="AQ4" s="532"/>
-      <c r="AR4" s="532"/>
-      <c r="AS4" s="518" t="s">
+      <c r="O4" s="505"/>
+      <c r="P4" s="505"/>
+      <c r="Q4" s="505"/>
+      <c r="R4" s="505"/>
+      <c r="S4" s="505"/>
+      <c r="T4" s="505"/>
+      <c r="U4" s="505"/>
+      <c r="V4" s="505"/>
+      <c r="W4" s="505"/>
+      <c r="X4" s="505"/>
+      <c r="Y4" s="505"/>
+      <c r="Z4" s="505"/>
+      <c r="AA4" s="505"/>
+      <c r="AB4" s="505"/>
+      <c r="AC4" s="505"/>
+      <c r="AD4" s="505"/>
+      <c r="AE4" s="505"/>
+      <c r="AF4" s="505"/>
+      <c r="AG4" s="505"/>
+      <c r="AH4" s="505"/>
+      <c r="AI4" s="505"/>
+      <c r="AJ4" s="505"/>
+      <c r="AK4" s="505"/>
+      <c r="AL4" s="505"/>
+      <c r="AM4" s="505"/>
+      <c r="AN4" s="505"/>
+      <c r="AO4" s="505"/>
+      <c r="AP4" s="505"/>
+      <c r="AQ4" s="505"/>
+      <c r="AR4" s="505"/>
+      <c r="AS4" s="496" t="s">
         <v>121</v>
       </c>
-      <c r="AT4" s="518"/>
-      <c r="AU4" s="518"/>
-      <c r="AV4" s="518"/>
-      <c r="AW4" s="518"/>
-      <c r="AX4" s="518"/>
-      <c r="AY4" s="518"/>
-      <c r="AZ4" s="518"/>
-      <c r="BA4" s="518"/>
-      <c r="BB4" s="518"/>
-      <c r="BC4" s="518"/>
-      <c r="BD4" s="518"/>
-      <c r="BE4" s="518"/>
-      <c r="BF4" s="519"/>
+      <c r="AT4" s="496"/>
+      <c r="AU4" s="496"/>
+      <c r="AV4" s="496"/>
+      <c r="AW4" s="496"/>
+      <c r="AX4" s="496"/>
+      <c r="AY4" s="496"/>
+      <c r="AZ4" s="496"/>
+      <c r="BA4" s="496"/>
+      <c r="BB4" s="496"/>
+      <c r="BC4" s="496"/>
+      <c r="BD4" s="496"/>
+      <c r="BE4" s="496"/>
+      <c r="BF4" s="497"/>
     </row>
     <row r="5" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="494"/>
-      <c r="C5" s="498"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="498"/>
-      <c r="F5" s="498"/>
-      <c r="G5" s="525" t="s">
+      <c r="B5" s="507"/>
+      <c r="C5" s="510"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="503" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="521"/>
-      <c r="I5" s="521"/>
-      <c r="J5" s="521"/>
-      <c r="K5" s="522"/>
-      <c r="L5" s="520" t="s">
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="499"/>
+      <c r="K5" s="500"/>
+      <c r="L5" s="498" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="521"/>
-      <c r="N5" s="521"/>
-      <c r="O5" s="521"/>
-      <c r="P5" s="521"/>
-      <c r="Q5" s="521"/>
-      <c r="R5" s="522"/>
-      <c r="S5" s="520" t="s">
+      <c r="M5" s="499"/>
+      <c r="N5" s="499"/>
+      <c r="O5" s="499"/>
+      <c r="P5" s="499"/>
+      <c r="Q5" s="499"/>
+      <c r="R5" s="500"/>
+      <c r="S5" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="521"/>
-      <c r="U5" s="521"/>
-      <c r="V5" s="521"/>
-      <c r="W5" s="521"/>
-      <c r="X5" s="521"/>
-      <c r="Y5" s="521"/>
-      <c r="Z5" s="523" t="s">
+      <c r="T5" s="499"/>
+      <c r="U5" s="499"/>
+      <c r="V5" s="499"/>
+      <c r="W5" s="499"/>
+      <c r="X5" s="499"/>
+      <c r="Y5" s="499"/>
+      <c r="Z5" s="501" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="521"/>
-      <c r="AB5" s="521"/>
-      <c r="AC5" s="521"/>
-      <c r="AD5" s="521"/>
-      <c r="AE5" s="521"/>
-      <c r="AF5" s="524"/>
-      <c r="AG5" s="525" t="s">
+      <c r="AA5" s="499"/>
+      <c r="AB5" s="499"/>
+      <c r="AC5" s="499"/>
+      <c r="AD5" s="499"/>
+      <c r="AE5" s="499"/>
+      <c r="AF5" s="502"/>
+      <c r="AG5" s="503" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="521"/>
-      <c r="AI5" s="521"/>
-      <c r="AJ5" s="521"/>
-      <c r="AK5" s="521"/>
-      <c r="AL5" s="521"/>
-      <c r="AM5" s="522"/>
-      <c r="AN5" s="520" t="s">
+      <c r="AH5" s="499"/>
+      <c r="AI5" s="499"/>
+      <c r="AJ5" s="499"/>
+      <c r="AK5" s="499"/>
+      <c r="AL5" s="499"/>
+      <c r="AM5" s="500"/>
+      <c r="AN5" s="498" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="521"/>
-      <c r="AP5" s="521"/>
-      <c r="AQ5" s="521"/>
-      <c r="AR5" s="521"/>
-      <c r="AS5" s="521"/>
-      <c r="AT5" s="522"/>
-      <c r="AU5" s="520" t="s">
+      <c r="AO5" s="499"/>
+      <c r="AP5" s="499"/>
+      <c r="AQ5" s="499"/>
+      <c r="AR5" s="499"/>
+      <c r="AS5" s="499"/>
+      <c r="AT5" s="500"/>
+      <c r="AU5" s="498" t="s">
         <v>126</v>
       </c>
-      <c r="AV5" s="521"/>
-      <c r="AW5" s="521"/>
-      <c r="AX5" s="521"/>
-      <c r="AY5" s="521"/>
-      <c r="AZ5" s="521"/>
-      <c r="BA5" s="522"/>
-      <c r="BB5" s="513" t="s">
+      <c r="AV5" s="499"/>
+      <c r="AW5" s="499"/>
+      <c r="AX5" s="499"/>
+      <c r="AY5" s="499"/>
+      <c r="AZ5" s="499"/>
+      <c r="BA5" s="500"/>
+      <c r="BB5" s="491" t="s">
         <v>127</v>
       </c>
-      <c r="BC5" s="514"/>
-      <c r="BD5" s="514"/>
-      <c r="BE5" s="514"/>
-      <c r="BF5" s="515"/>
+      <c r="BC5" s="492"/>
+      <c r="BD5" s="492"/>
+      <c r="BE5" s="492"/>
+      <c r="BF5" s="493"/>
     </row>
     <row r="6" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="495"/>
-      <c r="C6" s="505"/>
-      <c r="D6" s="505"/>
-      <c r="E6" s="505"/>
-      <c r="F6" s="505"/>
+      <c r="B6" s="508"/>
+      <c r="C6" s="511"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="511"/>
+      <c r="F6" s="511"/>
       <c r="G6" s="13">
         <v>24</v>
       </c>
@@ -4852,13 +4852,13 @@
     </row>
     <row r="7" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="490" t="s">
+      <c r="B7" s="520" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="492"/>
+      <c r="C7" s="521"/>
+      <c r="D7" s="521"/>
+      <c r="E7" s="521"/>
+      <c r="F7" s="522"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="8" spans="1:58" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="493" t="s">
+      <c r="B8" s="523" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="9" spans="1:58" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="494"/>
+      <c r="B9" s="507"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -5144,7 +5144,7 @@
     </row>
     <row r="10" spans="1:58" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="494"/>
+      <c r="B10" s="507"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -5206,7 +5206,7 @@
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="494"/>
+      <c r="B11" s="507"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -5268,7 +5268,7 @@
     </row>
     <row r="12" spans="1:58" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="494"/>
+      <c r="B12" s="507"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -5330,7 +5330,7 @@
     </row>
     <row r="13" spans="1:58" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="494"/>
+      <c r="B13" s="507"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -5392,7 +5392,7 @@
     </row>
     <row r="14" spans="1:58" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="494"/>
+      <c r="B14" s="507"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -5454,7 +5454,7 @@
     </row>
     <row r="15" spans="1:58" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="494"/>
+      <c r="B15" s="507"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -5516,7 +5516,7 @@
     </row>
     <row r="16" spans="1:58" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="494"/>
+      <c r="B16" s="507"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -5578,7 +5578,7 @@
     </row>
     <row r="17" spans="1:58" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="494"/>
+      <c r="B17" s="507"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="18" spans="1:58" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="494"/>
+      <c r="B18" s="507"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -5702,7 +5702,7 @@
     </row>
     <row r="19" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="495"/>
+      <c r="B19" s="508"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -5764,13 +5764,13 @@
     </row>
     <row r="20" spans="1:58" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="496" t="s">
+      <c r="B20" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="497" t="s">
+      <c r="C20" s="524" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="499" t="s">
+      <c r="D20" s="525" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -5790,9 +5790,9 @@
       <c r="Q20" s="315"/>
       <c r="R20" s="316"/>
       <c r="S20" s="240"/>
-      <c r="T20" s="124"/>
+      <c r="T20" s="483"/>
       <c r="U20" s="314"/>
-      <c r="V20" s="483"/>
+      <c r="V20" s="314"/>
       <c r="W20" s="314"/>
       <c r="X20" s="315"/>
       <c r="Y20" s="316"/>
@@ -5832,9 +5832,9 @@
     </row>
     <row r="21" spans="1:58" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="494"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="498"/>
+      <c r="B21" s="507"/>
+      <c r="C21" s="510"/>
+      <c r="D21" s="510"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -5852,9 +5852,9 @@
       <c r="Q21" s="123"/>
       <c r="R21" s="322"/>
       <c r="S21" s="321"/>
-      <c r="T21" s="124"/>
+      <c r="T21" s="484"/>
       <c r="U21" s="80"/>
-      <c r="V21" s="484"/>
+      <c r="V21" s="80"/>
       <c r="W21" s="123"/>
       <c r="X21" s="123"/>
       <c r="Y21" s="322"/>
@@ -5894,9 +5894,9 @@
     </row>
     <row r="22" spans="1:58" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="494"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="507"/>
+      <c r="C22" s="510"/>
+      <c r="D22" s="510"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -5956,9 +5956,9 @@
     </row>
     <row r="23" spans="1:58" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="494"/>
-      <c r="C23" s="498"/>
-      <c r="D23" s="500"/>
+      <c r="B23" s="507"/>
+      <c r="C23" s="510"/>
+      <c r="D23" s="518"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -6018,9 +6018,9 @@
     </row>
     <row r="24" spans="1:58" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="494"/>
-      <c r="C24" s="498"/>
-      <c r="D24" s="501" t="s">
+      <c r="B24" s="507"/>
+      <c r="C24" s="510"/>
+      <c r="D24" s="519" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -6082,9 +6082,9 @@
     </row>
     <row r="25" spans="1:58" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="494"/>
-      <c r="C25" s="498"/>
-      <c r="D25" s="498"/>
+      <c r="B25" s="507"/>
+      <c r="C25" s="510"/>
+      <c r="D25" s="510"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -6144,9 +6144,9 @@
     </row>
     <row r="26" spans="1:58" ht="16.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="494"/>
-      <c r="C26" s="498"/>
-      <c r="D26" s="498"/>
+      <c r="B26" s="507"/>
+      <c r="C26" s="510"/>
+      <c r="D26" s="510"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -6206,9 +6206,9 @@
     </row>
     <row r="27" spans="1:58" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="494"/>
-      <c r="C27" s="498"/>
-      <c r="D27" s="500"/>
+      <c r="B27" s="507"/>
+      <c r="C27" s="510"/>
+      <c r="D27" s="518"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -6268,9 +6268,9 @@
     </row>
     <row r="28" spans="1:58" ht="17.25" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="494"/>
-      <c r="C28" s="498"/>
-      <c r="D28" s="501" t="s">
+      <c r="B28" s="507"/>
+      <c r="C28" s="510"/>
+      <c r="D28" s="519" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -6332,9 +6332,9 @@
     </row>
     <row r="29" spans="1:58" ht="17.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="494"/>
-      <c r="C29" s="498"/>
-      <c r="D29" s="498"/>
+      <c r="B29" s="507"/>
+      <c r="C29" s="510"/>
+      <c r="D29" s="510"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -6394,9 +6394,9 @@
     </row>
     <row r="30" spans="1:58" ht="17.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="494"/>
-      <c r="C30" s="498"/>
-      <c r="D30" s="498"/>
+      <c r="B30" s="507"/>
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -6456,9 +6456,9 @@
     </row>
     <row r="31" spans="1:58" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="494"/>
-      <c r="C31" s="498"/>
-      <c r="D31" s="498"/>
+      <c r="B31" s="507"/>
+      <c r="C31" s="510"/>
+      <c r="D31" s="510"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -6518,9 +6518,9 @@
     </row>
     <row r="32" spans="1:58" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="494"/>
-      <c r="C32" s="498"/>
-      <c r="D32" s="498"/>
+      <c r="B32" s="507"/>
+      <c r="C32" s="510"/>
+      <c r="D32" s="510"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -6580,9 +6580,9 @@
     </row>
     <row r="33" spans="1:58" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="494"/>
-      <c r="C33" s="498"/>
-      <c r="D33" s="498"/>
+      <c r="B33" s="507"/>
+      <c r="C33" s="510"/>
+      <c r="D33" s="510"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -6642,9 +6642,9 @@
     </row>
     <row r="34" spans="1:58" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="494"/>
-      <c r="C34" s="498"/>
-      <c r="D34" s="501" t="s">
+      <c r="B34" s="507"/>
+      <c r="C34" s="510"/>
+      <c r="D34" s="519" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -6706,9 +6706,9 @@
     </row>
     <row r="35" spans="1:58" ht="18" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="494"/>
-      <c r="C35" s="498"/>
-      <c r="D35" s="498"/>
+      <c r="B35" s="507"/>
+      <c r="C35" s="510"/>
+      <c r="D35" s="510"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -6768,9 +6768,9 @@
     </row>
     <row r="36" spans="1:58" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="494"/>
-      <c r="C36" s="498"/>
-      <c r="D36" s="498"/>
+      <c r="B36" s="507"/>
+      <c r="C36" s="510"/>
+      <c r="D36" s="510"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -6830,9 +6830,9 @@
     </row>
     <row r="37" spans="1:58" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="494"/>
-      <c r="C37" s="498"/>
-      <c r="D37" s="500"/>
+      <c r="B37" s="507"/>
+      <c r="C37" s="510"/>
+      <c r="D37" s="518"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -6892,9 +6892,9 @@
     </row>
     <row r="38" spans="1:58" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="494"/>
-      <c r="C38" s="498"/>
-      <c r="D38" s="503" t="s">
+      <c r="B38" s="507"/>
+      <c r="C38" s="510"/>
+      <c r="D38" s="527" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -6956,9 +6956,9 @@
     </row>
     <row r="39" spans="1:58" ht="16.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="494"/>
-      <c r="C39" s="498"/>
-      <c r="D39" s="498"/>
+      <c r="B39" s="507"/>
+      <c r="C39" s="510"/>
+      <c r="D39" s="510"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -7018,9 +7018,9 @@
     </row>
     <row r="40" spans="1:58" ht="16.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="494"/>
-      <c r="C40" s="498"/>
-      <c r="D40" s="498"/>
+      <c r="B40" s="507"/>
+      <c r="C40" s="510"/>
+      <c r="D40" s="510"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -7080,9 +7080,9 @@
     </row>
     <row r="41" spans="1:58" ht="16.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="494"/>
-      <c r="C41" s="498"/>
-      <c r="D41" s="498"/>
+      <c r="B41" s="507"/>
+      <c r="C41" s="510"/>
+      <c r="D41" s="510"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -7142,9 +7142,9 @@
     </row>
     <row r="42" spans="1:58" ht="16.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="494"/>
-      <c r="C42" s="498"/>
-      <c r="D42" s="498"/>
+      <c r="B42" s="507"/>
+      <c r="C42" s="510"/>
+      <c r="D42" s="510"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -7204,9 +7204,9 @@
     </row>
     <row r="43" spans="1:58" ht="16.5" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="494"/>
-      <c r="C43" s="498"/>
-      <c r="D43" s="498"/>
+      <c r="B43" s="507"/>
+      <c r="C43" s="510"/>
+      <c r="D43" s="510"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -7266,9 +7266,9 @@
     </row>
     <row r="44" spans="1:58" ht="16.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="494"/>
-      <c r="C44" s="498"/>
-      <c r="D44" s="498"/>
+      <c r="B44" s="507"/>
+      <c r="C44" s="510"/>
+      <c r="D44" s="510"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -7328,9 +7328,9 @@
     </row>
     <row r="45" spans="1:58" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="494"/>
-      <c r="C45" s="498"/>
-      <c r="D45" s="500"/>
+      <c r="B45" s="507"/>
+      <c r="C45" s="510"/>
+      <c r="D45" s="518"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -7390,9 +7390,9 @@
     </row>
     <row r="46" spans="1:58" ht="16.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="494"/>
-      <c r="C46" s="498"/>
-      <c r="D46" s="504" t="s">
+      <c r="B46" s="507"/>
+      <c r="C46" s="510"/>
+      <c r="D46" s="528" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -7454,9 +7454,9 @@
     </row>
     <row r="47" spans="1:58" ht="16.5" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="494"/>
-      <c r="C47" s="498"/>
-      <c r="D47" s="498"/>
+      <c r="B47" s="507"/>
+      <c r="C47" s="510"/>
+      <c r="D47" s="510"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -7516,9 +7516,9 @@
     </row>
     <row r="48" spans="1:58" ht="16.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="494"/>
-      <c r="C48" s="498"/>
-      <c r="D48" s="498"/>
+      <c r="B48" s="507"/>
+      <c r="C48" s="510"/>
+      <c r="D48" s="510"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -7578,9 +7578,9 @@
     </row>
     <row r="49" spans="1:58" ht="16.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="494"/>
-      <c r="C49" s="498"/>
-      <c r="D49" s="500"/>
+      <c r="B49" s="507"/>
+      <c r="C49" s="510"/>
+      <c r="D49" s="518"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -7640,9 +7640,9 @@
     </row>
     <row r="50" spans="1:58" ht="16.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="494"/>
-      <c r="C50" s="498"/>
-      <c r="D50" s="503" t="s">
+      <c r="B50" s="507"/>
+      <c r="C50" s="510"/>
+      <c r="D50" s="527" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -7704,9 +7704,9 @@
     </row>
     <row r="51" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="494"/>
-      <c r="C51" s="498"/>
-      <c r="D51" s="505"/>
+      <c r="B51" s="507"/>
+      <c r="C51" s="510"/>
+      <c r="D51" s="511"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -7766,8 +7766,8 @@
     </row>
     <row r="52" spans="1:58" ht="16.5" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="494"/>
-      <c r="C52" s="509" t="s">
+      <c r="B52" s="507"/>
+      <c r="C52" s="516" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -7832,9 +7832,9 @@
     </row>
     <row r="53" spans="1:58" ht="16.5" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="494"/>
-      <c r="C53" s="498"/>
-      <c r="D53" s="510" t="s">
+      <c r="B53" s="507"/>
+      <c r="C53" s="510"/>
+      <c r="D53" s="517" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -7896,9 +7896,9 @@
     </row>
     <row r="54" spans="1:58" ht="16.5" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="494"/>
-      <c r="C54" s="498"/>
-      <c r="D54" s="498"/>
+      <c r="B54" s="507"/>
+      <c r="C54" s="510"/>
+      <c r="D54" s="510"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -7958,9 +7958,9 @@
     </row>
     <row r="55" spans="1:58" ht="16.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="494"/>
-      <c r="C55" s="498"/>
-      <c r="D55" s="500"/>
+      <c r="B55" s="507"/>
+      <c r="C55" s="510"/>
+      <c r="D55" s="518"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -8020,9 +8020,9 @@
     </row>
     <row r="56" spans="1:58" ht="16.5" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="494"/>
-      <c r="C56" s="498"/>
-      <c r="D56" s="510" t="s">
+      <c r="B56" s="507"/>
+      <c r="C56" s="510"/>
+      <c r="D56" s="517" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -8084,9 +8084,9 @@
     </row>
     <row r="57" spans="1:58" ht="16.5" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="494"/>
-      <c r="C57" s="498"/>
-      <c r="D57" s="498"/>
+      <c r="B57" s="507"/>
+      <c r="C57" s="510"/>
+      <c r="D57" s="510"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -8146,9 +8146,9 @@
     </row>
     <row r="58" spans="1:58" ht="16.5" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="494"/>
-      <c r="C58" s="498"/>
-      <c r="D58" s="500"/>
+      <c r="B58" s="507"/>
+      <c r="C58" s="510"/>
+      <c r="D58" s="518"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -8208,9 +8208,9 @@
     </row>
     <row r="59" spans="1:58" ht="16.5" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="494"/>
-      <c r="C59" s="498"/>
-      <c r="D59" s="510" t="s">
+      <c r="B59" s="507"/>
+      <c r="C59" s="510"/>
+      <c r="D59" s="517" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -8272,9 +8272,9 @@
     </row>
     <row r="60" spans="1:58" ht="16.5" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="494"/>
-      <c r="C60" s="498"/>
-      <c r="D60" s="498"/>
+      <c r="B60" s="507"/>
+      <c r="C60" s="510"/>
+      <c r="D60" s="510"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -8334,9 +8334,9 @@
     </row>
     <row r="61" spans="1:58" ht="16.5" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="494"/>
-      <c r="C61" s="498"/>
-      <c r="D61" s="500"/>
+      <c r="B61" s="507"/>
+      <c r="C61" s="510"/>
+      <c r="D61" s="518"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -8396,9 +8396,9 @@
     </row>
     <row r="62" spans="1:58" ht="16.5" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="494"/>
-      <c r="C62" s="498"/>
-      <c r="D62" s="501" t="s">
+      <c r="B62" s="507"/>
+      <c r="C62" s="510"/>
+      <c r="D62" s="519" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -8460,9 +8460,9 @@
     </row>
     <row r="63" spans="1:58" ht="16.5" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="494"/>
-      <c r="C63" s="498"/>
-      <c r="D63" s="498"/>
+      <c r="B63" s="507"/>
+      <c r="C63" s="510"/>
+      <c r="D63" s="510"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -8522,9 +8522,9 @@
     </row>
     <row r="64" spans="1:58" ht="16.5" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="494"/>
-      <c r="C64" s="498"/>
-      <c r="D64" s="500"/>
+      <c r="B64" s="507"/>
+      <c r="C64" s="510"/>
+      <c r="D64" s="518"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -8584,8 +8584,8 @@
     </row>
     <row r="65" spans="1:58" ht="16.5" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="494"/>
-      <c r="C65" s="498"/>
+      <c r="B65" s="507"/>
+      <c r="C65" s="510"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -8648,9 +8648,9 @@
     </row>
     <row r="66" spans="1:58" ht="16.5" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="494"/>
-      <c r="C66" s="498"/>
-      <c r="D66" s="501" t="s">
+      <c r="B66" s="507"/>
+      <c r="C66" s="510"/>
+      <c r="D66" s="519" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -8712,9 +8712,9 @@
     </row>
     <row r="67" spans="1:58" ht="16.5" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="494"/>
-      <c r="C67" s="498"/>
-      <c r="D67" s="500"/>
+      <c r="B67" s="507"/>
+      <c r="C67" s="510"/>
+      <c r="D67" s="518"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -8774,9 +8774,9 @@
     </row>
     <row r="68" spans="1:58" ht="16.5" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="494"/>
-      <c r="C68" s="498"/>
-      <c r="D68" s="501" t="s">
+      <c r="B68" s="507"/>
+      <c r="C68" s="510"/>
+      <c r="D68" s="519" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -8838,9 +8838,9 @@
     </row>
     <row r="69" spans="1:58" ht="16.5" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="494"/>
-      <c r="C69" s="498"/>
-      <c r="D69" s="498"/>
+      <c r="B69" s="507"/>
+      <c r="C69" s="510"/>
+      <c r="D69" s="510"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -8900,9 +8900,9 @@
     </row>
     <row r="70" spans="1:58" ht="16.5" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="494"/>
-      <c r="C70" s="498"/>
-      <c r="D70" s="500"/>
+      <c r="B70" s="507"/>
+      <c r="C70" s="510"/>
+      <c r="D70" s="518"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -8962,9 +8962,9 @@
     </row>
     <row r="71" spans="1:58" ht="16.5" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="494"/>
-      <c r="C71" s="498"/>
-      <c r="D71" s="501" t="s">
+      <c r="B71" s="507"/>
+      <c r="C71" s="510"/>
+      <c r="D71" s="519" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -9026,9 +9026,9 @@
     </row>
     <row r="72" spans="1:58" ht="16.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="494"/>
-      <c r="C72" s="498"/>
-      <c r="D72" s="498"/>
+      <c r="B72" s="507"/>
+      <c r="C72" s="510"/>
+      <c r="D72" s="510"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -9088,9 +9088,9 @@
     </row>
     <row r="73" spans="1:58" ht="16.5" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="494"/>
-      <c r="C73" s="498"/>
-      <c r="D73" s="500"/>
+      <c r="B73" s="507"/>
+      <c r="C73" s="510"/>
+      <c r="D73" s="518"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -9150,9 +9150,9 @@
     </row>
     <row r="74" spans="1:58" ht="16.5" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="494"/>
-      <c r="C74" s="498"/>
-      <c r="D74" s="502" t="s">
+      <c r="B74" s="507"/>
+      <c r="C74" s="510"/>
+      <c r="D74" s="526" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -9214,9 +9214,9 @@
     </row>
     <row r="75" spans="1:58" ht="16.5" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="494"/>
-      <c r="C75" s="498"/>
-      <c r="D75" s="498"/>
+      <c r="B75" s="507"/>
+      <c r="C75" s="510"/>
+      <c r="D75" s="510"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -9276,9 +9276,9 @@
     </row>
     <row r="76" spans="1:58" ht="16.5" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="494"/>
-      <c r="C76" s="498"/>
-      <c r="D76" s="498"/>
+      <c r="B76" s="507"/>
+      <c r="C76" s="510"/>
+      <c r="D76" s="510"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -9338,9 +9338,9 @@
     </row>
     <row r="77" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="494"/>
-      <c r="C77" s="498"/>
-      <c r="D77" s="498"/>
+      <c r="B77" s="507"/>
+      <c r="C77" s="510"/>
+      <c r="D77" s="510"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -9400,15 +9400,15 @@
     </row>
     <row r="78" spans="1:58" ht="16.5" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="496" t="s">
+      <c r="B78" s="512" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="507" t="s">
+      <c r="E78" s="514" t="s">
         <v>117</v>
       </c>
-      <c r="F78" s="534"/>
+      <c r="F78" s="489"/>
       <c r="G78" s="319"/>
       <c r="H78" s="315"/>
       <c r="I78" s="315"/>
@@ -9464,11 +9464,11 @@
     </row>
     <row r="79" spans="1:58" ht="16.5" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="494"/>
+      <c r="B79" s="507"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="508"/>
-      <c r="F79" s="533"/>
+      <c r="E79" s="515"/>
+      <c r="F79" s="488"/>
       <c r="G79" s="326"/>
       <c r="H79" s="123"/>
       <c r="I79" s="123"/>
@@ -9524,11 +9524,11 @@
     </row>
     <row r="80" spans="1:58" ht="16.5" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="494"/>
+      <c r="B80" s="507"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="508"/>
-      <c r="F80" s="535"/>
+      <c r="E80" s="515"/>
+      <c r="F80" s="490"/>
       <c r="G80" s="326"/>
       <c r="H80" s="123"/>
       <c r="I80" s="123"/>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="81" spans="1:58" ht="16.5" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="494"/>
+      <c r="B81" s="507"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
       <c r="E81" s="19" t="s">
@@ -9646,7 +9646,7 @@
     </row>
     <row r="82" spans="1:58" ht="16.5" customHeight="1" thickBot="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="506"/>
+      <c r="B82" s="513"/>
       <c r="C82" s="188"/>
       <c r="D82" s="189"/>
       <c r="E82" s="190" t="s">
@@ -21024,31 +21024,11 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="AS4:BF4"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="AU5:BA5"/>
-    <mergeCell ref="N4:AR4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="C52:C77"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:B19"/>
     <mergeCell ref="B20:B77"/>
@@ -21062,11 +21042,31 @@
     <mergeCell ref="D38:D45"/>
     <mergeCell ref="D46:D49"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="C52:C77"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="AS4:BF4"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="AU5:BA5"/>
+    <mergeCell ref="N4:AR4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -21196,145 +21196,145 @@
       <c r="AK3" s="4"/>
     </row>
     <row r="4" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="511" t="s">
+      <c r="B4" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="512" t="s">
+      <c r="C4" s="509" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="512" t="s">
+      <c r="D4" s="509" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="512" t="s">
+      <c r="E4" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="512" t="s">
+      <c r="F4" s="509" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="516" t="s">
+      <c r="G4" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="526"/>
-      <c r="I4" s="528"/>
-      <c r="J4" s="516" t="s">
+      <c r="H4" s="531"/>
+      <c r="I4" s="533"/>
+      <c r="J4" s="494" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="526"/>
-      <c r="L4" s="526"/>
-      <c r="M4" s="526"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
-      <c r="Q4" s="526"/>
-      <c r="R4" s="526"/>
-      <c r="S4" s="526"/>
-      <c r="T4" s="526"/>
-      <c r="U4" s="526"/>
-      <c r="V4" s="526"/>
-      <c r="W4" s="526"/>
-      <c r="X4" s="526"/>
-      <c r="Y4" s="526"/>
-      <c r="Z4" s="527"/>
-      <c r="AA4" s="527"/>
-      <c r="AB4" s="527"/>
-      <c r="AC4" s="527"/>
-      <c r="AD4" s="527"/>
-      <c r="AE4" s="527"/>
-      <c r="AF4" s="527"/>
-      <c r="AG4" s="526"/>
-      <c r="AH4" s="526"/>
-      <c r="AI4" s="526"/>
-      <c r="AJ4" s="526"/>
-      <c r="AK4" s="526"/>
-      <c r="AL4" s="526"/>
-      <c r="AM4" s="526"/>
-      <c r="AN4" s="528"/>
-      <c r="AO4" s="516" t="s">
+      <c r="K4" s="531"/>
+      <c r="L4" s="531"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="531"/>
+      <c r="O4" s="531"/>
+      <c r="P4" s="531"/>
+      <c r="Q4" s="531"/>
+      <c r="R4" s="531"/>
+      <c r="S4" s="531"/>
+      <c r="T4" s="531"/>
+      <c r="U4" s="531"/>
+      <c r="V4" s="531"/>
+      <c r="W4" s="531"/>
+      <c r="X4" s="531"/>
+      <c r="Y4" s="531"/>
+      <c r="Z4" s="532"/>
+      <c r="AA4" s="532"/>
+      <c r="AB4" s="532"/>
+      <c r="AC4" s="532"/>
+      <c r="AD4" s="532"/>
+      <c r="AE4" s="532"/>
+      <c r="AF4" s="532"/>
+      <c r="AG4" s="531"/>
+      <c r="AH4" s="531"/>
+      <c r="AI4" s="531"/>
+      <c r="AJ4" s="531"/>
+      <c r="AK4" s="531"/>
+      <c r="AL4" s="531"/>
+      <c r="AM4" s="531"/>
+      <c r="AN4" s="533"/>
+      <c r="AO4" s="494" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="526"/>
-      <c r="AQ4" s="526"/>
-      <c r="AR4" s="526"/>
-      <c r="AS4" s="526"/>
-      <c r="AT4" s="526"/>
-      <c r="AU4" s="526"/>
-      <c r="AV4" s="526"/>
-      <c r="AW4" s="526"/>
-      <c r="AX4" s="526"/>
-      <c r="AY4" s="529"/>
+      <c r="AP4" s="531"/>
+      <c r="AQ4" s="531"/>
+      <c r="AR4" s="531"/>
+      <c r="AS4" s="531"/>
+      <c r="AT4" s="531"/>
+      <c r="AU4" s="531"/>
+      <c r="AV4" s="531"/>
+      <c r="AW4" s="531"/>
+      <c r="AX4" s="531"/>
+      <c r="AY4" s="534"/>
     </row>
     <row r="5" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="494"/>
-      <c r="C5" s="498"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="498"/>
-      <c r="F5" s="498"/>
-      <c r="G5" s="525" t="s">
+      <c r="B5" s="507"/>
+      <c r="C5" s="510"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="503" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="521"/>
-      <c r="I5" s="521"/>
-      <c r="J5" s="521"/>
-      <c r="K5" s="522"/>
-      <c r="L5" s="520" t="s">
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="499"/>
+      <c r="K5" s="500"/>
+      <c r="L5" s="498" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="521"/>
-      <c r="N5" s="521"/>
-      <c r="O5" s="521"/>
-      <c r="P5" s="521"/>
-      <c r="Q5" s="521"/>
-      <c r="R5" s="522"/>
-      <c r="S5" s="520" t="s">
+      <c r="M5" s="499"/>
+      <c r="N5" s="499"/>
+      <c r="O5" s="499"/>
+      <c r="P5" s="499"/>
+      <c r="Q5" s="499"/>
+      <c r="R5" s="500"/>
+      <c r="S5" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="521"/>
-      <c r="U5" s="521"/>
-      <c r="V5" s="521"/>
-      <c r="W5" s="521"/>
-      <c r="X5" s="521"/>
-      <c r="Y5" s="521"/>
-      <c r="Z5" s="530" t="s">
+      <c r="T5" s="499"/>
+      <c r="U5" s="499"/>
+      <c r="V5" s="499"/>
+      <c r="W5" s="499"/>
+      <c r="X5" s="499"/>
+      <c r="Y5" s="499"/>
+      <c r="Z5" s="535" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="526"/>
-      <c r="AB5" s="526"/>
-      <c r="AC5" s="526"/>
-      <c r="AD5" s="526"/>
-      <c r="AE5" s="526"/>
-      <c r="AF5" s="529"/>
-      <c r="AG5" s="525" t="s">
+      <c r="AA5" s="531"/>
+      <c r="AB5" s="531"/>
+      <c r="AC5" s="531"/>
+      <c r="AD5" s="531"/>
+      <c r="AE5" s="531"/>
+      <c r="AF5" s="534"/>
+      <c r="AG5" s="503" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="521"/>
-      <c r="AI5" s="521"/>
-      <c r="AJ5" s="521"/>
-      <c r="AK5" s="521"/>
-      <c r="AL5" s="521"/>
-      <c r="AM5" s="522"/>
-      <c r="AN5" s="520" t="s">
+      <c r="AH5" s="499"/>
+      <c r="AI5" s="499"/>
+      <c r="AJ5" s="499"/>
+      <c r="AK5" s="499"/>
+      <c r="AL5" s="499"/>
+      <c r="AM5" s="500"/>
+      <c r="AN5" s="498" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="521"/>
-      <c r="AP5" s="521"/>
-      <c r="AQ5" s="521"/>
-      <c r="AR5" s="521"/>
-      <c r="AS5" s="521"/>
-      <c r="AT5" s="522"/>
-      <c r="AU5" s="520" t="s">
+      <c r="AO5" s="499"/>
+      <c r="AP5" s="499"/>
+      <c r="AQ5" s="499"/>
+      <c r="AR5" s="499"/>
+      <c r="AS5" s="499"/>
+      <c r="AT5" s="500"/>
+      <c r="AU5" s="498" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="521"/>
-      <c r="AW5" s="521"/>
-      <c r="AX5" s="521"/>
-      <c r="AY5" s="524"/>
+      <c r="AV5" s="499"/>
+      <c r="AW5" s="499"/>
+      <c r="AX5" s="499"/>
+      <c r="AY5" s="502"/>
     </row>
     <row r="6" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="495"/>
-      <c r="C6" s="505"/>
-      <c r="D6" s="505"/>
-      <c r="E6" s="505"/>
-      <c r="F6" s="505"/>
+      <c r="B6" s="508"/>
+      <c r="C6" s="511"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="511"/>
+      <c r="F6" s="511"/>
       <c r="G6" s="13">
         <v>28</v>
       </c>
@@ -21472,13 +21472,13 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="490" t="s">
+      <c r="B7" s="520" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="492"/>
+      <c r="C7" s="521"/>
+      <c r="D7" s="521"/>
+      <c r="E7" s="521"/>
+      <c r="F7" s="522"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -21616,7 +21616,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B8" s="493" t="s">
+      <c r="B8" s="523" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -21672,7 +21672,7 @@
       <c r="AY8" s="266"/>
     </row>
     <row r="9" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B9" s="494"/>
+      <c r="B9" s="507"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -21726,7 +21726,7 @@
       <c r="AY9" s="163"/>
     </row>
     <row r="10" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B10" s="494"/>
+      <c r="B10" s="507"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -21780,7 +21780,7 @@
       <c r="AY10" s="163"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B11" s="494"/>
+      <c r="B11" s="507"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -21834,7 +21834,7 @@
       <c r="AY11" s="163"/>
     </row>
     <row r="12" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B12" s="494"/>
+      <c r="B12" s="507"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -21888,7 +21888,7 @@
       <c r="AY12" s="163"/>
     </row>
     <row r="13" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B13" s="494"/>
+      <c r="B13" s="507"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -21942,7 +21942,7 @@
       <c r="AY13" s="163"/>
     </row>
     <row r="14" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B14" s="494"/>
+      <c r="B14" s="507"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -21996,7 +21996,7 @@
       <c r="AY14" s="163"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B15" s="494"/>
+      <c r="B15" s="507"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -22050,7 +22050,7 @@
       <c r="AY15" s="164"/>
     </row>
     <row r="16" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B16" s="494"/>
+      <c r="B16" s="507"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -22104,7 +22104,7 @@
       <c r="AY16" s="164"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="494"/>
+      <c r="B17" s="507"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -22158,7 +22158,7 @@
       <c r="AY17" s="164"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="494"/>
+      <c r="B18" s="507"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -22212,7 +22212,7 @@
       <c r="AY18" s="164"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="495"/>
+      <c r="B19" s="508"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -22266,13 +22266,13 @@
       <c r="AY19" s="165"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="496" t="s">
+      <c r="B20" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="497" t="s">
+      <c r="C20" s="524" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="499" t="s">
+      <c r="D20" s="525" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -22326,9 +22326,9 @@
       <c r="AY20" s="169"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="494"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="498"/>
+      <c r="B21" s="507"/>
+      <c r="C21" s="510"/>
+      <c r="D21" s="510"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -22380,9 +22380,9 @@
       <c r="AY21" s="170"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="494"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="507"/>
+      <c r="C22" s="510"/>
+      <c r="D22" s="510"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -22434,9 +22434,9 @@
       <c r="AY22" s="164"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="494"/>
-      <c r="C23" s="498"/>
-      <c r="D23" s="500"/>
+      <c r="B23" s="507"/>
+      <c r="C23" s="510"/>
+      <c r="D23" s="518"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -22488,9 +22488,9 @@
       <c r="AY23" s="171"/>
     </row>
     <row r="24" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B24" s="494"/>
-      <c r="C24" s="498"/>
-      <c r="D24" s="501" t="s">
+      <c r="B24" s="507"/>
+      <c r="C24" s="510"/>
+      <c r="D24" s="519" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -22544,9 +22544,9 @@
       <c r="AY24" s="172"/>
     </row>
     <row r="25" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B25" s="494"/>
-      <c r="C25" s="498"/>
-      <c r="D25" s="498"/>
+      <c r="B25" s="507"/>
+      <c r="C25" s="510"/>
+      <c r="D25" s="510"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -22598,9 +22598,9 @@
       <c r="AY25" s="173"/>
     </row>
     <row r="26" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B26" s="494"/>
-      <c r="C26" s="498"/>
-      <c r="D26" s="498"/>
+      <c r="B26" s="507"/>
+      <c r="C26" s="510"/>
+      <c r="D26" s="510"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -22652,9 +22652,9 @@
       <c r="AY26" s="173"/>
     </row>
     <row r="27" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B27" s="494"/>
-      <c r="C27" s="498"/>
-      <c r="D27" s="500"/>
+      <c r="B27" s="507"/>
+      <c r="C27" s="510"/>
+      <c r="D27" s="518"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -22706,9 +22706,9 @@
       <c r="AY27" s="172"/>
     </row>
     <row r="28" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B28" s="494"/>
-      <c r="C28" s="498"/>
-      <c r="D28" s="501" t="s">
+      <c r="B28" s="507"/>
+      <c r="C28" s="510"/>
+      <c r="D28" s="519" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -22762,9 +22762,9 @@
       <c r="AY28" s="172"/>
     </row>
     <row r="29" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B29" s="494"/>
-      <c r="C29" s="498"/>
-      <c r="D29" s="498"/>
+      <c r="B29" s="507"/>
+      <c r="C29" s="510"/>
+      <c r="D29" s="510"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -22816,9 +22816,9 @@
       <c r="AY29" s="172"/>
     </row>
     <row r="30" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B30" s="494"/>
-      <c r="C30" s="498"/>
-      <c r="D30" s="498"/>
+      <c r="B30" s="507"/>
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -22870,9 +22870,9 @@
       <c r="AY30" s="172"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="494"/>
-      <c r="C31" s="498"/>
-      <c r="D31" s="498"/>
+      <c r="B31" s="507"/>
+      <c r="C31" s="510"/>
+      <c r="D31" s="510"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -22924,9 +22924,9 @@
       <c r="AY31" s="174"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="494"/>
-      <c r="C32" s="498"/>
-      <c r="D32" s="498"/>
+      <c r="B32" s="507"/>
+      <c r="C32" s="510"/>
+      <c r="D32" s="510"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -22978,9 +22978,9 @@
       <c r="AY32" s="172"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="494"/>
-      <c r="C33" s="498"/>
-      <c r="D33" s="498"/>
+      <c r="B33" s="507"/>
+      <c r="C33" s="510"/>
+      <c r="D33" s="510"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -23032,9 +23032,9 @@
       <c r="AY33" s="175"/>
     </row>
     <row r="34" spans="2:51" ht="18" customHeight="1">
-      <c r="B34" s="494"/>
-      <c r="C34" s="498"/>
-      <c r="D34" s="501" t="s">
+      <c r="B34" s="507"/>
+      <c r="C34" s="510"/>
+      <c r="D34" s="519" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -23088,9 +23088,9 @@
       <c r="AY34" s="176"/>
     </row>
     <row r="35" spans="2:51" ht="18" customHeight="1">
-      <c r="B35" s="494"/>
-      <c r="C35" s="498"/>
-      <c r="D35" s="498"/>
+      <c r="B35" s="507"/>
+      <c r="C35" s="510"/>
+      <c r="D35" s="510"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -23142,9 +23142,9 @@
       <c r="AY35" s="176"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="494"/>
-      <c r="C36" s="498"/>
-      <c r="D36" s="498"/>
+      <c r="B36" s="507"/>
+      <c r="C36" s="510"/>
+      <c r="D36" s="510"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -23196,9 +23196,9 @@
       <c r="AY36" s="176"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="494"/>
-      <c r="C37" s="498"/>
-      <c r="D37" s="500"/>
+      <c r="B37" s="507"/>
+      <c r="C37" s="510"/>
+      <c r="D37" s="518"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -23250,9 +23250,9 @@
       <c r="AY37" s="86"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="494"/>
-      <c r="C38" s="498"/>
-      <c r="D38" s="503" t="s">
+      <c r="B38" s="507"/>
+      <c r="C38" s="510"/>
+      <c r="D38" s="527" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -23306,9 +23306,9 @@
       <c r="AY38" s="176"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="494"/>
-      <c r="C39" s="498"/>
-      <c r="D39" s="498"/>
+      <c r="B39" s="507"/>
+      <c r="C39" s="510"/>
+      <c r="D39" s="510"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -23360,9 +23360,9 @@
       <c r="AY39" s="176"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="494"/>
-      <c r="C40" s="498"/>
-      <c r="D40" s="498"/>
+      <c r="B40" s="507"/>
+      <c r="C40" s="510"/>
+      <c r="D40" s="510"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -23414,9 +23414,9 @@
       <c r="AY40" s="176"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B41" s="494"/>
-      <c r="C41" s="498"/>
-      <c r="D41" s="498"/>
+      <c r="B41" s="507"/>
+      <c r="C41" s="510"/>
+      <c r="D41" s="510"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -23468,9 +23468,9 @@
       <c r="AY41" s="176"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="494"/>
-      <c r="C42" s="498"/>
-      <c r="D42" s="498"/>
+      <c r="B42" s="507"/>
+      <c r="C42" s="510"/>
+      <c r="D42" s="510"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -23522,9 +23522,9 @@
       <c r="AY42" s="176"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="494"/>
-      <c r="C43" s="498"/>
-      <c r="D43" s="498"/>
+      <c r="B43" s="507"/>
+      <c r="C43" s="510"/>
+      <c r="D43" s="510"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -23576,9 +23576,9 @@
       <c r="AY43" s="176"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="494"/>
-      <c r="C44" s="498"/>
-      <c r="D44" s="498"/>
+      <c r="B44" s="507"/>
+      <c r="C44" s="510"/>
+      <c r="D44" s="510"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -23630,9 +23630,9 @@
       <c r="AY44" s="176"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="494"/>
-      <c r="C45" s="498"/>
-      <c r="D45" s="500"/>
+      <c r="B45" s="507"/>
+      <c r="C45" s="510"/>
+      <c r="D45" s="518"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -23684,9 +23684,9 @@
       <c r="AY45" s="176"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="494"/>
-      <c r="C46" s="498"/>
-      <c r="D46" s="504" t="s">
+      <c r="B46" s="507"/>
+      <c r="C46" s="510"/>
+      <c r="D46" s="528" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -23740,9 +23740,9 @@
       <c r="AY46" s="176"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="494"/>
-      <c r="C47" s="498"/>
-      <c r="D47" s="498"/>
+      <c r="B47" s="507"/>
+      <c r="C47" s="510"/>
+      <c r="D47" s="510"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -23794,9 +23794,9 @@
       <c r="AY47" s="86"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="494"/>
-      <c r="C48" s="498"/>
-      <c r="D48" s="498"/>
+      <c r="B48" s="507"/>
+      <c r="C48" s="510"/>
+      <c r="D48" s="510"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -23848,9 +23848,9 @@
       <c r="AY48" s="86"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="494"/>
-      <c r="C49" s="498"/>
-      <c r="D49" s="500"/>
+      <c r="B49" s="507"/>
+      <c r="C49" s="510"/>
+      <c r="D49" s="518"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -23902,9 +23902,9 @@
       <c r="AY49" s="176"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="494"/>
-      <c r="C50" s="498"/>
-      <c r="D50" s="503" t="s">
+      <c r="B50" s="507"/>
+      <c r="C50" s="510"/>
+      <c r="D50" s="527" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -23958,9 +23958,9 @@
       <c r="AY50" s="86"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B51" s="494"/>
-      <c r="C51" s="498"/>
-      <c r="D51" s="505"/>
+      <c r="B51" s="507"/>
+      <c r="C51" s="510"/>
+      <c r="D51" s="511"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -24012,8 +24012,8 @@
       <c r="AY51" s="119"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="494"/>
-      <c r="C52" s="509" t="s">
+      <c r="B52" s="507"/>
+      <c r="C52" s="516" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -24070,9 +24070,9 @@
       <c r="AY52" s="260"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="494"/>
-      <c r="C53" s="498"/>
-      <c r="D53" s="510" t="s">
+      <c r="B53" s="507"/>
+      <c r="C53" s="510"/>
+      <c r="D53" s="517" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -24126,9 +24126,9 @@
       <c r="AY53" s="86"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="494"/>
-      <c r="C54" s="498"/>
-      <c r="D54" s="498"/>
+      <c r="B54" s="507"/>
+      <c r="C54" s="510"/>
+      <c r="D54" s="510"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -24180,9 +24180,9 @@
       <c r="AY54" s="86"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="494"/>
-      <c r="C55" s="498"/>
-      <c r="D55" s="500"/>
+      <c r="B55" s="507"/>
+      <c r="C55" s="510"/>
+      <c r="D55" s="518"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -24234,9 +24234,9 @@
       <c r="AY55" s="86"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="494"/>
-      <c r="C56" s="498"/>
-      <c r="D56" s="510" t="s">
+      <c r="B56" s="507"/>
+      <c r="C56" s="510"/>
+      <c r="D56" s="517" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -24290,9 +24290,9 @@
       <c r="AY56" s="86"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="494"/>
-      <c r="C57" s="498"/>
-      <c r="D57" s="498"/>
+      <c r="B57" s="507"/>
+      <c r="C57" s="510"/>
+      <c r="D57" s="510"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -24344,9 +24344,9 @@
       <c r="AY57" s="86"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="494"/>
-      <c r="C58" s="498"/>
-      <c r="D58" s="500"/>
+      <c r="B58" s="507"/>
+      <c r="C58" s="510"/>
+      <c r="D58" s="518"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -24398,9 +24398,9 @@
       <c r="AY58" s="86"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="494"/>
-      <c r="C59" s="498"/>
-      <c r="D59" s="510" t="s">
+      <c r="B59" s="507"/>
+      <c r="C59" s="510"/>
+      <c r="D59" s="517" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -24454,9 +24454,9 @@
       <c r="AY59" s="86"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="494"/>
-      <c r="C60" s="498"/>
-      <c r="D60" s="498"/>
+      <c r="B60" s="507"/>
+      <c r="C60" s="510"/>
+      <c r="D60" s="510"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -24508,9 +24508,9 @@
       <c r="AY60" s="86"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="494"/>
-      <c r="C61" s="498"/>
-      <c r="D61" s="500"/>
+      <c r="B61" s="507"/>
+      <c r="C61" s="510"/>
+      <c r="D61" s="518"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -24562,9 +24562,9 @@
       <c r="AY61" s="86"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="494"/>
-      <c r="C62" s="498"/>
-      <c r="D62" s="501" t="s">
+      <c r="B62" s="507"/>
+      <c r="C62" s="510"/>
+      <c r="D62" s="519" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -24618,9 +24618,9 @@
       <c r="AY62" s="86"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="494"/>
-      <c r="C63" s="498"/>
-      <c r="D63" s="498"/>
+      <c r="B63" s="507"/>
+      <c r="C63" s="510"/>
+      <c r="D63" s="510"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -24672,9 +24672,9 @@
       <c r="AY63" s="86"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B64" s="494"/>
-      <c r="C64" s="498"/>
-      <c r="D64" s="500"/>
+      <c r="B64" s="507"/>
+      <c r="C64" s="510"/>
+      <c r="D64" s="518"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -24726,8 +24726,8 @@
       <c r="AY64" s="86"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="494"/>
-      <c r="C65" s="498"/>
+      <c r="B65" s="507"/>
+      <c r="C65" s="510"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -24782,9 +24782,9 @@
       <c r="AY65" s="175"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="494"/>
-      <c r="C66" s="498"/>
-      <c r="D66" s="501" t="s">
+      <c r="B66" s="507"/>
+      <c r="C66" s="510"/>
+      <c r="D66" s="519" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -24838,9 +24838,9 @@
       <c r="AY66" s="86"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="494"/>
-      <c r="C67" s="498"/>
-      <c r="D67" s="500"/>
+      <c r="B67" s="507"/>
+      <c r="C67" s="510"/>
+      <c r="D67" s="518"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -24892,9 +24892,9 @@
       <c r="AY67" s="86"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="494"/>
-      <c r="C68" s="498"/>
-      <c r="D68" s="501" t="s">
+      <c r="B68" s="507"/>
+      <c r="C68" s="510"/>
+      <c r="D68" s="519" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -24948,9 +24948,9 @@
       <c r="AY68" s="86"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B69" s="494"/>
-      <c r="C69" s="498"/>
-      <c r="D69" s="498"/>
+      <c r="B69" s="507"/>
+      <c r="C69" s="510"/>
+      <c r="D69" s="510"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -25002,9 +25002,9 @@
       <c r="AY69" s="86"/>
     </row>
     <row r="70" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B70" s="494"/>
-      <c r="C70" s="498"/>
-      <c r="D70" s="500"/>
+      <c r="B70" s="507"/>
+      <c r="C70" s="510"/>
+      <c r="D70" s="518"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -25056,9 +25056,9 @@
       <c r="AY70" s="86"/>
     </row>
     <row r="71" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B71" s="494"/>
-      <c r="C71" s="498"/>
-      <c r="D71" s="501" t="s">
+      <c r="B71" s="507"/>
+      <c r="C71" s="510"/>
+      <c r="D71" s="519" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -25112,9 +25112,9 @@
       <c r="AY71" s="86"/>
     </row>
     <row r="72" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B72" s="494"/>
-      <c r="C72" s="498"/>
-      <c r="D72" s="498"/>
+      <c r="B72" s="507"/>
+      <c r="C72" s="510"/>
+      <c r="D72" s="510"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -25166,9 +25166,9 @@
       <c r="AY72" s="86"/>
     </row>
     <row r="73" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B73" s="494"/>
-      <c r="C73" s="498"/>
-      <c r="D73" s="500"/>
+      <c r="B73" s="507"/>
+      <c r="C73" s="510"/>
+      <c r="D73" s="518"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -25220,9 +25220,9 @@
       <c r="AY73" s="86"/>
     </row>
     <row r="74" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B74" s="494"/>
-      <c r="C74" s="498"/>
-      <c r="D74" s="502" t="s">
+      <c r="B74" s="507"/>
+      <c r="C74" s="510"/>
+      <c r="D74" s="526" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -25276,9 +25276,9 @@
       <c r="AY74" s="86"/>
     </row>
     <row r="75" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B75" s="494"/>
-      <c r="C75" s="498"/>
-      <c r="D75" s="498"/>
+      <c r="B75" s="507"/>
+      <c r="C75" s="510"/>
+      <c r="D75" s="510"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -25330,9 +25330,9 @@
       <c r="AY75" s="86"/>
     </row>
     <row r="76" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B76" s="494"/>
-      <c r="C76" s="498"/>
-      <c r="D76" s="498"/>
+      <c r="B76" s="507"/>
+      <c r="C76" s="510"/>
+      <c r="D76" s="510"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -25384,9 +25384,9 @@
       <c r="AY76" s="86"/>
     </row>
     <row r="77" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B77" s="494"/>
-      <c r="C77" s="498"/>
-      <c r="D77" s="498"/>
+      <c r="B77" s="507"/>
+      <c r="C77" s="510"/>
+      <c r="D77" s="510"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -25438,12 +25438,12 @@
       <c r="AY77" s="119"/>
     </row>
     <row r="78" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B78" s="496" t="s">
+      <c r="B78" s="512" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="507" t="s">
+      <c r="E78" s="514" t="s">
         <v>117</v>
       </c>
       <c r="F78" s="73" t="s">
@@ -25496,10 +25496,10 @@
       <c r="AY78" s="260"/>
     </row>
     <row r="79" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B79" s="494"/>
+      <c r="B79" s="507"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="508"/>
+      <c r="E79" s="515"/>
       <c r="F79" s="183" t="s">
         <v>4</v>
       </c>
@@ -25550,10 +25550,10 @@
       <c r="AY79" s="86"/>
     </row>
     <row r="80" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B80" s="494"/>
+      <c r="B80" s="507"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="508"/>
+      <c r="E80" s="515"/>
       <c r="F80" s="184" t="s">
         <v>5</v>
       </c>
@@ -25604,10 +25604,10 @@
       <c r="AY80" s="86"/>
     </row>
     <row r="81" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B81" s="494"/>
+      <c r="B81" s="507"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="508"/>
+      <c r="E81" s="515"/>
       <c r="F81" s="185" t="s">
         <v>6</v>
       </c>
@@ -25658,10 +25658,10 @@
       <c r="AY81" s="86"/>
     </row>
     <row r="82" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B82" s="494"/>
+      <c r="B82" s="507"/>
       <c r="C82" s="74"/>
       <c r="D82" s="75"/>
-      <c r="E82" s="508"/>
+      <c r="E82" s="515"/>
       <c r="F82" s="186" t="s">
         <v>7</v>
       </c>
@@ -25712,7 +25712,7 @@
       <c r="AY82" s="86"/>
     </row>
     <row r="83" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B83" s="494"/>
+      <c r="B83" s="507"/>
       <c r="C83" s="74"/>
       <c r="D83" s="75"/>
       <c r="E83" s="19" t="s">
@@ -25766,7 +25766,7 @@
       <c r="AY83" s="86"/>
     </row>
     <row r="84" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B84" s="506"/>
+      <c r="B84" s="513"/>
       <c r="C84" s="188"/>
       <c r="D84" s="189"/>
       <c r="E84" s="190" t="s">
@@ -26760,6 +26760,31 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="B20:B77"/>
+    <mergeCell ref="C20:C51"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D46:D49"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E82"/>
     <mergeCell ref="D50:D51"/>
@@ -26772,31 +26797,6 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D77"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B77"/>
-    <mergeCell ref="C20:C51"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="AO4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26925,145 +26925,145 @@
       <c r="AK3" s="4"/>
     </row>
     <row r="4" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="511" t="s">
+      <c r="B4" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="512" t="s">
+      <c r="C4" s="509" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="512" t="s">
+      <c r="D4" s="509" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="512" t="s">
+      <c r="E4" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="512" t="s">
+      <c r="F4" s="509" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="516" t="s">
+      <c r="G4" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="526"/>
-      <c r="I4" s="528"/>
-      <c r="J4" s="516" t="s">
+      <c r="H4" s="531"/>
+      <c r="I4" s="533"/>
+      <c r="J4" s="494" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="526"/>
-      <c r="L4" s="526"/>
-      <c r="M4" s="526"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
-      <c r="Q4" s="526"/>
-      <c r="R4" s="526"/>
-      <c r="S4" s="526"/>
-      <c r="T4" s="526"/>
-      <c r="U4" s="526"/>
-      <c r="V4" s="526"/>
-      <c r="W4" s="526"/>
-      <c r="X4" s="526"/>
-      <c r="Y4" s="526"/>
-      <c r="Z4" s="527"/>
-      <c r="AA4" s="527"/>
-      <c r="AB4" s="527"/>
-      <c r="AC4" s="527"/>
-      <c r="AD4" s="527"/>
-      <c r="AE4" s="527"/>
-      <c r="AF4" s="527"/>
-      <c r="AG4" s="526"/>
-      <c r="AH4" s="526"/>
-      <c r="AI4" s="526"/>
-      <c r="AJ4" s="526"/>
-      <c r="AK4" s="526"/>
-      <c r="AL4" s="526"/>
-      <c r="AM4" s="526"/>
-      <c r="AN4" s="528"/>
-      <c r="AO4" s="516" t="s">
+      <c r="K4" s="531"/>
+      <c r="L4" s="531"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="531"/>
+      <c r="O4" s="531"/>
+      <c r="P4" s="531"/>
+      <c r="Q4" s="531"/>
+      <c r="R4" s="531"/>
+      <c r="S4" s="531"/>
+      <c r="T4" s="531"/>
+      <c r="U4" s="531"/>
+      <c r="V4" s="531"/>
+      <c r="W4" s="531"/>
+      <c r="X4" s="531"/>
+      <c r="Y4" s="531"/>
+      <c r="Z4" s="532"/>
+      <c r="AA4" s="532"/>
+      <c r="AB4" s="532"/>
+      <c r="AC4" s="532"/>
+      <c r="AD4" s="532"/>
+      <c r="AE4" s="532"/>
+      <c r="AF4" s="532"/>
+      <c r="AG4" s="531"/>
+      <c r="AH4" s="531"/>
+      <c r="AI4" s="531"/>
+      <c r="AJ4" s="531"/>
+      <c r="AK4" s="531"/>
+      <c r="AL4" s="531"/>
+      <c r="AM4" s="531"/>
+      <c r="AN4" s="533"/>
+      <c r="AO4" s="494" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="526"/>
-      <c r="AQ4" s="526"/>
-      <c r="AR4" s="526"/>
-      <c r="AS4" s="526"/>
-      <c r="AT4" s="526"/>
-      <c r="AU4" s="526"/>
-      <c r="AV4" s="526"/>
-      <c r="AW4" s="526"/>
-      <c r="AX4" s="526"/>
-      <c r="AY4" s="529"/>
+      <c r="AP4" s="531"/>
+      <c r="AQ4" s="531"/>
+      <c r="AR4" s="531"/>
+      <c r="AS4" s="531"/>
+      <c r="AT4" s="531"/>
+      <c r="AU4" s="531"/>
+      <c r="AV4" s="531"/>
+      <c r="AW4" s="531"/>
+      <c r="AX4" s="531"/>
+      <c r="AY4" s="534"/>
     </row>
     <row r="5" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="494"/>
-      <c r="C5" s="498"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="498"/>
-      <c r="F5" s="498"/>
-      <c r="G5" s="525" t="s">
+      <c r="B5" s="507"/>
+      <c r="C5" s="510"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="503" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="521"/>
-      <c r="I5" s="521"/>
-      <c r="J5" s="521"/>
-      <c r="K5" s="522"/>
-      <c r="L5" s="520" t="s">
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="499"/>
+      <c r="K5" s="500"/>
+      <c r="L5" s="498" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="521"/>
-      <c r="N5" s="521"/>
-      <c r="O5" s="521"/>
-      <c r="P5" s="521"/>
-      <c r="Q5" s="521"/>
-      <c r="R5" s="522"/>
-      <c r="S5" s="520" t="s">
+      <c r="M5" s="499"/>
+      <c r="N5" s="499"/>
+      <c r="O5" s="499"/>
+      <c r="P5" s="499"/>
+      <c r="Q5" s="499"/>
+      <c r="R5" s="500"/>
+      <c r="S5" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="521"/>
-      <c r="U5" s="521"/>
-      <c r="V5" s="521"/>
-      <c r="W5" s="521"/>
-      <c r="X5" s="521"/>
-      <c r="Y5" s="521"/>
-      <c r="Z5" s="530" t="s">
+      <c r="T5" s="499"/>
+      <c r="U5" s="499"/>
+      <c r="V5" s="499"/>
+      <c r="W5" s="499"/>
+      <c r="X5" s="499"/>
+      <c r="Y5" s="499"/>
+      <c r="Z5" s="535" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="526"/>
-      <c r="AB5" s="526"/>
-      <c r="AC5" s="526"/>
-      <c r="AD5" s="526"/>
-      <c r="AE5" s="526"/>
-      <c r="AF5" s="529"/>
-      <c r="AG5" s="525" t="s">
+      <c r="AA5" s="531"/>
+      <c r="AB5" s="531"/>
+      <c r="AC5" s="531"/>
+      <c r="AD5" s="531"/>
+      <c r="AE5" s="531"/>
+      <c r="AF5" s="534"/>
+      <c r="AG5" s="503" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="521"/>
-      <c r="AI5" s="521"/>
-      <c r="AJ5" s="521"/>
-      <c r="AK5" s="521"/>
-      <c r="AL5" s="521"/>
-      <c r="AM5" s="522"/>
-      <c r="AN5" s="520" t="s">
+      <c r="AH5" s="499"/>
+      <c r="AI5" s="499"/>
+      <c r="AJ5" s="499"/>
+      <c r="AK5" s="499"/>
+      <c r="AL5" s="499"/>
+      <c r="AM5" s="500"/>
+      <c r="AN5" s="498" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="521"/>
-      <c r="AP5" s="521"/>
-      <c r="AQ5" s="521"/>
-      <c r="AR5" s="521"/>
-      <c r="AS5" s="521"/>
-      <c r="AT5" s="522"/>
-      <c r="AU5" s="520" t="s">
+      <c r="AO5" s="499"/>
+      <c r="AP5" s="499"/>
+      <c r="AQ5" s="499"/>
+      <c r="AR5" s="499"/>
+      <c r="AS5" s="499"/>
+      <c r="AT5" s="500"/>
+      <c r="AU5" s="498" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="521"/>
-      <c r="AW5" s="521"/>
-      <c r="AX5" s="521"/>
-      <c r="AY5" s="524"/>
+      <c r="AV5" s="499"/>
+      <c r="AW5" s="499"/>
+      <c r="AX5" s="499"/>
+      <c r="AY5" s="502"/>
     </row>
     <row r="6" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="495"/>
-      <c r="C6" s="505"/>
-      <c r="D6" s="505"/>
-      <c r="E6" s="505"/>
-      <c r="F6" s="505"/>
+      <c r="B6" s="508"/>
+      <c r="C6" s="511"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="511"/>
+      <c r="F6" s="511"/>
       <c r="G6" s="13">
         <v>28</v>
       </c>
@@ -27201,13 +27201,13 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="490" t="s">
+      <c r="B7" s="520" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="492"/>
+      <c r="C7" s="521"/>
+      <c r="D7" s="521"/>
+      <c r="E7" s="521"/>
+      <c r="F7" s="522"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -27345,7 +27345,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B8" s="493" t="s">
+      <c r="B8" s="523" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -27401,7 +27401,7 @@
       <c r="AY8" s="266"/>
     </row>
     <row r="9" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B9" s="494"/>
+      <c r="B9" s="507"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -27455,7 +27455,7 @@
       <c r="AY9" s="163"/>
     </row>
     <row r="10" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B10" s="494"/>
+      <c r="B10" s="507"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -27509,7 +27509,7 @@
       <c r="AY10" s="163"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B11" s="494"/>
+      <c r="B11" s="507"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -27563,7 +27563,7 @@
       <c r="AY11" s="163"/>
     </row>
     <row r="12" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B12" s="494"/>
+      <c r="B12" s="507"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -27617,7 +27617,7 @@
       <c r="AY12" s="163"/>
     </row>
     <row r="13" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B13" s="494"/>
+      <c r="B13" s="507"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -27671,7 +27671,7 @@
       <c r="AY13" s="163"/>
     </row>
     <row r="14" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B14" s="494"/>
+      <c r="B14" s="507"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -27725,7 +27725,7 @@
       <c r="AY14" s="163"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B15" s="494"/>
+      <c r="B15" s="507"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -27779,7 +27779,7 @@
       <c r="AY15" s="164"/>
     </row>
     <row r="16" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B16" s="494"/>
+      <c r="B16" s="507"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -27833,7 +27833,7 @@
       <c r="AY16" s="164"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="494"/>
+      <c r="B17" s="507"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -27887,7 +27887,7 @@
       <c r="AY17" s="164"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="494"/>
+      <c r="B18" s="507"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -27941,7 +27941,7 @@
       <c r="AY18" s="164"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="495"/>
+      <c r="B19" s="508"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -27995,13 +27995,13 @@
       <c r="AY19" s="165"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="496" t="s">
+      <c r="B20" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="497" t="s">
+      <c r="C20" s="524" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="499" t="s">
+      <c r="D20" s="525" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -28055,9 +28055,9 @@
       <c r="AY20" s="169"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="494"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="498"/>
+      <c r="B21" s="507"/>
+      <c r="C21" s="510"/>
+      <c r="D21" s="510"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -28109,9 +28109,9 @@
       <c r="AY21" s="170"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="494"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="507"/>
+      <c r="C22" s="510"/>
+      <c r="D22" s="510"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -28163,9 +28163,9 @@
       <c r="AY22" s="164"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="494"/>
-      <c r="C23" s="498"/>
-      <c r="D23" s="500"/>
+      <c r="B23" s="507"/>
+      <c r="C23" s="510"/>
+      <c r="D23" s="518"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -28217,9 +28217,9 @@
       <c r="AY23" s="171"/>
     </row>
     <row r="24" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B24" s="494"/>
-      <c r="C24" s="498"/>
-      <c r="D24" s="501" t="s">
+      <c r="B24" s="507"/>
+      <c r="C24" s="510"/>
+      <c r="D24" s="519" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -28273,9 +28273,9 @@
       <c r="AY24" s="172"/>
     </row>
     <row r="25" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B25" s="494"/>
-      <c r="C25" s="498"/>
-      <c r="D25" s="498"/>
+      <c r="B25" s="507"/>
+      <c r="C25" s="510"/>
+      <c r="D25" s="510"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -28327,9 +28327,9 @@
       <c r="AY25" s="173"/>
     </row>
     <row r="26" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B26" s="494"/>
-      <c r="C26" s="498"/>
-      <c r="D26" s="498"/>
+      <c r="B26" s="507"/>
+      <c r="C26" s="510"/>
+      <c r="D26" s="510"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -28381,9 +28381,9 @@
       <c r="AY26" s="173"/>
     </row>
     <row r="27" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B27" s="494"/>
-      <c r="C27" s="498"/>
-      <c r="D27" s="500"/>
+      <c r="B27" s="507"/>
+      <c r="C27" s="510"/>
+      <c r="D27" s="518"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -28435,9 +28435,9 @@
       <c r="AY27" s="172"/>
     </row>
     <row r="28" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B28" s="494"/>
-      <c r="C28" s="498"/>
-      <c r="D28" s="501" t="s">
+      <c r="B28" s="507"/>
+      <c r="C28" s="510"/>
+      <c r="D28" s="519" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -28491,9 +28491,9 @@
       <c r="AY28" s="172"/>
     </row>
     <row r="29" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B29" s="494"/>
-      <c r="C29" s="498"/>
-      <c r="D29" s="498"/>
+      <c r="B29" s="507"/>
+      <c r="C29" s="510"/>
+      <c r="D29" s="510"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -28545,9 +28545,9 @@
       <c r="AY29" s="172"/>
     </row>
     <row r="30" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B30" s="494"/>
-      <c r="C30" s="498"/>
-      <c r="D30" s="498"/>
+      <c r="B30" s="507"/>
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -28599,9 +28599,9 @@
       <c r="AY30" s="172"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="494"/>
-      <c r="C31" s="498"/>
-      <c r="D31" s="498"/>
+      <c r="B31" s="507"/>
+      <c r="C31" s="510"/>
+      <c r="D31" s="510"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -28653,9 +28653,9 @@
       <c r="AY31" s="174"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="494"/>
-      <c r="C32" s="498"/>
-      <c r="D32" s="498"/>
+      <c r="B32" s="507"/>
+      <c r="C32" s="510"/>
+      <c r="D32" s="510"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -28707,9 +28707,9 @@
       <c r="AY32" s="172"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="494"/>
-      <c r="C33" s="498"/>
-      <c r="D33" s="498"/>
+      <c r="B33" s="507"/>
+      <c r="C33" s="510"/>
+      <c r="D33" s="510"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -28761,9 +28761,9 @@
       <c r="AY33" s="175"/>
     </row>
     <row r="34" spans="2:51" ht="18" customHeight="1">
-      <c r="B34" s="494"/>
-      <c r="C34" s="498"/>
-      <c r="D34" s="501" t="s">
+      <c r="B34" s="507"/>
+      <c r="C34" s="510"/>
+      <c r="D34" s="519" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -28817,9 +28817,9 @@
       <c r="AY34" s="176"/>
     </row>
     <row r="35" spans="2:51" ht="18" customHeight="1">
-      <c r="B35" s="494"/>
-      <c r="C35" s="498"/>
-      <c r="D35" s="498"/>
+      <c r="B35" s="507"/>
+      <c r="C35" s="510"/>
+      <c r="D35" s="510"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -28871,9 +28871,9 @@
       <c r="AY35" s="176"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="494"/>
-      <c r="C36" s="498"/>
-      <c r="D36" s="498"/>
+      <c r="B36" s="507"/>
+      <c r="C36" s="510"/>
+      <c r="D36" s="510"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -28925,9 +28925,9 @@
       <c r="AY36" s="176"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="494"/>
-      <c r="C37" s="498"/>
-      <c r="D37" s="500"/>
+      <c r="B37" s="507"/>
+      <c r="C37" s="510"/>
+      <c r="D37" s="518"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -28979,9 +28979,9 @@
       <c r="AY37" s="86"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="494"/>
-      <c r="C38" s="498"/>
-      <c r="D38" s="503" t="s">
+      <c r="B38" s="507"/>
+      <c r="C38" s="510"/>
+      <c r="D38" s="527" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -29035,9 +29035,9 @@
       <c r="AY38" s="176"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="494"/>
-      <c r="C39" s="498"/>
-      <c r="D39" s="498"/>
+      <c r="B39" s="507"/>
+      <c r="C39" s="510"/>
+      <c r="D39" s="510"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -29089,9 +29089,9 @@
       <c r="AY39" s="176"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="494"/>
-      <c r="C40" s="498"/>
-      <c r="D40" s="498"/>
+      <c r="B40" s="507"/>
+      <c r="C40" s="510"/>
+      <c r="D40" s="510"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -29143,9 +29143,9 @@
       <c r="AY40" s="176"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B41" s="494"/>
-      <c r="C41" s="498"/>
-      <c r="D41" s="498"/>
+      <c r="B41" s="507"/>
+      <c r="C41" s="510"/>
+      <c r="D41" s="510"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -29197,9 +29197,9 @@
       <c r="AY41" s="176"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="494"/>
-      <c r="C42" s="498"/>
-      <c r="D42" s="498"/>
+      <c r="B42" s="507"/>
+      <c r="C42" s="510"/>
+      <c r="D42" s="510"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -29251,9 +29251,9 @@
       <c r="AY42" s="176"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="494"/>
-      <c r="C43" s="498"/>
-      <c r="D43" s="498"/>
+      <c r="B43" s="507"/>
+      <c r="C43" s="510"/>
+      <c r="D43" s="510"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -29305,9 +29305,9 @@
       <c r="AY43" s="176"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="494"/>
-      <c r="C44" s="498"/>
-      <c r="D44" s="498"/>
+      <c r="B44" s="507"/>
+      <c r="C44" s="510"/>
+      <c r="D44" s="510"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -29359,9 +29359,9 @@
       <c r="AY44" s="176"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="494"/>
-      <c r="C45" s="498"/>
-      <c r="D45" s="500"/>
+      <c r="B45" s="507"/>
+      <c r="C45" s="510"/>
+      <c r="D45" s="518"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -29413,9 +29413,9 @@
       <c r="AY45" s="176"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="494"/>
-      <c r="C46" s="498"/>
-      <c r="D46" s="504" t="s">
+      <c r="B46" s="507"/>
+      <c r="C46" s="510"/>
+      <c r="D46" s="528" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -29469,9 +29469,9 @@
       <c r="AY46" s="176"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="494"/>
-      <c r="C47" s="498"/>
-      <c r="D47" s="498"/>
+      <c r="B47" s="507"/>
+      <c r="C47" s="510"/>
+      <c r="D47" s="510"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -29523,9 +29523,9 @@
       <c r="AY47" s="86"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="494"/>
-      <c r="C48" s="498"/>
-      <c r="D48" s="498"/>
+      <c r="B48" s="507"/>
+      <c r="C48" s="510"/>
+      <c r="D48" s="510"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -29577,9 +29577,9 @@
       <c r="AY48" s="86"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="494"/>
-      <c r="C49" s="498"/>
-      <c r="D49" s="500"/>
+      <c r="B49" s="507"/>
+      <c r="C49" s="510"/>
+      <c r="D49" s="518"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -29631,9 +29631,9 @@
       <c r="AY49" s="176"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="494"/>
-      <c r="C50" s="498"/>
-      <c r="D50" s="503" t="s">
+      <c r="B50" s="507"/>
+      <c r="C50" s="510"/>
+      <c r="D50" s="527" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -29687,9 +29687,9 @@
       <c r="AY50" s="86"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B51" s="494"/>
-      <c r="C51" s="498"/>
-      <c r="D51" s="505"/>
+      <c r="B51" s="507"/>
+      <c r="C51" s="510"/>
+      <c r="D51" s="511"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -29741,8 +29741,8 @@
       <c r="AY51" s="119"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="494"/>
-      <c r="C52" s="509" t="s">
+      <c r="B52" s="507"/>
+      <c r="C52" s="516" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -29799,9 +29799,9 @@
       <c r="AY52" s="260"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="494"/>
-      <c r="C53" s="498"/>
-      <c r="D53" s="510" t="s">
+      <c r="B53" s="507"/>
+      <c r="C53" s="510"/>
+      <c r="D53" s="517" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -29855,9 +29855,9 @@
       <c r="AY53" s="86"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="494"/>
-      <c r="C54" s="498"/>
-      <c r="D54" s="498"/>
+      <c r="B54" s="507"/>
+      <c r="C54" s="510"/>
+      <c r="D54" s="510"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -29909,9 +29909,9 @@
       <c r="AY54" s="86"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="494"/>
-      <c r="C55" s="498"/>
-      <c r="D55" s="500"/>
+      <c r="B55" s="507"/>
+      <c r="C55" s="510"/>
+      <c r="D55" s="518"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -29963,9 +29963,9 @@
       <c r="AY55" s="86"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="494"/>
-      <c r="C56" s="498"/>
-      <c r="D56" s="510" t="s">
+      <c r="B56" s="507"/>
+      <c r="C56" s="510"/>
+      <c r="D56" s="517" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -30019,9 +30019,9 @@
       <c r="AY56" s="86"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="494"/>
-      <c r="C57" s="498"/>
-      <c r="D57" s="498"/>
+      <c r="B57" s="507"/>
+      <c r="C57" s="510"/>
+      <c r="D57" s="510"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -30073,9 +30073,9 @@
       <c r="AY57" s="86"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="494"/>
-      <c r="C58" s="498"/>
-      <c r="D58" s="500"/>
+      <c r="B58" s="507"/>
+      <c r="C58" s="510"/>
+      <c r="D58" s="518"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -30127,9 +30127,9 @@
       <c r="AY58" s="86"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="494"/>
-      <c r="C59" s="498"/>
-      <c r="D59" s="510" t="s">
+      <c r="B59" s="507"/>
+      <c r="C59" s="510"/>
+      <c r="D59" s="517" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -30183,9 +30183,9 @@
       <c r="AY59" s="86"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="494"/>
-      <c r="C60" s="498"/>
-      <c r="D60" s="498"/>
+      <c r="B60" s="507"/>
+      <c r="C60" s="510"/>
+      <c r="D60" s="510"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -30237,9 +30237,9 @@
       <c r="AY60" s="86"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="494"/>
-      <c r="C61" s="498"/>
-      <c r="D61" s="500"/>
+      <c r="B61" s="507"/>
+      <c r="C61" s="510"/>
+      <c r="D61" s="518"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -30291,9 +30291,9 @@
       <c r="AY61" s="86"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="494"/>
-      <c r="C62" s="498"/>
-      <c r="D62" s="501" t="s">
+      <c r="B62" s="507"/>
+      <c r="C62" s="510"/>
+      <c r="D62" s="519" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -30347,9 +30347,9 @@
       <c r="AY62" s="86"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="494"/>
-      <c r="C63" s="498"/>
-      <c r="D63" s="498"/>
+      <c r="B63" s="507"/>
+      <c r="C63" s="510"/>
+      <c r="D63" s="510"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -30401,9 +30401,9 @@
       <c r="AY63" s="86"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B64" s="494"/>
-      <c r="C64" s="498"/>
-      <c r="D64" s="500"/>
+      <c r="B64" s="507"/>
+      <c r="C64" s="510"/>
+      <c r="D64" s="518"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -30455,8 +30455,8 @@
       <c r="AY64" s="86"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="494"/>
-      <c r="C65" s="498"/>
+      <c r="B65" s="507"/>
+      <c r="C65" s="510"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -30511,9 +30511,9 @@
       <c r="AY65" s="175"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="494"/>
-      <c r="C66" s="498"/>
-      <c r="D66" s="501" t="s">
+      <c r="B66" s="507"/>
+      <c r="C66" s="510"/>
+      <c r="D66" s="519" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -30567,9 +30567,9 @@
       <c r="AY66" s="86"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="494"/>
-      <c r="C67" s="498"/>
-      <c r="D67" s="500"/>
+      <c r="B67" s="507"/>
+      <c r="C67" s="510"/>
+      <c r="D67" s="518"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -30621,9 +30621,9 @@
       <c r="AY67" s="86"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="494"/>
-      <c r="C68" s="498"/>
-      <c r="D68" s="501" t="s">
+      <c r="B68" s="507"/>
+      <c r="C68" s="510"/>
+      <c r="D68" s="519" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -30677,9 +30677,9 @@
       <c r="AY68" s="86"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B69" s="494"/>
-      <c r="C69" s="498"/>
-      <c r="D69" s="498"/>
+      <c r="B69" s="507"/>
+      <c r="C69" s="510"/>
+      <c r="D69" s="510"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -30731,9 +30731,9 @@
       <c r="AY69" s="86"/>
     </row>
     <row r="70" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B70" s="494"/>
-      <c r="C70" s="498"/>
-      <c r="D70" s="500"/>
+      <c r="B70" s="507"/>
+      <c r="C70" s="510"/>
+      <c r="D70" s="518"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -30785,9 +30785,9 @@
       <c r="AY70" s="86"/>
     </row>
     <row r="71" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B71" s="494"/>
-      <c r="C71" s="498"/>
-      <c r="D71" s="501" t="s">
+      <c r="B71" s="507"/>
+      <c r="C71" s="510"/>
+      <c r="D71" s="519" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -30841,9 +30841,9 @@
       <c r="AY71" s="86"/>
     </row>
     <row r="72" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B72" s="494"/>
-      <c r="C72" s="498"/>
-      <c r="D72" s="498"/>
+      <c r="B72" s="507"/>
+      <c r="C72" s="510"/>
+      <c r="D72" s="510"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -30895,9 +30895,9 @@
       <c r="AY72" s="86"/>
     </row>
     <row r="73" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B73" s="494"/>
-      <c r="C73" s="498"/>
-      <c r="D73" s="500"/>
+      <c r="B73" s="507"/>
+      <c r="C73" s="510"/>
+      <c r="D73" s="518"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -30949,9 +30949,9 @@
       <c r="AY73" s="86"/>
     </row>
     <row r="74" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B74" s="494"/>
-      <c r="C74" s="498"/>
-      <c r="D74" s="502" t="s">
+      <c r="B74" s="507"/>
+      <c r="C74" s="510"/>
+      <c r="D74" s="526" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -31005,9 +31005,9 @@
       <c r="AY74" s="86"/>
     </row>
     <row r="75" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B75" s="494"/>
-      <c r="C75" s="498"/>
-      <c r="D75" s="498"/>
+      <c r="B75" s="507"/>
+      <c r="C75" s="510"/>
+      <c r="D75" s="510"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -31059,9 +31059,9 @@
       <c r="AY75" s="86"/>
     </row>
     <row r="76" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B76" s="494"/>
-      <c r="C76" s="498"/>
-      <c r="D76" s="498"/>
+      <c r="B76" s="507"/>
+      <c r="C76" s="510"/>
+      <c r="D76" s="510"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -31113,9 +31113,9 @@
       <c r="AY76" s="86"/>
     </row>
     <row r="77" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B77" s="494"/>
-      <c r="C77" s="498"/>
-      <c r="D77" s="498"/>
+      <c r="B77" s="507"/>
+      <c r="C77" s="510"/>
+      <c r="D77" s="510"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -31167,12 +31167,12 @@
       <c r="AY77" s="119"/>
     </row>
     <row r="78" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B78" s="496" t="s">
+      <c r="B78" s="512" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="507" t="s">
+      <c r="E78" s="514" t="s">
         <v>117</v>
       </c>
       <c r="F78" s="73" t="s">
@@ -31225,10 +31225,10 @@
       <c r="AY78" s="260"/>
     </row>
     <row r="79" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B79" s="494"/>
+      <c r="B79" s="507"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="508"/>
+      <c r="E79" s="515"/>
       <c r="F79" s="183" t="s">
         <v>4</v>
       </c>
@@ -31279,10 +31279,10 @@
       <c r="AY79" s="86"/>
     </row>
     <row r="80" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B80" s="494"/>
+      <c r="B80" s="507"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="508"/>
+      <c r="E80" s="515"/>
       <c r="F80" s="184" t="s">
         <v>5</v>
       </c>
@@ -31333,10 +31333,10 @@
       <c r="AY80" s="86"/>
     </row>
     <row r="81" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B81" s="494"/>
+      <c r="B81" s="507"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="508"/>
+      <c r="E81" s="515"/>
       <c r="F81" s="185" t="s">
         <v>6</v>
       </c>
@@ -31387,10 +31387,10 @@
       <c r="AY81" s="86"/>
     </row>
     <row r="82" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B82" s="494"/>
+      <c r="B82" s="507"/>
       <c r="C82" s="74"/>
       <c r="D82" s="75"/>
-      <c r="E82" s="508"/>
+      <c r="E82" s="515"/>
       <c r="F82" s="186" t="s">
         <v>7</v>
       </c>
@@ -31441,7 +31441,7 @@
       <c r="AY82" s="86"/>
     </row>
     <row r="83" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B83" s="494"/>
+      <c r="B83" s="507"/>
       <c r="C83" s="74"/>
       <c r="D83" s="75"/>
       <c r="E83" s="19" t="s">
@@ -31495,7 +31495,7 @@
       <c r="AY83" s="86"/>
     </row>
     <row r="84" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B84" s="506"/>
+      <c r="B84" s="513"/>
       <c r="C84" s="188"/>
       <c r="D84" s="189"/>
       <c r="E84" s="190" t="s">
@@ -32489,6 +32489,31 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="B20:B77"/>
+    <mergeCell ref="C20:C51"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D46:D49"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E82"/>
     <mergeCell ref="D50:D51"/>
@@ -32501,31 +32526,6 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D77"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B77"/>
-    <mergeCell ref="C20:C51"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="AO4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32654,145 +32654,145 @@
       <c r="AK3" s="4"/>
     </row>
     <row r="4" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="511" t="s">
+      <c r="B4" s="506" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="512" t="s">
+      <c r="C4" s="509" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="512" t="s">
+      <c r="D4" s="509" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="512" t="s">
+      <c r="E4" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="512" t="s">
+      <c r="F4" s="509" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="516" t="s">
+      <c r="G4" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="526"/>
-      <c r="I4" s="528"/>
-      <c r="J4" s="516" t="s">
+      <c r="H4" s="531"/>
+      <c r="I4" s="533"/>
+      <c r="J4" s="494" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="526"/>
-      <c r="L4" s="526"/>
-      <c r="M4" s="526"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
-      <c r="Q4" s="526"/>
-      <c r="R4" s="526"/>
-      <c r="S4" s="526"/>
-      <c r="T4" s="526"/>
-      <c r="U4" s="526"/>
-      <c r="V4" s="526"/>
-      <c r="W4" s="526"/>
-      <c r="X4" s="526"/>
-      <c r="Y4" s="526"/>
-      <c r="Z4" s="527"/>
-      <c r="AA4" s="527"/>
-      <c r="AB4" s="527"/>
-      <c r="AC4" s="527"/>
-      <c r="AD4" s="527"/>
-      <c r="AE4" s="527"/>
-      <c r="AF4" s="527"/>
-      <c r="AG4" s="526"/>
-      <c r="AH4" s="526"/>
-      <c r="AI4" s="526"/>
-      <c r="AJ4" s="526"/>
-      <c r="AK4" s="526"/>
-      <c r="AL4" s="526"/>
-      <c r="AM4" s="526"/>
-      <c r="AN4" s="528"/>
-      <c r="AO4" s="516" t="s">
+      <c r="K4" s="531"/>
+      <c r="L4" s="531"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="531"/>
+      <c r="O4" s="531"/>
+      <c r="P4" s="531"/>
+      <c r="Q4" s="531"/>
+      <c r="R4" s="531"/>
+      <c r="S4" s="531"/>
+      <c r="T4" s="531"/>
+      <c r="U4" s="531"/>
+      <c r="V4" s="531"/>
+      <c r="W4" s="531"/>
+      <c r="X4" s="531"/>
+      <c r="Y4" s="531"/>
+      <c r="Z4" s="532"/>
+      <c r="AA4" s="532"/>
+      <c r="AB4" s="532"/>
+      <c r="AC4" s="532"/>
+      <c r="AD4" s="532"/>
+      <c r="AE4" s="532"/>
+      <c r="AF4" s="532"/>
+      <c r="AG4" s="531"/>
+      <c r="AH4" s="531"/>
+      <c r="AI4" s="531"/>
+      <c r="AJ4" s="531"/>
+      <c r="AK4" s="531"/>
+      <c r="AL4" s="531"/>
+      <c r="AM4" s="531"/>
+      <c r="AN4" s="533"/>
+      <c r="AO4" s="494" t="s">
         <v>15</v>
       </c>
-      <c r="AP4" s="526"/>
-      <c r="AQ4" s="526"/>
-      <c r="AR4" s="526"/>
-      <c r="AS4" s="526"/>
-      <c r="AT4" s="526"/>
-      <c r="AU4" s="526"/>
-      <c r="AV4" s="526"/>
-      <c r="AW4" s="526"/>
-      <c r="AX4" s="526"/>
-      <c r="AY4" s="529"/>
+      <c r="AP4" s="531"/>
+      <c r="AQ4" s="531"/>
+      <c r="AR4" s="531"/>
+      <c r="AS4" s="531"/>
+      <c r="AT4" s="531"/>
+      <c r="AU4" s="531"/>
+      <c r="AV4" s="531"/>
+      <c r="AW4" s="531"/>
+      <c r="AX4" s="531"/>
+      <c r="AY4" s="534"/>
     </row>
     <row r="5" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="494"/>
-      <c r="C5" s="498"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="498"/>
-      <c r="F5" s="498"/>
-      <c r="G5" s="525" t="s">
+      <c r="B5" s="507"/>
+      <c r="C5" s="510"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="503" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="521"/>
-      <c r="I5" s="521"/>
-      <c r="J5" s="521"/>
-      <c r="K5" s="522"/>
-      <c r="L5" s="520" t="s">
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="499"/>
+      <c r="K5" s="500"/>
+      <c r="L5" s="498" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="521"/>
-      <c r="N5" s="521"/>
-      <c r="O5" s="521"/>
-      <c r="P5" s="521"/>
-      <c r="Q5" s="521"/>
-      <c r="R5" s="522"/>
-      <c r="S5" s="520" t="s">
+      <c r="M5" s="499"/>
+      <c r="N5" s="499"/>
+      <c r="O5" s="499"/>
+      <c r="P5" s="499"/>
+      <c r="Q5" s="499"/>
+      <c r="R5" s="500"/>
+      <c r="S5" s="498" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="521"/>
-      <c r="U5" s="521"/>
-      <c r="V5" s="521"/>
-      <c r="W5" s="521"/>
-      <c r="X5" s="521"/>
-      <c r="Y5" s="521"/>
-      <c r="Z5" s="530" t="s">
+      <c r="T5" s="499"/>
+      <c r="U5" s="499"/>
+      <c r="V5" s="499"/>
+      <c r="W5" s="499"/>
+      <c r="X5" s="499"/>
+      <c r="Y5" s="499"/>
+      <c r="Z5" s="535" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="526"/>
-      <c r="AB5" s="526"/>
-      <c r="AC5" s="526"/>
-      <c r="AD5" s="526"/>
-      <c r="AE5" s="526"/>
-      <c r="AF5" s="529"/>
-      <c r="AG5" s="525" t="s">
+      <c r="AA5" s="531"/>
+      <c r="AB5" s="531"/>
+      <c r="AC5" s="531"/>
+      <c r="AD5" s="531"/>
+      <c r="AE5" s="531"/>
+      <c r="AF5" s="534"/>
+      <c r="AG5" s="503" t="s">
         <v>20</v>
       </c>
-      <c r="AH5" s="521"/>
-      <c r="AI5" s="521"/>
-      <c r="AJ5" s="521"/>
-      <c r="AK5" s="521"/>
-      <c r="AL5" s="521"/>
-      <c r="AM5" s="522"/>
-      <c r="AN5" s="520" t="s">
+      <c r="AH5" s="499"/>
+      <c r="AI5" s="499"/>
+      <c r="AJ5" s="499"/>
+      <c r="AK5" s="499"/>
+      <c r="AL5" s="499"/>
+      <c r="AM5" s="500"/>
+      <c r="AN5" s="498" t="s">
         <v>21</v>
       </c>
-      <c r="AO5" s="521"/>
-      <c r="AP5" s="521"/>
-      <c r="AQ5" s="521"/>
-      <c r="AR5" s="521"/>
-      <c r="AS5" s="521"/>
-      <c r="AT5" s="522"/>
-      <c r="AU5" s="520" t="s">
+      <c r="AO5" s="499"/>
+      <c r="AP5" s="499"/>
+      <c r="AQ5" s="499"/>
+      <c r="AR5" s="499"/>
+      <c r="AS5" s="499"/>
+      <c r="AT5" s="500"/>
+      <c r="AU5" s="498" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="521"/>
-      <c r="AW5" s="521"/>
-      <c r="AX5" s="521"/>
-      <c r="AY5" s="524"/>
+      <c r="AV5" s="499"/>
+      <c r="AW5" s="499"/>
+      <c r="AX5" s="499"/>
+      <c r="AY5" s="502"/>
     </row>
     <row r="6" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="495"/>
-      <c r="C6" s="505"/>
-      <c r="D6" s="505"/>
-      <c r="E6" s="505"/>
-      <c r="F6" s="505"/>
+      <c r="B6" s="508"/>
+      <c r="C6" s="511"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="511"/>
+      <c r="F6" s="511"/>
       <c r="G6" s="13">
         <v>28</v>
       </c>
@@ -32930,13 +32930,13 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="490" t="s">
+      <c r="B7" s="520" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="492"/>
+      <c r="C7" s="521"/>
+      <c r="D7" s="521"/>
+      <c r="E7" s="521"/>
+      <c r="F7" s="522"/>
       <c r="G7" s="249" t="s">
         <v>24</v>
       </c>
@@ -33074,7 +33074,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B8" s="493" t="s">
+      <c r="B8" s="523" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="16"/>
@@ -33130,7 +33130,7 @@
       <c r="AY8" s="266"/>
     </row>
     <row r="9" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B9" s="494"/>
+      <c r="B9" s="507"/>
       <c r="C9" s="160"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -33184,7 +33184,7 @@
       <c r="AY9" s="163"/>
     </row>
     <row r="10" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B10" s="494"/>
+      <c r="B10" s="507"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="19" t="s">
@@ -33238,7 +33238,7 @@
       <c r="AY10" s="163"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B11" s="494"/>
+      <c r="B11" s="507"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161"/>
       <c r="E11" s="19" t="s">
@@ -33292,7 +33292,7 @@
       <c r="AY11" s="163"/>
     </row>
     <row r="12" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B12" s="494"/>
+      <c r="B12" s="507"/>
       <c r="C12" s="160"/>
       <c r="D12" s="161"/>
       <c r="E12" s="19" t="s">
@@ -33346,7 +33346,7 @@
       <c r="AY12" s="163"/>
     </row>
     <row r="13" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B13" s="494"/>
+      <c r="B13" s="507"/>
       <c r="C13" s="160"/>
       <c r="D13" s="161"/>
       <c r="E13" s="19" t="s">
@@ -33400,7 +33400,7 @@
       <c r="AY13" s="163"/>
     </row>
     <row r="14" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B14" s="494"/>
+      <c r="B14" s="507"/>
       <c r="C14" s="160"/>
       <c r="D14" s="161"/>
       <c r="E14" s="19" t="s">
@@ -33454,7 +33454,7 @@
       <c r="AY14" s="163"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B15" s="494"/>
+      <c r="B15" s="507"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161"/>
       <c r="E15" s="19" t="s">
@@ -33508,7 +33508,7 @@
       <c r="AY15" s="164"/>
     </row>
     <row r="16" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B16" s="494"/>
+      <c r="B16" s="507"/>
       <c r="C16" s="160"/>
       <c r="D16" s="161"/>
       <c r="E16" s="19" t="s">
@@ -33562,7 +33562,7 @@
       <c r="AY16" s="164"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="494"/>
+      <c r="B17" s="507"/>
       <c r="C17" s="160"/>
       <c r="D17" s="161"/>
       <c r="E17" s="19" t="s">
@@ -33616,7 +33616,7 @@
       <c r="AY17" s="164"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="494"/>
+      <c r="B18" s="507"/>
       <c r="C18" s="160"/>
       <c r="D18" s="161"/>
       <c r="E18" s="19" t="s">
@@ -33670,7 +33670,7 @@
       <c r="AY18" s="164"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="495"/>
+      <c r="B19" s="508"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
@@ -33724,13 +33724,13 @@
       <c r="AY19" s="165"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="496" t="s">
+      <c r="B20" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="497" t="s">
+      <c r="C20" s="524" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="499" t="s">
+      <c r="D20" s="525" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -33784,9 +33784,9 @@
       <c r="AY20" s="169"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="494"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="498"/>
+      <c r="B21" s="507"/>
+      <c r="C21" s="510"/>
+      <c r="D21" s="510"/>
       <c r="E21" s="19" t="s">
         <v>47</v>
       </c>
@@ -33838,9 +33838,9 @@
       <c r="AY21" s="170"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="494"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="507"/>
+      <c r="C22" s="510"/>
+      <c r="D22" s="510"/>
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
@@ -33892,9 +33892,9 @@
       <c r="AY22" s="164"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="494"/>
-      <c r="C23" s="498"/>
-      <c r="D23" s="500"/>
+      <c r="B23" s="507"/>
+      <c r="C23" s="510"/>
+      <c r="D23" s="518"/>
       <c r="E23" s="48" t="s">
         <v>49</v>
       </c>
@@ -33946,9 +33946,9 @@
       <c r="AY23" s="171"/>
     </row>
     <row r="24" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B24" s="494"/>
-      <c r="C24" s="498"/>
-      <c r="D24" s="501" t="s">
+      <c r="B24" s="507"/>
+      <c r="C24" s="510"/>
+      <c r="D24" s="519" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -34002,9 +34002,9 @@
       <c r="AY24" s="172"/>
     </row>
     <row r="25" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B25" s="494"/>
-      <c r="C25" s="498"/>
-      <c r="D25" s="498"/>
+      <c r="B25" s="507"/>
+      <c r="C25" s="510"/>
+      <c r="D25" s="510"/>
       <c r="E25" s="19" t="s">
         <v>52</v>
       </c>
@@ -34056,9 +34056,9 @@
       <c r="AY25" s="173"/>
     </row>
     <row r="26" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B26" s="494"/>
-      <c r="C26" s="498"/>
-      <c r="D26" s="498"/>
+      <c r="B26" s="507"/>
+      <c r="C26" s="510"/>
+      <c r="D26" s="510"/>
       <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
@@ -34110,9 +34110,9 @@
       <c r="AY26" s="173"/>
     </row>
     <row r="27" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B27" s="494"/>
-      <c r="C27" s="498"/>
-      <c r="D27" s="500"/>
+      <c r="B27" s="507"/>
+      <c r="C27" s="510"/>
+      <c r="D27" s="518"/>
       <c r="E27" s="48" t="s">
         <v>54</v>
       </c>
@@ -34164,9 +34164,9 @@
       <c r="AY27" s="172"/>
     </row>
     <row r="28" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B28" s="494"/>
-      <c r="C28" s="498"/>
-      <c r="D28" s="501" t="s">
+      <c r="B28" s="507"/>
+      <c r="C28" s="510"/>
+      <c r="D28" s="519" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -34220,9 +34220,9 @@
       <c r="AY28" s="172"/>
     </row>
     <row r="29" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B29" s="494"/>
-      <c r="C29" s="498"/>
-      <c r="D29" s="498"/>
+      <c r="B29" s="507"/>
+      <c r="C29" s="510"/>
+      <c r="D29" s="510"/>
       <c r="E29" s="19" t="s">
         <v>57</v>
       </c>
@@ -34274,9 +34274,9 @@
       <c r="AY29" s="172"/>
     </row>
     <row r="30" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B30" s="494"/>
-      <c r="C30" s="498"/>
-      <c r="D30" s="498"/>
+      <c r="B30" s="507"/>
+      <c r="C30" s="510"/>
+      <c r="D30" s="510"/>
       <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
@@ -34328,9 +34328,9 @@
       <c r="AY30" s="172"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="494"/>
-      <c r="C31" s="498"/>
-      <c r="D31" s="498"/>
+      <c r="B31" s="507"/>
+      <c r="C31" s="510"/>
+      <c r="D31" s="510"/>
       <c r="E31" s="19" t="s">
         <v>59</v>
       </c>
@@ -34382,9 +34382,9 @@
       <c r="AY31" s="174"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="494"/>
-      <c r="C32" s="498"/>
-      <c r="D32" s="498"/>
+      <c r="B32" s="507"/>
+      <c r="C32" s="510"/>
+      <c r="D32" s="510"/>
       <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
@@ -34436,9 +34436,9 @@
       <c r="AY32" s="172"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="494"/>
-      <c r="C33" s="498"/>
-      <c r="D33" s="498"/>
+      <c r="B33" s="507"/>
+      <c r="C33" s="510"/>
+      <c r="D33" s="510"/>
       <c r="E33" s="19" t="s">
         <v>61</v>
       </c>
@@ -34490,9 +34490,9 @@
       <c r="AY33" s="175"/>
     </row>
     <row r="34" spans="2:51" ht="18" customHeight="1">
-      <c r="B34" s="494"/>
-      <c r="C34" s="498"/>
-      <c r="D34" s="501" t="s">
+      <c r="B34" s="507"/>
+      <c r="C34" s="510"/>
+      <c r="D34" s="519" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="55" t="s">
@@ -34546,9 +34546,9 @@
       <c r="AY34" s="176"/>
     </row>
     <row r="35" spans="2:51" ht="18" customHeight="1">
-      <c r="B35" s="494"/>
-      <c r="C35" s="498"/>
-      <c r="D35" s="498"/>
+      <c r="B35" s="507"/>
+      <c r="C35" s="510"/>
+      <c r="D35" s="510"/>
       <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
@@ -34600,9 +34600,9 @@
       <c r="AY35" s="176"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="494"/>
-      <c r="C36" s="498"/>
-      <c r="D36" s="498"/>
+      <c r="B36" s="507"/>
+      <c r="C36" s="510"/>
+      <c r="D36" s="510"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -34654,9 +34654,9 @@
       <c r="AY36" s="176"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="494"/>
-      <c r="C37" s="498"/>
-      <c r="D37" s="500"/>
+      <c r="B37" s="507"/>
+      <c r="C37" s="510"/>
+      <c r="D37" s="518"/>
       <c r="E37" s="48" t="s">
         <v>66</v>
       </c>
@@ -34708,9 +34708,9 @@
       <c r="AY37" s="86"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="494"/>
-      <c r="C38" s="498"/>
-      <c r="D38" s="503" t="s">
+      <c r="B38" s="507"/>
+      <c r="C38" s="510"/>
+      <c r="D38" s="527" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -34764,9 +34764,9 @@
       <c r="AY38" s="176"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="494"/>
-      <c r="C39" s="498"/>
-      <c r="D39" s="498"/>
+      <c r="B39" s="507"/>
+      <c r="C39" s="510"/>
+      <c r="D39" s="510"/>
       <c r="E39" s="19" t="s">
         <v>69</v>
       </c>
@@ -34818,9 +34818,9 @@
       <c r="AY39" s="176"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="494"/>
-      <c r="C40" s="498"/>
-      <c r="D40" s="498"/>
+      <c r="B40" s="507"/>
+      <c r="C40" s="510"/>
+      <c r="D40" s="510"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
@@ -34872,9 +34872,9 @@
       <c r="AY40" s="176"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B41" s="494"/>
-      <c r="C41" s="498"/>
-      <c r="D41" s="498"/>
+      <c r="B41" s="507"/>
+      <c r="C41" s="510"/>
+      <c r="D41" s="510"/>
       <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
@@ -34926,9 +34926,9 @@
       <c r="AY41" s="176"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="494"/>
-      <c r="C42" s="498"/>
-      <c r="D42" s="498"/>
+      <c r="B42" s="507"/>
+      <c r="C42" s="510"/>
+      <c r="D42" s="510"/>
       <c r="E42" s="19" t="s">
         <v>72</v>
       </c>
@@ -34980,9 +34980,9 @@
       <c r="AY42" s="176"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="494"/>
-      <c r="C43" s="498"/>
-      <c r="D43" s="498"/>
+      <c r="B43" s="507"/>
+      <c r="C43" s="510"/>
+      <c r="D43" s="510"/>
       <c r="E43" s="19" t="s">
         <v>73</v>
       </c>
@@ -35034,9 +35034,9 @@
       <c r="AY43" s="176"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="494"/>
-      <c r="C44" s="498"/>
-      <c r="D44" s="498"/>
+      <c r="B44" s="507"/>
+      <c r="C44" s="510"/>
+      <c r="D44" s="510"/>
       <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
@@ -35088,9 +35088,9 @@
       <c r="AY44" s="176"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="494"/>
-      <c r="C45" s="498"/>
-      <c r="D45" s="500"/>
+      <c r="B45" s="507"/>
+      <c r="C45" s="510"/>
+      <c r="D45" s="518"/>
       <c r="E45" s="48" t="s">
         <v>75</v>
       </c>
@@ -35142,9 +35142,9 @@
       <c r="AY45" s="176"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="494"/>
-      <c r="C46" s="498"/>
-      <c r="D46" s="504" t="s">
+      <c r="B46" s="507"/>
+      <c r="C46" s="510"/>
+      <c r="D46" s="528" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -35198,9 +35198,9 @@
       <c r="AY46" s="176"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="494"/>
-      <c r="C47" s="498"/>
-      <c r="D47" s="498"/>
+      <c r="B47" s="507"/>
+      <c r="C47" s="510"/>
+      <c r="D47" s="510"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -35252,9 +35252,9 @@
       <c r="AY47" s="86"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="494"/>
-      <c r="C48" s="498"/>
-      <c r="D48" s="498"/>
+      <c r="B48" s="507"/>
+      <c r="C48" s="510"/>
+      <c r="D48" s="510"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -35306,9 +35306,9 @@
       <c r="AY48" s="86"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="494"/>
-      <c r="C49" s="498"/>
-      <c r="D49" s="500"/>
+      <c r="B49" s="507"/>
+      <c r="C49" s="510"/>
+      <c r="D49" s="518"/>
       <c r="E49" s="48" t="s">
         <v>80</v>
       </c>
@@ -35360,9 +35360,9 @@
       <c r="AY49" s="176"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="494"/>
-      <c r="C50" s="498"/>
-      <c r="D50" s="503" t="s">
+      <c r="B50" s="507"/>
+      <c r="C50" s="510"/>
+      <c r="D50" s="527" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="55" t="s">
@@ -35416,9 +35416,9 @@
       <c r="AY50" s="86"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B51" s="494"/>
-      <c r="C51" s="498"/>
-      <c r="D51" s="505"/>
+      <c r="B51" s="507"/>
+      <c r="C51" s="510"/>
+      <c r="D51" s="511"/>
       <c r="E51" s="57" t="s">
         <v>82</v>
       </c>
@@ -35470,8 +35470,8 @@
       <c r="AY51" s="119"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="494"/>
-      <c r="C52" s="509" t="s">
+      <c r="B52" s="507"/>
+      <c r="C52" s="516" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="58" t="s">
@@ -35528,9 +35528,9 @@
       <c r="AY52" s="260"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="494"/>
-      <c r="C53" s="498"/>
-      <c r="D53" s="510" t="s">
+      <c r="B53" s="507"/>
+      <c r="C53" s="510"/>
+      <c r="D53" s="517" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="55" t="s">
@@ -35584,9 +35584,9 @@
       <c r="AY53" s="86"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="494"/>
-      <c r="C54" s="498"/>
-      <c r="D54" s="498"/>
+      <c r="B54" s="507"/>
+      <c r="C54" s="510"/>
+      <c r="D54" s="510"/>
       <c r="E54" s="19" t="s">
         <v>85</v>
       </c>
@@ -35638,9 +35638,9 @@
       <c r="AY54" s="86"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="494"/>
-      <c r="C55" s="498"/>
-      <c r="D55" s="500"/>
+      <c r="B55" s="507"/>
+      <c r="C55" s="510"/>
+      <c r="D55" s="518"/>
       <c r="E55" s="48" t="s">
         <v>75</v>
       </c>
@@ -35692,9 +35692,9 @@
       <c r="AY55" s="86"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="494"/>
-      <c r="C56" s="498"/>
-      <c r="D56" s="510" t="s">
+      <c r="B56" s="507"/>
+      <c r="C56" s="510"/>
+      <c r="D56" s="517" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="55" t="s">
@@ -35748,9 +35748,9 @@
       <c r="AY56" s="86"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="494"/>
-      <c r="C57" s="498"/>
-      <c r="D57" s="498"/>
+      <c r="B57" s="507"/>
+      <c r="C57" s="510"/>
+      <c r="D57" s="510"/>
       <c r="E57" s="19" t="s">
         <v>88</v>
       </c>
@@ -35802,9 +35802,9 @@
       <c r="AY57" s="86"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="494"/>
-      <c r="C58" s="498"/>
-      <c r="D58" s="500"/>
+      <c r="B58" s="507"/>
+      <c r="C58" s="510"/>
+      <c r="D58" s="518"/>
       <c r="E58" s="48" t="s">
         <v>89</v>
       </c>
@@ -35856,9 +35856,9 @@
       <c r="AY58" s="86"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="494"/>
-      <c r="C59" s="498"/>
-      <c r="D59" s="510" t="s">
+      <c r="B59" s="507"/>
+      <c r="C59" s="510"/>
+      <c r="D59" s="517" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -35912,9 +35912,9 @@
       <c r="AY59" s="86"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="494"/>
-      <c r="C60" s="498"/>
-      <c r="D60" s="498"/>
+      <c r="B60" s="507"/>
+      <c r="C60" s="510"/>
+      <c r="D60" s="510"/>
       <c r="E60" s="19" t="s">
         <v>92</v>
       </c>
@@ -35966,9 +35966,9 @@
       <c r="AY60" s="86"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="494"/>
-      <c r="C61" s="498"/>
-      <c r="D61" s="500"/>
+      <c r="B61" s="507"/>
+      <c r="C61" s="510"/>
+      <c r="D61" s="518"/>
       <c r="E61" s="48" t="s">
         <v>93</v>
       </c>
@@ -36020,9 +36020,9 @@
       <c r="AY61" s="86"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="494"/>
-      <c r="C62" s="498"/>
-      <c r="D62" s="501" t="s">
+      <c r="B62" s="507"/>
+      <c r="C62" s="510"/>
+      <c r="D62" s="519" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -36076,9 +36076,9 @@
       <c r="AY62" s="86"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="494"/>
-      <c r="C63" s="498"/>
-      <c r="D63" s="498"/>
+      <c r="B63" s="507"/>
+      <c r="C63" s="510"/>
+      <c r="D63" s="510"/>
       <c r="E63" s="19" t="s">
         <v>96</v>
       </c>
@@ -36130,9 +36130,9 @@
       <c r="AY63" s="86"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B64" s="494"/>
-      <c r="C64" s="498"/>
-      <c r="D64" s="500"/>
+      <c r="B64" s="507"/>
+      <c r="C64" s="510"/>
+      <c r="D64" s="518"/>
       <c r="E64" s="48" t="s">
         <v>97</v>
       </c>
@@ -36184,8 +36184,8 @@
       <c r="AY64" s="86"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="494"/>
-      <c r="C65" s="498"/>
+      <c r="B65" s="507"/>
+      <c r="C65" s="510"/>
       <c r="D65" s="50" t="s">
         <v>98</v>
       </c>
@@ -36240,9 +36240,9 @@
       <c r="AY65" s="175"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="494"/>
-      <c r="C66" s="498"/>
-      <c r="D66" s="501" t="s">
+      <c r="B66" s="507"/>
+      <c r="C66" s="510"/>
+      <c r="D66" s="519" t="s">
         <v>100</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -36296,9 +36296,9 @@
       <c r="AY66" s="86"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="494"/>
-      <c r="C67" s="498"/>
-      <c r="D67" s="500"/>
+      <c r="B67" s="507"/>
+      <c r="C67" s="510"/>
+      <c r="D67" s="518"/>
       <c r="E67" s="48" t="s">
         <v>102</v>
       </c>
@@ -36350,9 +36350,9 @@
       <c r="AY67" s="86"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="494"/>
-      <c r="C68" s="498"/>
-      <c r="D68" s="501" t="s">
+      <c r="B68" s="507"/>
+      <c r="C68" s="510"/>
+      <c r="D68" s="519" t="s">
         <v>103</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -36406,9 +36406,9 @@
       <c r="AY68" s="86"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B69" s="494"/>
-      <c r="C69" s="498"/>
-      <c r="D69" s="498"/>
+      <c r="B69" s="507"/>
+      <c r="C69" s="510"/>
+      <c r="D69" s="510"/>
       <c r="E69" s="19" t="s">
         <v>105</v>
       </c>
@@ -36460,9 +36460,9 @@
       <c r="AY69" s="86"/>
     </row>
     <row r="70" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B70" s="494"/>
-      <c r="C70" s="498"/>
-      <c r="D70" s="500"/>
+      <c r="B70" s="507"/>
+      <c r="C70" s="510"/>
+      <c r="D70" s="518"/>
       <c r="E70" s="48" t="s">
         <v>106</v>
       </c>
@@ -36514,9 +36514,9 @@
       <c r="AY70" s="86"/>
     </row>
     <row r="71" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B71" s="494"/>
-      <c r="C71" s="498"/>
-      <c r="D71" s="501" t="s">
+      <c r="B71" s="507"/>
+      <c r="C71" s="510"/>
+      <c r="D71" s="519" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -36570,9 +36570,9 @@
       <c r="AY71" s="86"/>
     </row>
     <row r="72" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B72" s="494"/>
-      <c r="C72" s="498"/>
-      <c r="D72" s="498"/>
+      <c r="B72" s="507"/>
+      <c r="C72" s="510"/>
+      <c r="D72" s="510"/>
       <c r="E72" s="19" t="s">
         <v>109</v>
       </c>
@@ -36624,9 +36624,9 @@
       <c r="AY72" s="86"/>
     </row>
     <row r="73" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B73" s="494"/>
-      <c r="C73" s="498"/>
-      <c r="D73" s="500"/>
+      <c r="B73" s="507"/>
+      <c r="C73" s="510"/>
+      <c r="D73" s="518"/>
       <c r="E73" s="48" t="s">
         <v>110</v>
       </c>
@@ -36678,9 +36678,9 @@
       <c r="AY73" s="86"/>
     </row>
     <row r="74" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B74" s="494"/>
-      <c r="C74" s="498"/>
-      <c r="D74" s="502" t="s">
+      <c r="B74" s="507"/>
+      <c r="C74" s="510"/>
+      <c r="D74" s="526" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -36734,9 +36734,9 @@
       <c r="AY74" s="86"/>
     </row>
     <row r="75" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B75" s="494"/>
-      <c r="C75" s="498"/>
-      <c r="D75" s="498"/>
+      <c r="B75" s="507"/>
+      <c r="C75" s="510"/>
+      <c r="D75" s="510"/>
       <c r="E75" s="19" t="s">
         <v>113</v>
       </c>
@@ -36788,9 +36788,9 @@
       <c r="AY75" s="86"/>
     </row>
     <row r="76" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B76" s="494"/>
-      <c r="C76" s="498"/>
-      <c r="D76" s="498"/>
+      <c r="B76" s="507"/>
+      <c r="C76" s="510"/>
+      <c r="D76" s="510"/>
       <c r="E76" s="19" t="s">
         <v>114</v>
       </c>
@@ -36842,9 +36842,9 @@
       <c r="AY76" s="86"/>
     </row>
     <row r="77" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B77" s="494"/>
-      <c r="C77" s="498"/>
-      <c r="D77" s="498"/>
+      <c r="B77" s="507"/>
+      <c r="C77" s="510"/>
+      <c r="D77" s="510"/>
       <c r="E77" s="19" t="s">
         <v>115</v>
       </c>
@@ -36896,12 +36896,12 @@
       <c r="AY77" s="119"/>
     </row>
     <row r="78" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B78" s="496" t="s">
+      <c r="B78" s="512" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
-      <c r="E78" s="507" t="s">
+      <c r="E78" s="514" t="s">
         <v>117</v>
       </c>
       <c r="F78" s="73" t="s">
@@ -36954,10 +36954,10 @@
       <c r="AY78" s="260"/>
     </row>
     <row r="79" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B79" s="494"/>
+      <c r="B79" s="507"/>
       <c r="C79" s="74"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="508"/>
+      <c r="E79" s="515"/>
       <c r="F79" s="183" t="s">
         <v>4</v>
       </c>
@@ -37008,10 +37008,10 @@
       <c r="AY79" s="86"/>
     </row>
     <row r="80" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B80" s="494"/>
+      <c r="B80" s="507"/>
       <c r="C80" s="74"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="508"/>
+      <c r="E80" s="515"/>
       <c r="F80" s="184" t="s">
         <v>5</v>
       </c>
@@ -37062,10 +37062,10 @@
       <c r="AY80" s="86"/>
     </row>
     <row r="81" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B81" s="494"/>
+      <c r="B81" s="507"/>
       <c r="C81" s="74"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="508"/>
+      <c r="E81" s="515"/>
       <c r="F81" s="185" t="s">
         <v>6</v>
       </c>
@@ -37116,10 +37116,10 @@
       <c r="AY81" s="86"/>
     </row>
     <row r="82" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B82" s="494"/>
+      <c r="B82" s="507"/>
       <c r="C82" s="74"/>
       <c r="D82" s="75"/>
-      <c r="E82" s="508"/>
+      <c r="E82" s="515"/>
       <c r="F82" s="186" t="s">
         <v>7</v>
       </c>
@@ -37170,7 +37170,7 @@
       <c r="AY82" s="86"/>
     </row>
     <row r="83" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B83" s="494"/>
+      <c r="B83" s="507"/>
       <c r="C83" s="74"/>
       <c r="D83" s="75"/>
       <c r="E83" s="19" t="s">
@@ -37224,7 +37224,7 @@
       <c r="AY83" s="86"/>
     </row>
     <row r="84" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B84" s="506"/>
+      <c r="B84" s="513"/>
       <c r="C84" s="188"/>
       <c r="D84" s="189"/>
       <c r="E84" s="190" t="s">
@@ -38218,6 +38218,31 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="AO4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="B20:B77"/>
+    <mergeCell ref="C20:C51"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D46:D49"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E82"/>
     <mergeCell ref="D50:D51"/>
@@ -38230,31 +38255,6 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D77"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B77"/>
-    <mergeCell ref="C20:C51"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="AO4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 산출물/11.일정관리/캠플렉스 일정관리.xlsx
+++ b/프로젝트 산출물/11.일정관리/캠플렉스 일정관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="전체일정" sheetId="1" r:id="rId1"/>
@@ -2600,133 +2600,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2771,53 +2645,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2939,6 +2768,177 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3537,11 +3537,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD985"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="V31" sqref="V31"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3603,11 +3603,11 @@
     </row>
     <row r="2" spans="1:56" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="309" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -3656,25 +3656,25 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="162"/>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="193"/>
+      <c r="I3" s="253"/>
       <c r="J3" s="186"/>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="193"/>
+      <c r="L3" s="253"/>
       <c r="M3" s="185"/>
-      <c r="N3" s="193" t="s">
+      <c r="N3" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="253"/>
       <c r="P3" s="184"/>
-      <c r="Q3" s="193" t="s">
+      <c r="Q3" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="193"/>
+      <c r="R3" s="253"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -3683,150 +3683,150 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="BC3" s="193"/>
-      <c r="BD3" s="193"/>
+      <c r="BC3" s="253"/>
+      <c r="BD3" s="253"/>
     </row>
     <row r="4" spans="1:56" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="214" t="s">
+      <c r="F4" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="255"/>
-      <c r="S4" s="255"/>
-      <c r="T4" s="255"/>
-      <c r="U4" s="255"/>
-      <c r="V4" s="255"/>
-      <c r="W4" s="255"/>
-      <c r="X4" s="255"/>
-      <c r="Y4" s="255"/>
-      <c r="Z4" s="255"/>
-      <c r="AA4" s="255"/>
-      <c r="AB4" s="255"/>
-      <c r="AC4" s="255"/>
-      <c r="AD4" s="255"/>
-      <c r="AE4" s="255"/>
-      <c r="AF4" s="255"/>
-      <c r="AG4" s="255"/>
-      <c r="AH4" s="255"/>
-      <c r="AI4" s="255"/>
-      <c r="AJ4" s="255"/>
-      <c r="AK4" s="255"/>
-      <c r="AL4" s="252" t="s">
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="266"/>
+      <c r="Z4" s="266"/>
+      <c r="AA4" s="266"/>
+      <c r="AB4" s="266"/>
+      <c r="AC4" s="266"/>
+      <c r="AD4" s="266"/>
+      <c r="AE4" s="266"/>
+      <c r="AF4" s="266"/>
+      <c r="AG4" s="266"/>
+      <c r="AH4" s="266"/>
+      <c r="AI4" s="266"/>
+      <c r="AJ4" s="266"/>
+      <c r="AK4" s="266"/>
+      <c r="AL4" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="252"/>
-      <c r="AN4" s="252"/>
-      <c r="AO4" s="252"/>
-      <c r="AP4" s="252"/>
-      <c r="AQ4" s="252"/>
-      <c r="AR4" s="252"/>
-      <c r="AS4" s="252"/>
-      <c r="AT4" s="252"/>
-      <c r="AU4" s="218"/>
-      <c r="AV4" s="218"/>
-      <c r="AW4" s="218"/>
-      <c r="AX4" s="218"/>
-      <c r="AY4" s="219"/>
+      <c r="AM4" s="270"/>
+      <c r="AN4" s="270"/>
+      <c r="AO4" s="270"/>
+      <c r="AP4" s="270"/>
+      <c r="AQ4" s="270"/>
+      <c r="AR4" s="270"/>
+      <c r="AS4" s="270"/>
+      <c r="AT4" s="270"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
+      <c r="AX4" s="271"/>
+      <c r="AY4" s="272"/>
     </row>
     <row r="5" spans="1:56" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="197"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="251" t="s">
+      <c r="B5" s="278"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="263" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="251" t="s">
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="222"/>
-      <c r="S5" s="223" t="s">
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="274" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="220"/>
-      <c r="W5" s="220"/>
-      <c r="X5" s="220"/>
-      <c r="Y5" s="222"/>
-      <c r="Z5" s="253" t="s">
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="264"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="275" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="220"/>
-      <c r="AD5" s="220"/>
-      <c r="AE5" s="220"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="251" t="s">
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="264"/>
+      <c r="AF5" s="276"/>
+      <c r="AG5" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="AH5" s="220"/>
-      <c r="AI5" s="220"/>
-      <c r="AJ5" s="220"/>
-      <c r="AK5" s="220"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="221"/>
-      <c r="AN5" s="251" t="s">
+      <c r="AH5" s="264"/>
+      <c r="AI5" s="264"/>
+      <c r="AJ5" s="264"/>
+      <c r="AK5" s="264"/>
+      <c r="AL5" s="264"/>
+      <c r="AM5" s="276"/>
+      <c r="AN5" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="220"/>
-      <c r="AP5" s="220"/>
-      <c r="AQ5" s="220"/>
-      <c r="AR5" s="220"/>
-      <c r="AS5" s="220"/>
-      <c r="AT5" s="221"/>
-      <c r="AU5" s="215" t="s">
+      <c r="AO5" s="264"/>
+      <c r="AP5" s="264"/>
+      <c r="AQ5" s="264"/>
+      <c r="AR5" s="264"/>
+      <c r="AS5" s="264"/>
+      <c r="AT5" s="276"/>
+      <c r="AU5" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="216"/>
-      <c r="AW5" s="216"/>
-      <c r="AX5" s="216"/>
-      <c r="AY5" s="217"/>
+      <c r="AV5" s="268"/>
+      <c r="AW5" s="268"/>
+      <c r="AX5" s="268"/>
+      <c r="AY5" s="269"/>
     </row>
     <row r="6" spans="1:56" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -3965,13 +3965,13 @@
     </row>
     <row r="7" spans="1:56" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="196"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="57" t="s">
         <v>5</v>
       </c>
@@ -4110,11 +4110,11 @@
     </row>
     <row r="8" spans="1:56" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="302"/>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4167,9 +4167,9 @@
     </row>
     <row r="9" spans="1:56" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="229"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="305"/>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4222,9 +4222,9 @@
     </row>
     <row r="10" spans="1:56" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="305"/>
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
@@ -4277,9 +4277,9 @@
     </row>
     <row r="11" spans="1:56" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="229"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="305"/>
       <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
@@ -4332,9 +4332,9 @@
     </row>
     <row r="12" spans="1:56" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="305"/>
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
@@ -4387,9 +4387,9 @@
     </row>
     <row r="13" spans="1:56" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="305"/>
       <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
@@ -4442,9 +4442,9 @@
     </row>
     <row r="14" spans="1:56" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="305"/>
       <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
@@ -4497,9 +4497,9 @@
     </row>
     <row r="15" spans="1:56" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="305"/>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
@@ -4552,9 +4552,9 @@
     </row>
     <row r="16" spans="1:56" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="227"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="229"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="305"/>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
@@ -4607,9 +4607,9 @@
     </row>
     <row r="17" spans="1:51" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="227"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="229"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="305"/>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
@@ -4662,9 +4662,9 @@
     </row>
     <row r="18" spans="1:51" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="227"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="305"/>
       <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
@@ -4717,9 +4717,9 @@
     </row>
     <row r="19" spans="1:51" ht="16.5" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="308"/>
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
@@ -4772,19 +4772,19 @@
     </row>
     <row r="20" spans="1:51" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="200" t="s">
+      <c r="C20" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="202" t="s">
+      <c r="D20" s="297" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="285"/>
+      <c r="F20" s="228"/>
       <c r="G20" s="90"/>
       <c r="H20" s="84"/>
       <c r="I20" s="85"/>
@@ -4833,14 +4833,14 @@
     </row>
     <row r="21" spans="1:51" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="286"/>
-      <c r="G21" s="282"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="225"/>
       <c r="H21" s="30"/>
       <c r="I21" s="28"/>
       <c r="J21" s="30"/>
@@ -4888,14 +4888,14 @@
     </row>
     <row r="22" spans="1:51" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="235" t="s">
+      <c r="B22" s="278"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="287"/>
-      <c r="G22" s="282"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="225"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -4908,7 +4908,7 @@
       <c r="Q22" s="99"/>
       <c r="R22" s="100"/>
       <c r="S22" s="93"/>
-      <c r="T22" s="279"/>
+      <c r="T22" s="222"/>
       <c r="U22" s="94"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
@@ -4943,16 +4943,16 @@
     </row>
     <row r="23" spans="1:51" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="204" t="s">
+      <c r="B23" s="278"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="289" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="286"/>
-      <c r="G23" s="282"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="225"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -4966,8 +4966,8 @@
       <c r="R23" s="106"/>
       <c r="S23" s="54"/>
       <c r="T23" s="32"/>
-      <c r="U23" s="280"/>
-      <c r="V23" s="281"/>
+      <c r="U23" s="223"/>
+      <c r="V23" s="224"/>
       <c r="W23" s="32"/>
       <c r="X23" s="32"/>
       <c r="Y23" s="55"/>
@@ -5000,14 +5000,14 @@
     </row>
     <row r="24" spans="1:51" ht="20.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
+      <c r="B24" s="278"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
       <c r="E24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="286"/>
-      <c r="G24" s="282"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="225"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="30"/>
@@ -5022,8 +5022,8 @@
       <c r="S24" s="53"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
-      <c r="V24" s="281"/>
-      <c r="W24" s="281"/>
+      <c r="V24" s="224"/>
+      <c r="W24" s="224"/>
       <c r="X24" s="32"/>
       <c r="Y24" s="55"/>
       <c r="Z24" s="47"/>
@@ -5055,16 +5055,16 @@
     </row>
     <row r="25" spans="1:51" ht="17.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="204" t="s">
+      <c r="B25" s="278"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="289" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="286"/>
-      <c r="G25" s="282"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="225"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -5083,8 +5083,8 @@
       <c r="W25" s="108"/>
       <c r="X25" s="109"/>
       <c r="Y25" s="110"/>
-      <c r="Z25" s="296"/>
-      <c r="AA25" s="297"/>
+      <c r="Z25" s="239"/>
+      <c r="AA25" s="240"/>
       <c r="AB25" s="111"/>
       <c r="AC25" s="109"/>
       <c r="AD25" s="109"/>
@@ -5112,14 +5112,14 @@
     </row>
     <row r="26" spans="1:51" ht="17.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
       <c r="E26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="286"/>
-      <c r="G26" s="282"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="225"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -5139,8 +5139,8 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="55"/>
       <c r="Z26" s="47"/>
-      <c r="AA26" s="298"/>
-      <c r="AB26" s="298"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="241"/>
       <c r="AC26" s="32"/>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
@@ -5167,14 +5167,14 @@
     </row>
     <row r="27" spans="1:51" ht="17.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
       <c r="E27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="287"/>
-      <c r="G27" s="282"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="225"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -5195,9 +5195,9 @@
       <c r="Y27" s="55"/>
       <c r="Z27" s="47"/>
       <c r="AA27" s="107"/>
-      <c r="AB27" s="298"/>
-      <c r="AC27" s="280"/>
-      <c r="AD27" s="280"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="223"/>
+      <c r="AD27" s="223"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="46"/>
       <c r="AG27" s="54"/>
@@ -5222,14 +5222,14 @@
     </row>
     <row r="28" spans="1:51" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="235" t="s">
+      <c r="B28" s="278"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="286"/>
-      <c r="G28" s="283"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="226"/>
       <c r="H28" s="167"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -5255,9 +5255,9 @@
       <c r="AD28" s="109"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="46"/>
-      <c r="AG28" s="299"/>
-      <c r="AH28" s="300"/>
-      <c r="AI28" s="301"/>
+      <c r="AG28" s="242"/>
+      <c r="AH28" s="243"/>
+      <c r="AI28" s="244"/>
       <c r="AJ28" s="32"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -5277,16 +5277,16 @@
     </row>
     <row r="29" spans="1:51" ht="16.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="206" t="s">
+      <c r="B29" s="278"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="298" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="288"/>
-      <c r="G29" s="282"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="225"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -5305,9 +5305,9 @@
       <c r="W29" s="127"/>
       <c r="X29" s="127"/>
       <c r="Y29" s="130"/>
-      <c r="Z29" s="271"/>
-      <c r="AA29" s="270"/>
-      <c r="AB29" s="270"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="213"/>
+      <c r="AB29" s="213"/>
       <c r="AC29" s="127"/>
       <c r="AD29" s="127"/>
       <c r="AE29" s="127"/>
@@ -5334,14 +5334,14 @@
     </row>
     <row r="30" spans="1:51" ht="16.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
       <c r="E30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="288"/>
-      <c r="G30" s="282"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="225"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -5362,9 +5362,9 @@
       <c r="Y30" s="130"/>
       <c r="Z30" s="133"/>
       <c r="AA30" s="127"/>
-      <c r="AB30" s="270"/>
-      <c r="AC30" s="270"/>
-      <c r="AD30" s="270"/>
+      <c r="AB30" s="213"/>
+      <c r="AC30" s="213"/>
+      <c r="AD30" s="213"/>
       <c r="AE30" s="127"/>
       <c r="AF30" s="128"/>
       <c r="AG30" s="132"/>
@@ -5389,14 +5389,14 @@
     </row>
     <row r="31" spans="1:51" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
       <c r="E31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="288"/>
-      <c r="G31" s="282"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="225"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -5422,9 +5422,9 @@
       <c r="AD31" s="127"/>
       <c r="AE31" s="127"/>
       <c r="AF31" s="128"/>
-      <c r="AG31" s="273"/>
-      <c r="AH31" s="272"/>
-      <c r="AI31" s="272"/>
+      <c r="AG31" s="216"/>
+      <c r="AH31" s="215"/>
+      <c r="AI31" s="215"/>
       <c r="AJ31" s="116"/>
       <c r="AK31" s="116"/>
       <c r="AL31" s="32"/>
@@ -5444,14 +5444,14 @@
     </row>
     <row r="32" spans="1:51" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="281"/>
       <c r="E32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="288"/>
-      <c r="G32" s="282"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="225"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -5479,9 +5479,9 @@
       <c r="AF32" s="128"/>
       <c r="AG32" s="129"/>
       <c r="AH32" s="116"/>
-      <c r="AI32" s="272"/>
-      <c r="AJ32" s="272"/>
-      <c r="AK32" s="272"/>
+      <c r="AI32" s="215"/>
+      <c r="AJ32" s="215"/>
+      <c r="AK32" s="215"/>
       <c r="AL32" s="32"/>
       <c r="AM32" s="55"/>
       <c r="AN32" s="129"/>
@@ -5499,14 +5499,14 @@
     </row>
     <row r="33" spans="1:51" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
       <c r="E33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="287"/>
-      <c r="G33" s="282"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="225"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -5540,8 +5540,8 @@
       <c r="AL33" s="32"/>
       <c r="AM33" s="55"/>
       <c r="AN33" s="132"/>
-      <c r="AO33" s="276"/>
-      <c r="AP33" s="276"/>
+      <c r="AO33" s="219"/>
+      <c r="AP33" s="219"/>
       <c r="AQ33" s="116"/>
       <c r="AR33" s="116"/>
       <c r="AS33" s="32"/>
@@ -5554,14 +5554,14 @@
     </row>
     <row r="34" spans="1:51" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="281"/>
+      <c r="D34" s="281"/>
       <c r="E34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="287"/>
-      <c r="G34" s="282"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="225"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -5597,8 +5597,8 @@
       <c r="AN34" s="132"/>
       <c r="AO34" s="116"/>
       <c r="AP34" s="116"/>
-      <c r="AQ34" s="276"/>
-      <c r="AR34" s="276"/>
+      <c r="AQ34" s="219"/>
+      <c r="AR34" s="219"/>
       <c r="AS34" s="32"/>
       <c r="AT34" s="55"/>
       <c r="AU34" s="132"/>
@@ -5609,14 +5609,14 @@
     </row>
     <row r="35" spans="1:51" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="281"/>
       <c r="E35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="286"/>
-      <c r="G35" s="282"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="225"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -5649,7 +5649,7 @@
       <c r="AK35" s="116"/>
       <c r="AL35" s="32"/>
       <c r="AM35" s="55"/>
-      <c r="AN35" s="277"/>
+      <c r="AN35" s="220"/>
       <c r="AO35" s="124"/>
       <c r="AP35" s="104"/>
       <c r="AQ35" s="104"/>
@@ -5663,14 +5663,14 @@
       <c r="AY35" s="168"/>
     </row>
     <row r="36" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B36" s="197"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="281"/>
+      <c r="D36" s="281"/>
       <c r="E36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="286"/>
-      <c r="G36" s="282"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="225"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -5698,8 +5698,8 @@
       <c r="AF36" s="138"/>
       <c r="AG36" s="53"/>
       <c r="AH36" s="124"/>
-      <c r="AI36" s="278"/>
-      <c r="AJ36" s="278"/>
+      <c r="AI36" s="221"/>
+      <c r="AJ36" s="221"/>
       <c r="AK36" s="116"/>
       <c r="AL36" s="32"/>
       <c r="AM36" s="55"/>
@@ -5718,14 +5718,14 @@
     </row>
     <row r="37" spans="1:51" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="236" t="s">
+      <c r="B37" s="278"/>
+      <c r="C37" s="281"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="286"/>
-      <c r="G37" s="282"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="225"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -5754,8 +5754,8 @@
       <c r="AG37" s="53"/>
       <c r="AH37" s="124"/>
       <c r="AI37" s="124"/>
-      <c r="AJ37" s="278"/>
-      <c r="AK37" s="276"/>
+      <c r="AJ37" s="221"/>
+      <c r="AK37" s="219"/>
       <c r="AL37" s="32"/>
       <c r="AM37" s="55"/>
       <c r="AN37" s="53"/>
@@ -5772,15 +5772,15 @@
       <c r="AY37" s="168"/>
     </row>
     <row r="38" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B38" s="197"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="233" t="s">
+      <c r="B38" s="278"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="192" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="289"/>
+      <c r="F38" s="232"/>
       <c r="G38" s="96"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -5794,8 +5794,8 @@
       <c r="Q38" s="142"/>
       <c r="R38" s="143"/>
       <c r="S38" s="139"/>
-      <c r="T38" s="269"/>
-      <c r="U38" s="274"/>
+      <c r="T38" s="212"/>
+      <c r="U38" s="217"/>
       <c r="V38" s="142"/>
       <c r="W38" s="142"/>
       <c r="X38" s="108"/>
@@ -5829,15 +5829,15 @@
     </row>
     <row r="39" spans="1:51" ht="16.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="197"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="206" t="s">
+      <c r="B39" s="278"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="298" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="289"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="96"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -5851,8 +5851,8 @@
       <c r="Q39" s="105"/>
       <c r="R39" s="106"/>
       <c r="S39" s="53"/>
-      <c r="T39" s="243"/>
-      <c r="U39" s="274"/>
+      <c r="T39" s="201"/>
+      <c r="U39" s="217"/>
       <c r="V39" s="184"/>
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>
@@ -5885,69 +5885,69 @@
       <c r="AY39" s="55"/>
     </row>
     <row r="40" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B40" s="197"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="237" t="s">
+      <c r="B40" s="278"/>
+      <c r="C40" s="281"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="289"/>
+      <c r="F40" s="232"/>
       <c r="G40" s="101"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="102"/>
-      <c r="L40" s="238"/>
-      <c r="M40" s="239"/>
-      <c r="N40" s="239"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="240"/>
-      <c r="Q40" s="239"/>
-      <c r="R40" s="241"/>
-      <c r="S40" s="242"/>
-      <c r="T40" s="243"/>
-      <c r="U40" s="243"/>
-      <c r="V40" s="275"/>
-      <c r="W40" s="275"/>
-      <c r="X40" s="243"/>
-      <c r="Y40" s="244"/>
-      <c r="Z40" s="245"/>
-      <c r="AA40" s="240"/>
-      <c r="AB40" s="243"/>
-      <c r="AC40" s="240"/>
-      <c r="AD40" s="243"/>
-      <c r="AE40" s="243"/>
-      <c r="AF40" s="246"/>
-      <c r="AG40" s="247"/>
-      <c r="AH40" s="243"/>
-      <c r="AI40" s="243"/>
-      <c r="AJ40" s="243"/>
-      <c r="AK40" s="243"/>
-      <c r="AL40" s="243"/>
-      <c r="AM40" s="244"/>
-      <c r="AN40" s="268"/>
-      <c r="AO40" s="267"/>
-      <c r="AP40" s="267"/>
-      <c r="AQ40" s="267"/>
-      <c r="AR40" s="267"/>
-      <c r="AS40" s="243"/>
-      <c r="AT40" s="244"/>
-      <c r="AU40" s="247"/>
-      <c r="AV40" s="243"/>
-      <c r="AW40" s="243"/>
-      <c r="AX40" s="243"/>
-      <c r="AY40" s="244"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="199"/>
+      <c r="S40" s="200"/>
+      <c r="T40" s="201"/>
+      <c r="U40" s="201"/>
+      <c r="V40" s="218"/>
+      <c r="W40" s="218"/>
+      <c r="X40" s="201"/>
+      <c r="Y40" s="202"/>
+      <c r="Z40" s="203"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="201"/>
+      <c r="AC40" s="198"/>
+      <c r="AD40" s="201"/>
+      <c r="AE40" s="201"/>
+      <c r="AF40" s="204"/>
+      <c r="AG40" s="205"/>
+      <c r="AH40" s="201"/>
+      <c r="AI40" s="201"/>
+      <c r="AJ40" s="201"/>
+      <c r="AK40" s="201"/>
+      <c r="AL40" s="201"/>
+      <c r="AM40" s="202"/>
+      <c r="AN40" s="211"/>
+      <c r="AO40" s="210"/>
+      <c r="AP40" s="210"/>
+      <c r="AQ40" s="210"/>
+      <c r="AR40" s="210"/>
+      <c r="AS40" s="201"/>
+      <c r="AT40" s="202"/>
+      <c r="AU40" s="205"/>
+      <c r="AV40" s="201"/>
+      <c r="AW40" s="201"/>
+      <c r="AX40" s="201"/>
+      <c r="AY40" s="202"/>
     </row>
     <row r="41" spans="1:51" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="208"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="281"/>
+      <c r="D41" s="282"/>
       <c r="E41" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="290"/>
-      <c r="G41" s="284"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="145"/>
       <c r="I41" s="145"/>
       <c r="J41" s="145"/>
@@ -5960,7 +5960,7 @@
       <c r="Q41" s="148"/>
       <c r="R41" s="149"/>
       <c r="S41" s="76"/>
-      <c r="T41" s="266"/>
+      <c r="T41" s="209"/>
       <c r="U41" s="73"/>
       <c r="V41" s="72"/>
       <c r="W41" s="72"/>
@@ -5995,8 +5995,8 @@
     </row>
     <row r="42" spans="1:51" ht="16.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="211" t="s">
+      <c r="B42" s="278"/>
+      <c r="C42" s="285" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -6005,7 +6005,7 @@
       <c r="E42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="291"/>
+      <c r="F42" s="234"/>
       <c r="G42" s="89"/>
       <c r="H42" s="85"/>
       <c r="I42" s="85"/>
@@ -6043,7 +6043,7 @@
       <c r="AO42" s="155"/>
       <c r="AP42" s="156"/>
       <c r="AQ42" s="156"/>
-      <c r="AR42" s="265"/>
+      <c r="AR42" s="208"/>
       <c r="AS42" s="155"/>
       <c r="AT42" s="159"/>
       <c r="AU42" s="158"/>
@@ -6054,15 +6054,15 @@
     </row>
     <row r="43" spans="1:51" ht="16.5" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="212" t="s">
+      <c r="B43" s="278"/>
+      <c r="C43" s="281"/>
+      <c r="D43" s="286" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="292"/>
+      <c r="F43" s="235"/>
       <c r="G43" s="96"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -6111,13 +6111,13 @@
     </row>
     <row r="44" spans="1:51" ht="16.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="201"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="281"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="286"/>
+      <c r="F44" s="229"/>
       <c r="G44" s="96"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
@@ -6165,13 +6165,13 @@
       <c r="AY44" s="55"/>
     </row>
     <row r="45" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B45" s="197"/>
-      <c r="C45" s="201"/>
-      <c r="D45" s="201"/>
+      <c r="B45" s="278"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
       <c r="E45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="286"/>
+      <c r="F45" s="229"/>
       <c r="G45" s="96"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -6220,13 +6220,13 @@
     </row>
     <row r="46" spans="1:51" ht="16.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="197"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="203"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="281"/>
+      <c r="D46" s="287"/>
       <c r="E46" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="292"/>
+      <c r="F46" s="235"/>
       <c r="G46" s="96"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -6274,15 +6274,15 @@
       <c r="AY46" s="55"/>
     </row>
     <row r="47" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B47" s="197"/>
-      <c r="C47" s="201"/>
+      <c r="B47" s="278"/>
+      <c r="C47" s="281"/>
       <c r="D47" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="248" t="s">
+      <c r="E47" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="293"/>
+      <c r="F47" s="236"/>
       <c r="G47" s="96"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -6331,15 +6331,15 @@
     </row>
     <row r="48" spans="1:51" ht="16.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="197"/>
-      <c r="C48" s="201"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="248" t="s">
+      <c r="E48" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="293"/>
+      <c r="F48" s="236"/>
       <c r="G48" s="96"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
@@ -6366,7 +6366,7 @@
       <c r="AD48" s="31"/>
       <c r="AE48" s="32"/>
       <c r="AF48" s="46"/>
-      <c r="AG48" s="306"/>
+      <c r="AG48" s="249"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32"/>
@@ -6388,15 +6388,15 @@
     </row>
     <row r="49" spans="1:51" ht="16.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="197"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="212" t="s">
+      <c r="B49" s="278"/>
+      <c r="C49" s="281"/>
+      <c r="D49" s="286" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="293"/>
+      <c r="F49" s="236"/>
       <c r="G49" s="96"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
@@ -6444,13 +6444,13 @@
       <c r="AY49" s="55"/>
     </row>
     <row r="50" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="234"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="281"/>
+      <c r="D50" s="288"/>
       <c r="E50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="291"/>
+      <c r="F50" s="234"/>
       <c r="G50" s="96"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
@@ -6484,7 +6484,7 @@
       <c r="AK50" s="189"/>
       <c r="AL50" s="32"/>
       <c r="AM50" s="55"/>
-      <c r="AN50" s="304"/>
+      <c r="AN50" s="247"/>
       <c r="AO50" s="116"/>
       <c r="AP50" s="32"/>
       <c r="AQ50" s="32"/>
@@ -6498,13 +6498,13 @@
       <c r="AY50" s="55"/>
     </row>
     <row r="51" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="234"/>
+      <c r="B51" s="278"/>
+      <c r="C51" s="281"/>
+      <c r="D51" s="288"/>
       <c r="E51" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="291"/>
+      <c r="F51" s="234"/>
       <c r="G51" s="96"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
@@ -6539,7 +6539,7 @@
       <c r="AL51" s="32"/>
       <c r="AM51" s="55"/>
       <c r="AN51" s="54"/>
-      <c r="AO51" s="305"/>
+      <c r="AO51" s="248"/>
       <c r="AP51" s="32"/>
       <c r="AQ51" s="32"/>
       <c r="AR51" s="32"/>
@@ -6553,13 +6553,13 @@
     </row>
     <row r="52" spans="1:51" ht="16.5" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
+      <c r="B52" s="278"/>
+      <c r="C52" s="281"/>
+      <c r="D52" s="281"/>
       <c r="E52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="291"/>
+      <c r="F52" s="234"/>
       <c r="G52" s="96"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
@@ -6608,13 +6608,13 @@
     </row>
     <row r="53" spans="1:51" ht="16.5" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="203"/>
+      <c r="B53" s="278"/>
+      <c r="C53" s="281"/>
+      <c r="D53" s="287"/>
       <c r="E53" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="292"/>
+      <c r="F53" s="235"/>
       <c r="G53" s="96"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
@@ -6649,7 +6649,7 @@
       <c r="AL53" s="32"/>
       <c r="AM53" s="55"/>
       <c r="AN53" s="54"/>
-      <c r="AO53" s="305"/>
+      <c r="AO53" s="248"/>
       <c r="AP53" s="116"/>
       <c r="AQ53" s="32"/>
       <c r="AR53" s="31"/>
@@ -6663,15 +6663,15 @@
     </row>
     <row r="54" spans="1:51" ht="16.5" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="197"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="204" t="s">
+      <c r="B54" s="278"/>
+      <c r="C54" s="281"/>
+      <c r="D54" s="289" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="292"/>
+      <c r="F54" s="235"/>
       <c r="G54" s="96"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
@@ -6691,8 +6691,8 @@
       <c r="W54" s="31"/>
       <c r="X54" s="32"/>
       <c r="Y54" s="55"/>
-      <c r="Z54" s="303"/>
-      <c r="AA54" s="302"/>
+      <c r="Z54" s="246"/>
+      <c r="AA54" s="245"/>
       <c r="AB54" s="32"/>
       <c r="AC54" s="32"/>
       <c r="AD54" s="31"/>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="55" spans="1:51" ht="16.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="197"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
+      <c r="B55" s="278"/>
+      <c r="C55" s="281"/>
+      <c r="D55" s="281"/>
       <c r="E55" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="292"/>
+      <c r="F55" s="235"/>
       <c r="G55" s="96"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
@@ -6748,7 +6748,7 @@
       <c r="Y55" s="55"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="189"/>
-      <c r="AB55" s="302"/>
+      <c r="AB55" s="245"/>
       <c r="AC55" s="32"/>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
@@ -6774,13 +6774,13 @@
       <c r="AY55" s="55"/>
     </row>
     <row r="56" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B56" s="197"/>
-      <c r="C56" s="201"/>
-      <c r="D56" s="201"/>
+      <c r="B56" s="278"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="281"/>
       <c r="E56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="292"/>
+      <c r="F56" s="235"/>
       <c r="G56" s="96"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
@@ -6802,7 +6802,7 @@
       <c r="Y56" s="55"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="32"/>
-      <c r="AB56" s="302"/>
+      <c r="AB56" s="245"/>
       <c r="AC56" s="189"/>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
@@ -6828,13 +6828,13 @@
       <c r="AY56" s="55"/>
     </row>
     <row r="57" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B57" s="197"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="201"/>
+      <c r="B57" s="278"/>
+      <c r="C57" s="281"/>
+      <c r="D57" s="281"/>
       <c r="E57" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="292"/>
+      <c r="F57" s="235"/>
       <c r="G57" s="96"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
@@ -6882,13 +6882,13 @@
       <c r="AY57" s="55"/>
     </row>
     <row r="58" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B58" s="197"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
+      <c r="B58" s="278"/>
+      <c r="C58" s="281"/>
+      <c r="D58" s="281"/>
       <c r="E58" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="292"/>
+      <c r="F58" s="235"/>
       <c r="G58" s="96"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
@@ -6936,13 +6936,13 @@
       <c r="AY58" s="55"/>
     </row>
     <row r="59" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B59" s="197"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="281"/>
+      <c r="D59" s="281"/>
       <c r="E59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="292"/>
+      <c r="F59" s="235"/>
       <c r="G59" s="96"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
@@ -6990,13 +6990,13 @@
       <c r="AY59" s="55"/>
     </row>
     <row r="60" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B60" s="197"/>
-      <c r="C60" s="201"/>
-      <c r="D60" s="201"/>
+      <c r="B60" s="278"/>
+      <c r="C60" s="281"/>
+      <c r="D60" s="281"/>
       <c r="E60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="292"/>
+      <c r="F60" s="235"/>
       <c r="G60" s="96"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
@@ -7045,13 +7045,13 @@
     </row>
     <row r="61" spans="1:51" ht="16.5" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="197"/>
-      <c r="C61" s="201"/>
-      <c r="D61" s="203"/>
+      <c r="B61" s="278"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="287"/>
       <c r="E61" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="292"/>
+      <c r="F61" s="235"/>
       <c r="G61" s="96"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
@@ -7099,15 +7099,15 @@
       <c r="AY61" s="55"/>
     </row>
     <row r="62" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B62" s="197"/>
-      <c r="C62" s="201"/>
-      <c r="D62" s="204" t="s">
+      <c r="B62" s="278"/>
+      <c r="C62" s="281"/>
+      <c r="D62" s="289" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="292"/>
+      <c r="F62" s="235"/>
       <c r="G62" s="96"/>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
@@ -7121,8 +7121,8 @@
       <c r="Q62" s="32"/>
       <c r="R62" s="46"/>
       <c r="S62" s="53"/>
-      <c r="T62" s="302"/>
-      <c r="U62" s="302"/>
+      <c r="T62" s="245"/>
+      <c r="U62" s="245"/>
       <c r="V62" s="31"/>
       <c r="W62" s="32"/>
       <c r="X62" s="32"/>
@@ -7155,13 +7155,13 @@
       <c r="AY62" s="55"/>
     </row>
     <row r="63" spans="1:51" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B63" s="197"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="250" t="s">
+      <c r="B63" s="278"/>
+      <c r="C63" s="281"/>
+      <c r="D63" s="290"/>
+      <c r="E63" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="292"/>
+      <c r="F63" s="235"/>
       <c r="G63" s="96"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
@@ -7176,8 +7176,8 @@
       <c r="R63" s="46"/>
       <c r="S63" s="53"/>
       <c r="T63" s="31"/>
-      <c r="U63" s="302"/>
-      <c r="V63" s="302"/>
+      <c r="U63" s="245"/>
+      <c r="V63" s="245"/>
       <c r="W63" s="32"/>
       <c r="X63" s="32"/>
       <c r="Y63" s="55"/>
@@ -7210,13 +7210,13 @@
     </row>
     <row r="64" spans="1:51" ht="16.5" customHeight="1" thickBot="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="197"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="249"/>
+      <c r="B64" s="278"/>
+      <c r="C64" s="281"/>
+      <c r="D64" s="291"/>
       <c r="E64" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="292"/>
+      <c r="F64" s="235"/>
       <c r="G64" s="96"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
@@ -7232,8 +7232,8 @@
       <c r="S64" s="54"/>
       <c r="T64" s="31"/>
       <c r="U64" s="32"/>
-      <c r="V64" s="302"/>
-      <c r="W64" s="302"/>
+      <c r="V64" s="245"/>
+      <c r="W64" s="245"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="55"/>
       <c r="Z64" s="47"/>
@@ -7265,15 +7265,15 @@
     </row>
     <row r="65" spans="1:51" ht="16.5" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="256" t="s">
+      <c r="B65" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="257"/>
-      <c r="D65" s="258"/>
-      <c r="E65" s="209" t="s">
+      <c r="C65" s="255"/>
+      <c r="D65" s="256"/>
+      <c r="E65" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="286"/>
+      <c r="F65" s="229"/>
       <c r="G65" s="89"/>
       <c r="H65" s="85"/>
       <c r="I65" s="85"/>
@@ -7299,21 +7299,21 @@
       <c r="AC65" s="155"/>
       <c r="AD65" s="155"/>
       <c r="AE65" s="170"/>
-      <c r="AF65" s="308"/>
+      <c r="AF65" s="251"/>
       <c r="AG65" s="158"/>
       <c r="AH65" s="155"/>
       <c r="AI65" s="155"/>
       <c r="AJ65" s="155"/>
       <c r="AK65" s="155"/>
       <c r="AL65" s="170"/>
-      <c r="AM65" s="308"/>
+      <c r="AM65" s="251"/>
       <c r="AN65" s="158"/>
       <c r="AO65" s="155"/>
       <c r="AP65" s="155"/>
       <c r="AQ65" s="155"/>
       <c r="AR65" s="155"/>
       <c r="AS65" s="170"/>
-      <c r="AT65" s="308"/>
+      <c r="AT65" s="251"/>
       <c r="AU65" s="158"/>
       <c r="AV65" s="155"/>
       <c r="AW65" s="155"/>
@@ -7322,11 +7322,11 @@
     </row>
     <row r="66" spans="1:51" ht="16.5" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="259"/>
-      <c r="C66" s="260"/>
-      <c r="D66" s="261"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="292"/>
+      <c r="B66" s="257"/>
+      <c r="C66" s="258"/>
+      <c r="D66" s="259"/>
+      <c r="E66" s="284"/>
+      <c r="F66" s="235"/>
       <c r="G66" s="96"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
@@ -7352,21 +7352,21 @@
       <c r="AC66" s="32"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="172"/>
-      <c r="AF66" s="307"/>
+      <c r="AF66" s="250"/>
       <c r="AG66" s="54"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
       <c r="AJ66" s="32"/>
       <c r="AK66" s="32"/>
       <c r="AL66" s="172"/>
-      <c r="AM66" s="307"/>
+      <c r="AM66" s="250"/>
       <c r="AN66" s="54"/>
       <c r="AO66" s="32"/>
       <c r="AP66" s="32"/>
       <c r="AQ66" s="32"/>
       <c r="AR66" s="32"/>
       <c r="AS66" s="172"/>
-      <c r="AT66" s="307"/>
+      <c r="AT66" s="250"/>
       <c r="AU66" s="54"/>
       <c r="AV66" s="32"/>
       <c r="AW66" s="32"/>
@@ -7375,11 +7375,11 @@
     </row>
     <row r="67" spans="1:51" ht="16.5" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="259"/>
-      <c r="C67" s="260"/>
-      <c r="D67" s="261"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="289"/>
+      <c r="B67" s="257"/>
+      <c r="C67" s="258"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="284"/>
+      <c r="F67" s="232"/>
       <c r="G67" s="96"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
@@ -7405,21 +7405,21 @@
       <c r="AC67" s="32"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="172"/>
-      <c r="AF67" s="309"/>
+      <c r="AF67" s="252"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
       <c r="AJ67" s="32"/>
       <c r="AK67" s="32"/>
       <c r="AL67" s="172"/>
-      <c r="AM67" s="309"/>
+      <c r="AM67" s="252"/>
       <c r="AN67" s="54"/>
       <c r="AO67" s="32"/>
       <c r="AP67" s="32"/>
       <c r="AQ67" s="32"/>
       <c r="AR67" s="32"/>
       <c r="AS67" s="172"/>
-      <c r="AT67" s="309"/>
+      <c r="AT67" s="252"/>
       <c r="AU67" s="54"/>
       <c r="AV67" s="32"/>
       <c r="AW67" s="32"/>
@@ -7428,13 +7428,13 @@
     </row>
     <row r="68" spans="1:51" ht="16.5" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="259"/>
-      <c r="C68" s="260"/>
-      <c r="D68" s="261"/>
+      <c r="B68" s="257"/>
+      <c r="C68" s="258"/>
+      <c r="D68" s="259"/>
       <c r="E68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="294"/>
+      <c r="F68" s="237"/>
       <c r="G68" s="96"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
@@ -7483,13 +7483,13 @@
     </row>
     <row r="69" spans="1:51" ht="16.5" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="262"/>
-      <c r="C69" s="263"/>
-      <c r="D69" s="264"/>
+      <c r="B69" s="260"/>
+      <c r="C69" s="261"/>
+      <c r="D69" s="262"/>
       <c r="E69" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="295"/>
+      <c r="F69" s="238"/>
       <c r="G69" s="173"/>
       <c r="H69" s="174"/>
       <c r="I69" s="174"/>
@@ -17454,6 +17454,26 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B8:D19"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="C42:C64"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B20:B64"/>
+    <mergeCell ref="C20:C41"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D28"/>
     <mergeCell ref="BC3:BD3"/>
     <mergeCell ref="B65:D69"/>
     <mergeCell ref="H3:I3"/>
@@ -17470,26 +17490,6 @@
     <mergeCell ref="AG5:AM5"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="C42:C64"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B20:B64"/>
-    <mergeCell ref="C20:C41"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B8:D19"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17525,11 +17525,11 @@
   <sheetData>
     <row r="1" spans="2:56" ht="6" customHeight="1"/>
     <row r="2" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="309" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -17567,25 +17567,25 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="162"/>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="193"/>
+      <c r="I3" s="253"/>
       <c r="J3" s="186"/>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="193"/>
+      <c r="L3" s="253"/>
       <c r="M3" s="185"/>
-      <c r="N3" s="193" t="s">
+      <c r="N3" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="253"/>
       <c r="P3" s="184"/>
-      <c r="Q3" s="193" t="s">
+      <c r="Q3" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="193"/>
+      <c r="R3" s="253"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -17594,147 +17594,147 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="BC3" s="193"/>
-      <c r="BD3" s="193"/>
+      <c r="BC3" s="253"/>
+      <c r="BD3" s="253"/>
     </row>
     <row r="4" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="214" t="s">
+      <c r="F4" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="255"/>
-      <c r="S4" s="255"/>
-      <c r="T4" s="255"/>
-      <c r="U4" s="255"/>
-      <c r="V4" s="255"/>
-      <c r="W4" s="255"/>
-      <c r="X4" s="255"/>
-      <c r="Y4" s="255"/>
-      <c r="Z4" s="255"/>
-      <c r="AA4" s="255"/>
-      <c r="AB4" s="255"/>
-      <c r="AC4" s="255"/>
-      <c r="AD4" s="255"/>
-      <c r="AE4" s="255"/>
-      <c r="AF4" s="255"/>
-      <c r="AG4" s="255"/>
-      <c r="AH4" s="255"/>
-      <c r="AI4" s="255"/>
-      <c r="AJ4" s="255"/>
-      <c r="AK4" s="255"/>
-      <c r="AL4" s="252" t="s">
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="266"/>
+      <c r="Z4" s="266"/>
+      <c r="AA4" s="266"/>
+      <c r="AB4" s="266"/>
+      <c r="AC4" s="266"/>
+      <c r="AD4" s="266"/>
+      <c r="AE4" s="266"/>
+      <c r="AF4" s="266"/>
+      <c r="AG4" s="266"/>
+      <c r="AH4" s="266"/>
+      <c r="AI4" s="266"/>
+      <c r="AJ4" s="266"/>
+      <c r="AK4" s="266"/>
+      <c r="AL4" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="252"/>
-      <c r="AN4" s="252"/>
-      <c r="AO4" s="252"/>
-      <c r="AP4" s="252"/>
-      <c r="AQ4" s="252"/>
-      <c r="AR4" s="252"/>
-      <c r="AS4" s="252"/>
-      <c r="AT4" s="252"/>
-      <c r="AU4" s="218"/>
-      <c r="AV4" s="218"/>
-      <c r="AW4" s="218"/>
-      <c r="AX4" s="218"/>
-      <c r="AY4" s="219"/>
+      <c r="AM4" s="270"/>
+      <c r="AN4" s="270"/>
+      <c r="AO4" s="270"/>
+      <c r="AP4" s="270"/>
+      <c r="AQ4" s="270"/>
+      <c r="AR4" s="270"/>
+      <c r="AS4" s="270"/>
+      <c r="AT4" s="270"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
+      <c r="AX4" s="271"/>
+      <c r="AY4" s="272"/>
     </row>
     <row r="5" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="197"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="251" t="s">
+      <c r="B5" s="278"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="263" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="251" t="s">
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="222"/>
-      <c r="S5" s="223" t="s">
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="274" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="220"/>
-      <c r="W5" s="220"/>
-      <c r="X5" s="220"/>
-      <c r="Y5" s="222"/>
-      <c r="Z5" s="253" t="s">
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="264"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="275" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="220"/>
-      <c r="AD5" s="220"/>
-      <c r="AE5" s="220"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="251" t="s">
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="264"/>
+      <c r="AF5" s="276"/>
+      <c r="AG5" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="AH5" s="220"/>
-      <c r="AI5" s="220"/>
-      <c r="AJ5" s="220"/>
-      <c r="AK5" s="220"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="221"/>
-      <c r="AN5" s="251" t="s">
+      <c r="AH5" s="264"/>
+      <c r="AI5" s="264"/>
+      <c r="AJ5" s="264"/>
+      <c r="AK5" s="264"/>
+      <c r="AL5" s="264"/>
+      <c r="AM5" s="276"/>
+      <c r="AN5" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="220"/>
-      <c r="AP5" s="220"/>
-      <c r="AQ5" s="220"/>
-      <c r="AR5" s="220"/>
-      <c r="AS5" s="220"/>
-      <c r="AT5" s="221"/>
-      <c r="AU5" s="215" t="s">
+      <c r="AO5" s="264"/>
+      <c r="AP5" s="264"/>
+      <c r="AQ5" s="264"/>
+      <c r="AR5" s="264"/>
+      <c r="AS5" s="264"/>
+      <c r="AT5" s="276"/>
+      <c r="AU5" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="216"/>
-      <c r="AW5" s="216"/>
-      <c r="AX5" s="216"/>
-      <c r="AY5" s="217"/>
+      <c r="AV5" s="268"/>
+      <c r="AW5" s="268"/>
+      <c r="AX5" s="268"/>
+      <c r="AY5" s="269"/>
     </row>
     <row r="6" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="198"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -17872,13 +17872,13 @@
       </c>
     </row>
     <row r="7" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="196"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="57" t="s">
         <v>5</v>
       </c>
@@ -18016,11 +18016,11 @@
       </c>
     </row>
     <row r="8" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="302"/>
       <c r="E8" s="190" t="s">
         <v>13</v>
       </c>
@@ -18072,9 +18072,9 @@
       <c r="AY8" s="68"/>
     </row>
     <row r="9" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="229"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="305"/>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
@@ -18126,9 +18126,9 @@
       <c r="AY9" s="37"/>
     </row>
     <row r="10" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="305"/>
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
@@ -18180,9 +18180,9 @@
       <c r="AY10" s="37"/>
     </row>
     <row r="11" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="229"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="305"/>
       <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
@@ -18234,9 +18234,9 @@
       <c r="AY11" s="37"/>
     </row>
     <row r="12" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="305"/>
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
@@ -18288,9 +18288,9 @@
       <c r="AY12" s="37"/>
     </row>
     <row r="13" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="305"/>
       <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
@@ -18342,9 +18342,9 @@
       <c r="AY13" s="37"/>
     </row>
     <row r="14" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="305"/>
       <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
@@ -18396,9 +18396,9 @@
       <c r="AY14" s="37"/>
     </row>
     <row r="15" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="305"/>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
@@ -18450,9 +18450,9 @@
       <c r="AY15" s="38"/>
     </row>
     <row r="16" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B16" s="227"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="229"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="305"/>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
@@ -18504,9 +18504,9 @@
       <c r="AY16" s="38"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="227"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="229"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="305"/>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
@@ -18558,9 +18558,9 @@
       <c r="AY17" s="38"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="227"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="305"/>
       <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
@@ -18612,9 +18612,9 @@
       <c r="AY18" s="38"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="308"/>
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
@@ -18666,19 +18666,19 @@
       <c r="AY19" s="39"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="200" t="s">
+      <c r="C20" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="202" t="s">
+      <c r="D20" s="297" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="285"/>
+      <c r="F20" s="228"/>
       <c r="G20" s="90"/>
       <c r="H20" s="84"/>
       <c r="I20" s="85"/>
@@ -18726,14 +18726,14 @@
       <c r="AY20" s="164"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="197"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="286"/>
-      <c r="G21" s="282"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="225"/>
       <c r="H21" s="30"/>
       <c r="I21" s="28"/>
       <c r="J21" s="30"/>
@@ -18780,14 +18780,14 @@
       <c r="AY21" s="166"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="197"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="235" t="s">
+      <c r="B22" s="278"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="287"/>
-      <c r="G22" s="282"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="225"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -18800,7 +18800,7 @@
       <c r="Q22" s="99"/>
       <c r="R22" s="100"/>
       <c r="S22" s="93"/>
-      <c r="T22" s="279"/>
+      <c r="T22" s="222"/>
       <c r="U22" s="94"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
@@ -18834,16 +18834,16 @@
       <c r="AY22" s="95"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="197"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="204" t="s">
+      <c r="B23" s="278"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="289" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="286"/>
-      <c r="G23" s="282"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="225"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -18857,8 +18857,8 @@
       <c r="R23" s="106"/>
       <c r="S23" s="54"/>
       <c r="T23" s="32"/>
-      <c r="U23" s="280"/>
-      <c r="V23" s="281"/>
+      <c r="U23" s="223"/>
+      <c r="V23" s="224"/>
       <c r="W23" s="32"/>
       <c r="X23" s="32"/>
       <c r="Y23" s="55"/>
@@ -18890,14 +18890,14 @@
       <c r="AY23" s="55"/>
     </row>
     <row r="24" spans="2:51" ht="20.25">
-      <c r="B24" s="197"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
+      <c r="B24" s="278"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
       <c r="E24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="286"/>
-      <c r="G24" s="282"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="225"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="30"/>
@@ -18912,8 +18912,8 @@
       <c r="S24" s="53"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
-      <c r="V24" s="281"/>
-      <c r="W24" s="281"/>
+      <c r="V24" s="224"/>
+      <c r="W24" s="224"/>
       <c r="X24" s="32"/>
       <c r="Y24" s="55"/>
       <c r="Z24" s="47"/>
@@ -18944,16 +18944,16 @@
       <c r="AY24" s="122"/>
     </row>
     <row r="25" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B25" s="197"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="204" t="s">
+      <c r="B25" s="278"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="289" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="286"/>
-      <c r="G25" s="282"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="225"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -18972,8 +18972,8 @@
       <c r="W25" s="108"/>
       <c r="X25" s="109"/>
       <c r="Y25" s="110"/>
-      <c r="Z25" s="296"/>
-      <c r="AA25" s="297"/>
+      <c r="Z25" s="239"/>
+      <c r="AA25" s="240"/>
       <c r="AB25" s="111"/>
       <c r="AC25" s="109"/>
       <c r="AD25" s="109"/>
@@ -19000,14 +19000,14 @@
       <c r="AY25" s="123"/>
     </row>
     <row r="26" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B26" s="197"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
       <c r="E26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="286"/>
-      <c r="G26" s="282"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="225"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -19027,8 +19027,8 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="55"/>
       <c r="Z26" s="47"/>
-      <c r="AA26" s="298"/>
-      <c r="AB26" s="298"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="241"/>
       <c r="AC26" s="32"/>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
@@ -19054,14 +19054,14 @@
       <c r="AY26" s="122"/>
     </row>
     <row r="27" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B27" s="197"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
       <c r="E27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="287"/>
-      <c r="G27" s="282"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="225"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -19082,9 +19082,9 @@
       <c r="Y27" s="55"/>
       <c r="Z27" s="47"/>
       <c r="AA27" s="107"/>
-      <c r="AB27" s="298"/>
-      <c r="AC27" s="280"/>
-      <c r="AD27" s="280"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="223"/>
+      <c r="AD27" s="223"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="46"/>
       <c r="AG27" s="54"/>
@@ -19108,14 +19108,14 @@
       <c r="AY27" s="122"/>
     </row>
     <row r="28" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B28" s="197"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="235" t="s">
+      <c r="B28" s="278"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="286"/>
-      <c r="G28" s="283"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="226"/>
       <c r="H28" s="167"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -19141,9 +19141,9 @@
       <c r="AD28" s="109"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="46"/>
-      <c r="AG28" s="299"/>
-      <c r="AH28" s="300"/>
-      <c r="AI28" s="301"/>
+      <c r="AG28" s="242"/>
+      <c r="AH28" s="243"/>
+      <c r="AI28" s="244"/>
       <c r="AJ28" s="32"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -19162,16 +19162,16 @@
       <c r="AY28" s="122"/>
     </row>
     <row r="29" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B29" s="197"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="206" t="s">
+      <c r="B29" s="278"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="298" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="288"/>
-      <c r="G29" s="282"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="225"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -19218,14 +19218,14 @@
       <c r="AY29" s="168"/>
     </row>
     <row r="30" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B30" s="197"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
       <c r="E30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="288"/>
-      <c r="G30" s="282"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="225"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -19272,14 +19272,14 @@
       <c r="AY30" s="168"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="197"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
       <c r="E31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="288"/>
-      <c r="G31" s="282"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="225"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -19326,14 +19326,14 @@
       <c r="AY31" s="168"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="197"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="281"/>
       <c r="E32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="288"/>
-      <c r="G32" s="282"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="225"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -19380,14 +19380,14 @@
       <c r="AY32" s="168"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="197"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
       <c r="E33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="287"/>
-      <c r="G33" s="282"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="225"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -19421,8 +19421,8 @@
       <c r="AL33" s="32"/>
       <c r="AM33" s="55"/>
       <c r="AN33" s="132"/>
-      <c r="AO33" s="276"/>
-      <c r="AP33" s="276"/>
+      <c r="AO33" s="219"/>
+      <c r="AP33" s="219"/>
       <c r="AQ33" s="116"/>
       <c r="AR33" s="116"/>
       <c r="AS33" s="32"/>
@@ -19434,14 +19434,14 @@
       <c r="AY33" s="168"/>
     </row>
     <row r="34" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B34" s="197"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="281"/>
+      <c r="D34" s="281"/>
       <c r="E34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="287"/>
-      <c r="G34" s="282"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="225"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -19477,8 +19477,8 @@
       <c r="AN34" s="132"/>
       <c r="AO34" s="116"/>
       <c r="AP34" s="116"/>
-      <c r="AQ34" s="276"/>
-      <c r="AR34" s="276"/>
+      <c r="AQ34" s="219"/>
+      <c r="AR34" s="219"/>
       <c r="AS34" s="32"/>
       <c r="AT34" s="55"/>
       <c r="AU34" s="132"/>
@@ -19488,14 +19488,14 @@
       <c r="AY34" s="168"/>
     </row>
     <row r="35" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B35" s="197"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="281"/>
       <c r="E35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="286"/>
-      <c r="G35" s="282"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="225"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -19528,7 +19528,7 @@
       <c r="AK35" s="116"/>
       <c r="AL35" s="32"/>
       <c r="AM35" s="55"/>
-      <c r="AN35" s="277"/>
+      <c r="AN35" s="220"/>
       <c r="AO35" s="124"/>
       <c r="AP35" s="104"/>
       <c r="AQ35" s="104"/>
@@ -19542,14 +19542,14 @@
       <c r="AY35" s="168"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="197"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="281"/>
+      <c r="D36" s="281"/>
       <c r="E36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="286"/>
-      <c r="G36" s="282"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="225"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -19577,8 +19577,8 @@
       <c r="AF36" s="138"/>
       <c r="AG36" s="53"/>
       <c r="AH36" s="124"/>
-      <c r="AI36" s="278"/>
-      <c r="AJ36" s="278"/>
+      <c r="AI36" s="221"/>
+      <c r="AJ36" s="221"/>
       <c r="AK36" s="116"/>
       <c r="AL36" s="32"/>
       <c r="AM36" s="55"/>
@@ -19596,14 +19596,14 @@
       <c r="AY36" s="168"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="197"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="236" t="s">
+      <c r="B37" s="278"/>
+      <c r="C37" s="281"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="286"/>
-      <c r="G37" s="282"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="225"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -19632,8 +19632,8 @@
       <c r="AG37" s="53"/>
       <c r="AH37" s="124"/>
       <c r="AI37" s="124"/>
-      <c r="AJ37" s="278"/>
-      <c r="AK37" s="276"/>
+      <c r="AJ37" s="221"/>
+      <c r="AK37" s="219"/>
       <c r="AL37" s="32"/>
       <c r="AM37" s="55"/>
       <c r="AN37" s="53"/>
@@ -19650,15 +19650,15 @@
       <c r="AY37" s="168"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="197"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="233" t="s">
+      <c r="B38" s="278"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="192" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="289"/>
+      <c r="F38" s="232"/>
       <c r="G38" s="96"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -19706,15 +19706,15 @@
       <c r="AY38" s="55"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="197"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="206" t="s">
+      <c r="B39" s="278"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="298" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="289"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="96"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -19762,68 +19762,68 @@
       <c r="AY39" s="55"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="197"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="237" t="s">
+      <c r="B40" s="278"/>
+      <c r="C40" s="281"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="289"/>
+      <c r="F40" s="232"/>
       <c r="G40" s="101"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="102"/>
-      <c r="L40" s="238"/>
-      <c r="M40" s="239"/>
-      <c r="N40" s="239"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="240"/>
-      <c r="Q40" s="239"/>
-      <c r="R40" s="241"/>
-      <c r="S40" s="242"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="199"/>
+      <c r="S40" s="200"/>
       <c r="T40" s="142"/>
       <c r="U40" s="142"/>
       <c r="V40" s="142"/>
       <c r="W40" s="142"/>
       <c r="X40" s="142"/>
-      <c r="Y40" s="244"/>
-      <c r="Z40" s="245"/>
-      <c r="AA40" s="240"/>
-      <c r="AB40" s="243"/>
-      <c r="AC40" s="240"/>
-      <c r="AD40" s="243"/>
-      <c r="AE40" s="243"/>
-      <c r="AF40" s="246"/>
-      <c r="AG40" s="247"/>
-      <c r="AH40" s="243"/>
-      <c r="AI40" s="243"/>
-      <c r="AJ40" s="243"/>
-      <c r="AK40" s="243"/>
-      <c r="AL40" s="243"/>
-      <c r="AM40" s="244"/>
+      <c r="Y40" s="202"/>
+      <c r="Z40" s="203"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="201"/>
+      <c r="AC40" s="198"/>
+      <c r="AD40" s="201"/>
+      <c r="AE40" s="201"/>
+      <c r="AF40" s="204"/>
+      <c r="AG40" s="205"/>
+      <c r="AH40" s="201"/>
+      <c r="AI40" s="201"/>
+      <c r="AJ40" s="201"/>
+      <c r="AK40" s="201"/>
+      <c r="AL40" s="201"/>
+      <c r="AM40" s="202"/>
       <c r="AN40" s="131"/>
       <c r="AO40" s="31"/>
       <c r="AP40" s="31"/>
       <c r="AQ40" s="31"/>
       <c r="AR40" s="31"/>
       <c r="AS40" s="31"/>
-      <c r="AT40" s="244"/>
-      <c r="AU40" s="247"/>
-      <c r="AV40" s="243"/>
-      <c r="AW40" s="243"/>
-      <c r="AX40" s="243"/>
-      <c r="AY40" s="244"/>
+      <c r="AT40" s="202"/>
+      <c r="AU40" s="205"/>
+      <c r="AV40" s="201"/>
+      <c r="AW40" s="201"/>
+      <c r="AX40" s="201"/>
+      <c r="AY40" s="202"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B41" s="197"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="208"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="281"/>
+      <c r="D41" s="282"/>
       <c r="E41" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="290"/>
-      <c r="G41" s="284"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="145"/>
       <c r="I41" s="145"/>
       <c r="J41" s="145"/>
@@ -19836,7 +19836,7 @@
       <c r="Q41" s="148"/>
       <c r="R41" s="149"/>
       <c r="S41" s="76"/>
-      <c r="T41" s="266"/>
+      <c r="T41" s="209"/>
       <c r="U41" s="73"/>
       <c r="V41" s="72"/>
       <c r="W41" s="72"/>
@@ -19870,8 +19870,8 @@
       <c r="AY41" s="150"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="197"/>
-      <c r="C42" s="211" t="s">
+      <c r="B42" s="278"/>
+      <c r="C42" s="285" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -19880,7 +19880,7 @@
       <c r="E42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="291"/>
+      <c r="F42" s="234"/>
       <c r="G42" s="89"/>
       <c r="H42" s="85"/>
       <c r="I42" s="85"/>
@@ -19928,15 +19928,15 @@
       <c r="AY42" s="159"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="197"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="212" t="s">
+      <c r="B43" s="278"/>
+      <c r="C43" s="281"/>
+      <c r="D43" s="286" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="292"/>
+      <c r="F43" s="235"/>
       <c r="G43" s="96"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -19984,13 +19984,13 @@
       <c r="AY43" s="55"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="197"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="201"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="281"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="286"/>
+      <c r="F44" s="229"/>
       <c r="G44" s="96"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
@@ -20038,13 +20038,13 @@
       <c r="AY44" s="55"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="197"/>
-      <c r="C45" s="201"/>
-      <c r="D45" s="201"/>
+      <c r="B45" s="278"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
       <c r="E45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="286"/>
+      <c r="F45" s="229"/>
       <c r="G45" s="96"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -20092,13 +20092,13 @@
       <c r="AY45" s="55"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="197"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="203"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="281"/>
+      <c r="D46" s="287"/>
       <c r="E46" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="292"/>
+      <c r="F46" s="235"/>
       <c r="G46" s="96"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -20146,15 +20146,15 @@
       <c r="AY46" s="55"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="197"/>
-      <c r="C47" s="201"/>
+      <c r="B47" s="278"/>
+      <c r="C47" s="281"/>
       <c r="D47" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="248" t="s">
+      <c r="E47" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="293"/>
+      <c r="F47" s="236"/>
       <c r="G47" s="96"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -20202,15 +20202,15 @@
       <c r="AY47" s="55"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="197"/>
-      <c r="C48" s="201"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="248" t="s">
+      <c r="E48" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="293"/>
+      <c r="F48" s="236"/>
       <c r="G48" s="96"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
@@ -20258,15 +20258,15 @@
       <c r="AY48" s="55"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="197"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="212" t="s">
+      <c r="B49" s="278"/>
+      <c r="C49" s="281"/>
+      <c r="D49" s="286" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="293"/>
+      <c r="F49" s="236"/>
       <c r="G49" s="96"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
@@ -20314,13 +20314,13 @@
       <c r="AY49" s="55"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="234"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="281"/>
+      <c r="D50" s="288"/>
       <c r="E50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="291"/>
+      <c r="F50" s="234"/>
       <c r="G50" s="96"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
@@ -20368,13 +20368,13 @@
       <c r="AY50" s="55"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="234"/>
+      <c r="B51" s="278"/>
+      <c r="C51" s="281"/>
+      <c r="D51" s="288"/>
       <c r="E51" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="291"/>
+      <c r="F51" s="234"/>
       <c r="G51" s="96"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
@@ -20422,13 +20422,13 @@
       <c r="AY51" s="55"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="197"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
+      <c r="B52" s="278"/>
+      <c r="C52" s="281"/>
+      <c r="D52" s="281"/>
       <c r="E52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="291"/>
+      <c r="F52" s="234"/>
       <c r="G52" s="96"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
@@ -20476,13 +20476,13 @@
       <c r="AY52" s="55"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="197"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="203"/>
+      <c r="B53" s="278"/>
+      <c r="C53" s="281"/>
+      <c r="D53" s="287"/>
       <c r="E53" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="292"/>
+      <c r="F53" s="235"/>
       <c r="G53" s="96"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
@@ -20530,15 +20530,15 @@
       <c r="AY53" s="122"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="197"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="204" t="s">
+      <c r="B54" s="278"/>
+      <c r="C54" s="281"/>
+      <c r="D54" s="289" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="292"/>
+      <c r="F54" s="235"/>
       <c r="G54" s="96"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
@@ -20586,13 +20586,13 @@
       <c r="AY54" s="55"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="197"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
+      <c r="B55" s="278"/>
+      <c r="C55" s="281"/>
+      <c r="D55" s="281"/>
       <c r="E55" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="292"/>
+      <c r="F55" s="235"/>
       <c r="G55" s="96"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
@@ -20640,13 +20640,13 @@
       <c r="AY55" s="55"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="197"/>
-      <c r="C56" s="201"/>
-      <c r="D56" s="201"/>
+      <c r="B56" s="278"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="281"/>
       <c r="E56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="292"/>
+      <c r="F56" s="235"/>
       <c r="G56" s="96"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
@@ -20694,13 +20694,13 @@
       <c r="AY56" s="55"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="197"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="201"/>
+      <c r="B57" s="278"/>
+      <c r="C57" s="281"/>
+      <c r="D57" s="281"/>
       <c r="E57" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="292"/>
+      <c r="F57" s="235"/>
       <c r="G57" s="96"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
@@ -20748,13 +20748,13 @@
       <c r="AY57" s="55"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="197"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
+      <c r="B58" s="278"/>
+      <c r="C58" s="281"/>
+      <c r="D58" s="281"/>
       <c r="E58" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="292"/>
+      <c r="F58" s="235"/>
       <c r="G58" s="96"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
@@ -20802,13 +20802,13 @@
       <c r="AY58" s="55"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="197"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="281"/>
+      <c r="D59" s="281"/>
       <c r="E59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="292"/>
+      <c r="F59" s="235"/>
       <c r="G59" s="96"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
@@ -20856,13 +20856,13 @@
       <c r="AY59" s="55"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="197"/>
-      <c r="C60" s="201"/>
-      <c r="D60" s="201"/>
+      <c r="B60" s="278"/>
+      <c r="C60" s="281"/>
+      <c r="D60" s="281"/>
       <c r="E60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="292"/>
+      <c r="F60" s="235"/>
       <c r="G60" s="96"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
@@ -20910,13 +20910,13 @@
       <c r="AY60" s="55"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="197"/>
-      <c r="C61" s="201"/>
-      <c r="D61" s="203"/>
+      <c r="B61" s="278"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="287"/>
       <c r="E61" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="292"/>
+      <c r="F61" s="235"/>
       <c r="G61" s="96"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
@@ -20964,15 +20964,15 @@
       <c r="AY61" s="55"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="197"/>
-      <c r="C62" s="201"/>
-      <c r="D62" s="204" t="s">
+      <c r="B62" s="278"/>
+      <c r="C62" s="281"/>
+      <c r="D62" s="289" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="292"/>
+      <c r="F62" s="235"/>
       <c r="G62" s="96"/>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
@@ -21020,13 +21020,13 @@
       <c r="AY62" s="55"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="197"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="250" t="s">
+      <c r="B63" s="278"/>
+      <c r="C63" s="281"/>
+      <c r="D63" s="290"/>
+      <c r="E63" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="292"/>
+      <c r="F63" s="235"/>
       <c r="G63" s="96"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
@@ -21074,13 +21074,13 @@
       <c r="AY63" s="55"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B64" s="197"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="249"/>
+      <c r="B64" s="278"/>
+      <c r="C64" s="281"/>
+      <c r="D64" s="291"/>
       <c r="E64" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="292"/>
+      <c r="F64" s="235"/>
       <c r="G64" s="96"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
@@ -21128,15 +21128,15 @@
       <c r="AY64" s="55"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="256" t="s">
+      <c r="B65" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="257"/>
-      <c r="D65" s="258"/>
-      <c r="E65" s="209" t="s">
+      <c r="C65" s="255"/>
+      <c r="D65" s="256"/>
+      <c r="E65" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="286"/>
+      <c r="F65" s="229"/>
       <c r="G65" s="89"/>
       <c r="H65" s="85"/>
       <c r="I65" s="85"/>
@@ -21162,21 +21162,21 @@
       <c r="AC65" s="155"/>
       <c r="AD65" s="155"/>
       <c r="AE65" s="170"/>
-      <c r="AF65" s="308"/>
+      <c r="AF65" s="251"/>
       <c r="AG65" s="158"/>
       <c r="AH65" s="155"/>
       <c r="AI65" s="155"/>
       <c r="AJ65" s="155"/>
       <c r="AK65" s="155"/>
       <c r="AL65" s="170"/>
-      <c r="AM65" s="308"/>
+      <c r="AM65" s="251"/>
       <c r="AN65" s="158"/>
       <c r="AO65" s="155"/>
       <c r="AP65" s="155"/>
       <c r="AQ65" s="155"/>
       <c r="AR65" s="155"/>
       <c r="AS65" s="170"/>
-      <c r="AT65" s="308"/>
+      <c r="AT65" s="251"/>
       <c r="AU65" s="158"/>
       <c r="AV65" s="155"/>
       <c r="AW65" s="155"/>
@@ -21184,11 +21184,11 @@
       <c r="AY65" s="159"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="259"/>
-      <c r="C66" s="260"/>
-      <c r="D66" s="261"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="292"/>
+      <c r="B66" s="257"/>
+      <c r="C66" s="258"/>
+      <c r="D66" s="259"/>
+      <c r="E66" s="284"/>
+      <c r="F66" s="235"/>
       <c r="G66" s="96"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
@@ -21214,21 +21214,21 @@
       <c r="AC66" s="32"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="172"/>
-      <c r="AF66" s="307"/>
+      <c r="AF66" s="250"/>
       <c r="AG66" s="54"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
       <c r="AJ66" s="32"/>
       <c r="AK66" s="32"/>
       <c r="AL66" s="172"/>
-      <c r="AM66" s="307"/>
+      <c r="AM66" s="250"/>
       <c r="AN66" s="54"/>
       <c r="AO66" s="32"/>
       <c r="AP66" s="32"/>
       <c r="AQ66" s="32"/>
       <c r="AR66" s="32"/>
       <c r="AS66" s="172"/>
-      <c r="AT66" s="307"/>
+      <c r="AT66" s="250"/>
       <c r="AU66" s="54"/>
       <c r="AV66" s="32"/>
       <c r="AW66" s="32"/>
@@ -21236,11 +21236,11 @@
       <c r="AY66" s="55"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="259"/>
-      <c r="C67" s="260"/>
-      <c r="D67" s="261"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="289"/>
+      <c r="B67" s="257"/>
+      <c r="C67" s="258"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="284"/>
+      <c r="F67" s="232"/>
       <c r="G67" s="96"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
@@ -21266,21 +21266,21 @@
       <c r="AC67" s="32"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="172"/>
-      <c r="AF67" s="309"/>
+      <c r="AF67" s="252"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
       <c r="AJ67" s="32"/>
       <c r="AK67" s="32"/>
       <c r="AL67" s="172"/>
-      <c r="AM67" s="309"/>
+      <c r="AM67" s="252"/>
       <c r="AN67" s="54"/>
       <c r="AO67" s="32"/>
       <c r="AP67" s="32"/>
       <c r="AQ67" s="32"/>
       <c r="AR67" s="32"/>
       <c r="AS67" s="172"/>
-      <c r="AT67" s="309"/>
+      <c r="AT67" s="252"/>
       <c r="AU67" s="54"/>
       <c r="AV67" s="32"/>
       <c r="AW67" s="32"/>
@@ -21288,13 +21288,13 @@
       <c r="AY67" s="55"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="259"/>
-      <c r="C68" s="260"/>
-      <c r="D68" s="261"/>
+      <c r="B68" s="257"/>
+      <c r="C68" s="258"/>
+      <c r="D68" s="259"/>
       <c r="E68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="294"/>
+      <c r="F68" s="237"/>
       <c r="G68" s="96"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
@@ -21342,13 +21342,13 @@
       <c r="AY68" s="29"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B69" s="262"/>
-      <c r="C69" s="263"/>
-      <c r="D69" s="264"/>
+      <c r="B69" s="260"/>
+      <c r="C69" s="261"/>
+      <c r="D69" s="262"/>
       <c r="E69" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="295"/>
+      <c r="F69" s="238"/>
       <c r="G69" s="173"/>
       <c r="H69" s="174"/>
       <c r="I69" s="174"/>
@@ -22315,11 +22315,26 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B65:D69"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="AL4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:AK4"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:D19"/>
@@ -22331,26 +22346,11 @@
     <mergeCell ref="D29:D37"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="C42:C64"/>
-    <mergeCell ref="AL4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:AK4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B65:D69"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -22386,11 +22386,11 @@
   <sheetData>
     <row r="1" spans="2:56" ht="6" customHeight="1"/>
     <row r="2" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="309" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -22428,25 +22428,25 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="162"/>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="193"/>
+      <c r="I3" s="253"/>
       <c r="J3" s="186"/>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="193"/>
+      <c r="L3" s="253"/>
       <c r="M3" s="185"/>
-      <c r="N3" s="193" t="s">
+      <c r="N3" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="253"/>
       <c r="P3" s="184"/>
-      <c r="Q3" s="193" t="s">
+      <c r="Q3" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="193"/>
+      <c r="R3" s="253"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -22455,147 +22455,147 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="BC3" s="193"/>
-      <c r="BD3" s="193"/>
+      <c r="BC3" s="253"/>
+      <c r="BD3" s="253"/>
     </row>
     <row r="4" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="214" t="s">
+      <c r="F4" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="255"/>
-      <c r="S4" s="255"/>
-      <c r="T4" s="255"/>
-      <c r="U4" s="255"/>
-      <c r="V4" s="255"/>
-      <c r="W4" s="255"/>
-      <c r="X4" s="255"/>
-      <c r="Y4" s="255"/>
-      <c r="Z4" s="255"/>
-      <c r="AA4" s="255"/>
-      <c r="AB4" s="255"/>
-      <c r="AC4" s="255"/>
-      <c r="AD4" s="255"/>
-      <c r="AE4" s="255"/>
-      <c r="AF4" s="255"/>
-      <c r="AG4" s="255"/>
-      <c r="AH4" s="255"/>
-      <c r="AI4" s="255"/>
-      <c r="AJ4" s="255"/>
-      <c r="AK4" s="255"/>
-      <c r="AL4" s="252" t="s">
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="266"/>
+      <c r="Z4" s="266"/>
+      <c r="AA4" s="266"/>
+      <c r="AB4" s="266"/>
+      <c r="AC4" s="266"/>
+      <c r="AD4" s="266"/>
+      <c r="AE4" s="266"/>
+      <c r="AF4" s="266"/>
+      <c r="AG4" s="266"/>
+      <c r="AH4" s="266"/>
+      <c r="AI4" s="266"/>
+      <c r="AJ4" s="266"/>
+      <c r="AK4" s="266"/>
+      <c r="AL4" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="252"/>
-      <c r="AN4" s="252"/>
-      <c r="AO4" s="252"/>
-      <c r="AP4" s="252"/>
-      <c r="AQ4" s="252"/>
-      <c r="AR4" s="252"/>
-      <c r="AS4" s="252"/>
-      <c r="AT4" s="252"/>
-      <c r="AU4" s="218"/>
-      <c r="AV4" s="218"/>
-      <c r="AW4" s="218"/>
-      <c r="AX4" s="218"/>
-      <c r="AY4" s="219"/>
+      <c r="AM4" s="270"/>
+      <c r="AN4" s="270"/>
+      <c r="AO4" s="270"/>
+      <c r="AP4" s="270"/>
+      <c r="AQ4" s="270"/>
+      <c r="AR4" s="270"/>
+      <c r="AS4" s="270"/>
+      <c r="AT4" s="270"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
+      <c r="AX4" s="271"/>
+      <c r="AY4" s="272"/>
     </row>
     <row r="5" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="197"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="251" t="s">
+      <c r="B5" s="278"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="263" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="251" t="s">
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="222"/>
-      <c r="S5" s="223" t="s">
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="274" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="220"/>
-      <c r="W5" s="220"/>
-      <c r="X5" s="220"/>
-      <c r="Y5" s="222"/>
-      <c r="Z5" s="253" t="s">
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="264"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="275" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="220"/>
-      <c r="AD5" s="220"/>
-      <c r="AE5" s="220"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="251" t="s">
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="264"/>
+      <c r="AF5" s="276"/>
+      <c r="AG5" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="AH5" s="220"/>
-      <c r="AI5" s="220"/>
-      <c r="AJ5" s="220"/>
-      <c r="AK5" s="220"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="221"/>
-      <c r="AN5" s="251" t="s">
+      <c r="AH5" s="264"/>
+      <c r="AI5" s="264"/>
+      <c r="AJ5" s="264"/>
+      <c r="AK5" s="264"/>
+      <c r="AL5" s="264"/>
+      <c r="AM5" s="276"/>
+      <c r="AN5" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="220"/>
-      <c r="AP5" s="220"/>
-      <c r="AQ5" s="220"/>
-      <c r="AR5" s="220"/>
-      <c r="AS5" s="220"/>
-      <c r="AT5" s="221"/>
-      <c r="AU5" s="215" t="s">
+      <c r="AO5" s="264"/>
+      <c r="AP5" s="264"/>
+      <c r="AQ5" s="264"/>
+      <c r="AR5" s="264"/>
+      <c r="AS5" s="264"/>
+      <c r="AT5" s="276"/>
+      <c r="AU5" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="216"/>
-      <c r="AW5" s="216"/>
-      <c r="AX5" s="216"/>
-      <c r="AY5" s="217"/>
+      <c r="AV5" s="268"/>
+      <c r="AW5" s="268"/>
+      <c r="AX5" s="268"/>
+      <c r="AY5" s="269"/>
     </row>
     <row r="6" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="198"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -22733,13 +22733,13 @@
       </c>
     </row>
     <row r="7" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="196"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="57" t="s">
         <v>5</v>
       </c>
@@ -22877,11 +22877,11 @@
       </c>
     </row>
     <row r="8" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="302"/>
       <c r="E8" s="190" t="s">
         <v>13</v>
       </c>
@@ -22933,9 +22933,9 @@
       <c r="AY8" s="68"/>
     </row>
     <row r="9" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="229"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="305"/>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
@@ -22987,9 +22987,9 @@
       <c r="AY9" s="37"/>
     </row>
     <row r="10" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="305"/>
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
@@ -23041,9 +23041,9 @@
       <c r="AY10" s="37"/>
     </row>
     <row r="11" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="229"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="305"/>
       <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
@@ -23095,9 +23095,9 @@
       <c r="AY11" s="37"/>
     </row>
     <row r="12" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="305"/>
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
@@ -23149,9 +23149,9 @@
       <c r="AY12" s="37"/>
     </row>
     <row r="13" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="305"/>
       <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
@@ -23203,9 +23203,9 @@
       <c r="AY13" s="37"/>
     </row>
     <row r="14" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="305"/>
       <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
@@ -23257,9 +23257,9 @@
       <c r="AY14" s="37"/>
     </row>
     <row r="15" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="305"/>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
@@ -23311,9 +23311,9 @@
       <c r="AY15" s="38"/>
     </row>
     <row r="16" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B16" s="227"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="229"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="305"/>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
@@ -23365,9 +23365,9 @@
       <c r="AY16" s="38"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="227"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="229"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="305"/>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
@@ -23419,9 +23419,9 @@
       <c r="AY17" s="38"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="227"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="305"/>
       <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
@@ -23473,9 +23473,9 @@
       <c r="AY18" s="38"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="308"/>
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
@@ -23527,19 +23527,19 @@
       <c r="AY19" s="39"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="200" t="s">
+      <c r="C20" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="202" t="s">
+      <c r="D20" s="297" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="285"/>
+      <c r="F20" s="228"/>
       <c r="G20" s="90"/>
       <c r="H20" s="84"/>
       <c r="I20" s="85"/>
@@ -23587,14 +23587,14 @@
       <c r="AY20" s="164"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="197"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="286"/>
-      <c r="G21" s="282"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="225"/>
       <c r="H21" s="30"/>
       <c r="I21" s="28"/>
       <c r="J21" s="30"/>
@@ -23641,14 +23641,14 @@
       <c r="AY21" s="166"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="197"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="235" t="s">
+      <c r="B22" s="278"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="287"/>
-      <c r="G22" s="282"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="225"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -23695,16 +23695,16 @@
       <c r="AY22" s="95"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="197"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="204" t="s">
+      <c r="B23" s="278"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="289" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="286"/>
-      <c r="G23" s="282"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="225"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -23751,14 +23751,14 @@
       <c r="AY23" s="55"/>
     </row>
     <row r="24" spans="2:51" ht="20.25">
-      <c r="B24" s="197"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
+      <c r="B24" s="278"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
       <c r="E24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="286"/>
-      <c r="G24" s="282"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="225"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="30"/>
@@ -23805,16 +23805,16 @@
       <c r="AY24" s="122"/>
     </row>
     <row r="25" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B25" s="197"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="204" t="s">
+      <c r="B25" s="278"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="289" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="286"/>
-      <c r="G25" s="282"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="225"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -23861,14 +23861,14 @@
       <c r="AY25" s="123"/>
     </row>
     <row r="26" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B26" s="197"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
       <c r="E26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="286"/>
-      <c r="G26" s="282"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="225"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -23915,14 +23915,14 @@
       <c r="AY26" s="122"/>
     </row>
     <row r="27" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B27" s="197"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
       <c r="E27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="287"/>
-      <c r="G27" s="282"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="225"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -23969,14 +23969,14 @@
       <c r="AY27" s="122"/>
     </row>
     <row r="28" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B28" s="197"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="235" t="s">
+      <c r="B28" s="278"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="286"/>
-      <c r="G28" s="283"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="226"/>
       <c r="H28" s="167"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -24023,16 +24023,16 @@
       <c r="AY28" s="122"/>
     </row>
     <row r="29" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B29" s="197"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="206" t="s">
+      <c r="B29" s="278"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="298" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="288"/>
-      <c r="G29" s="282"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="225"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -24079,14 +24079,14 @@
       <c r="AY29" s="168"/>
     </row>
     <row r="30" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B30" s="197"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
       <c r="E30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="288"/>
-      <c r="G30" s="282"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="225"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -24133,14 +24133,14 @@
       <c r="AY30" s="168"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="197"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
       <c r="E31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="288"/>
-      <c r="G31" s="282"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="225"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -24187,14 +24187,14 @@
       <c r="AY31" s="168"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="197"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="281"/>
       <c r="E32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="288"/>
-      <c r="G32" s="282"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="225"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -24241,14 +24241,14 @@
       <c r="AY32" s="168"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="197"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
       <c r="E33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="287"/>
-      <c r="G33" s="282"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="225"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -24295,14 +24295,14 @@
       <c r="AY33" s="168"/>
     </row>
     <row r="34" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B34" s="197"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="281"/>
+      <c r="D34" s="281"/>
       <c r="E34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="287"/>
-      <c r="G34" s="282"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="225"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -24349,14 +24349,14 @@
       <c r="AY34" s="168"/>
     </row>
     <row r="35" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B35" s="197"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="281"/>
       <c r="E35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="286"/>
-      <c r="G35" s="282"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="225"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -24403,14 +24403,14 @@
       <c r="AY35" s="168"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="197"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="281"/>
+      <c r="D36" s="281"/>
       <c r="E36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="286"/>
-      <c r="G36" s="282"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="225"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -24457,14 +24457,14 @@
       <c r="AY36" s="168"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="197"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="236" t="s">
+      <c r="B37" s="278"/>
+      <c r="C37" s="281"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="286"/>
-      <c r="G37" s="282"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="225"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -24511,15 +24511,15 @@
       <c r="AY37" s="168"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="197"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="233" t="s">
+      <c r="B38" s="278"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="192" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="289"/>
+      <c r="F38" s="232"/>
       <c r="G38" s="96"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -24567,15 +24567,15 @@
       <c r="AY38" s="55"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="197"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="206" t="s">
+      <c r="B39" s="278"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="298" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="289"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="96"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -24623,68 +24623,68 @@
       <c r="AY39" s="55"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="197"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="237" t="s">
+      <c r="B40" s="278"/>
+      <c r="C40" s="281"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="289"/>
+      <c r="F40" s="232"/>
       <c r="G40" s="101"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="102"/>
-      <c r="L40" s="238"/>
-      <c r="M40" s="239"/>
-      <c r="N40" s="239"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="240"/>
-      <c r="Q40" s="239"/>
-      <c r="R40" s="241"/>
-      <c r="S40" s="242"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="199"/>
+      <c r="S40" s="200"/>
       <c r="T40" s="32"/>
       <c r="U40" s="32"/>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
-      <c r="X40" s="243"/>
-      <c r="Y40" s="244"/>
-      <c r="Z40" s="245"/>
-      <c r="AA40" s="240"/>
-      <c r="AB40" s="243"/>
-      <c r="AC40" s="240"/>
-      <c r="AD40" s="243"/>
-      <c r="AE40" s="243"/>
-      <c r="AF40" s="246"/>
-      <c r="AG40" s="247"/>
-      <c r="AH40" s="243"/>
-      <c r="AI40" s="243"/>
-      <c r="AJ40" s="243"/>
-      <c r="AK40" s="243"/>
-      <c r="AL40" s="243"/>
-      <c r="AM40" s="244"/>
+      <c r="X40" s="201"/>
+      <c r="Y40" s="202"/>
+      <c r="Z40" s="203"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="201"/>
+      <c r="AC40" s="198"/>
+      <c r="AD40" s="201"/>
+      <c r="AE40" s="201"/>
+      <c r="AF40" s="204"/>
+      <c r="AG40" s="205"/>
+      <c r="AH40" s="201"/>
+      <c r="AI40" s="201"/>
+      <c r="AJ40" s="201"/>
+      <c r="AK40" s="201"/>
+      <c r="AL40" s="201"/>
+      <c r="AM40" s="202"/>
       <c r="AN40" s="132"/>
       <c r="AO40" s="32"/>
       <c r="AP40" s="32"/>
       <c r="AQ40" s="32"/>
       <c r="AR40" s="32"/>
-      <c r="AS40" s="243"/>
-      <c r="AT40" s="244"/>
-      <c r="AU40" s="247"/>
-      <c r="AV40" s="243"/>
-      <c r="AW40" s="243"/>
-      <c r="AX40" s="243"/>
-      <c r="AY40" s="244"/>
+      <c r="AS40" s="201"/>
+      <c r="AT40" s="202"/>
+      <c r="AU40" s="205"/>
+      <c r="AV40" s="201"/>
+      <c r="AW40" s="201"/>
+      <c r="AX40" s="201"/>
+      <c r="AY40" s="202"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B41" s="197"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="208"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="281"/>
+      <c r="D41" s="282"/>
       <c r="E41" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="290"/>
-      <c r="G41" s="284"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="145"/>
       <c r="I41" s="145"/>
       <c r="J41" s="145"/>
@@ -24731,8 +24731,8 @@
       <c r="AY41" s="150"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="197"/>
-      <c r="C42" s="211" t="s">
+      <c r="B42" s="278"/>
+      <c r="C42" s="285" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -24741,7 +24741,7 @@
       <c r="E42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="291"/>
+      <c r="F42" s="234"/>
       <c r="G42" s="89"/>
       <c r="H42" s="85"/>
       <c r="I42" s="85"/>
@@ -24779,7 +24779,7 @@
       <c r="AO42" s="155"/>
       <c r="AP42" s="156"/>
       <c r="AQ42" s="156"/>
-      <c r="AR42" s="265"/>
+      <c r="AR42" s="208"/>
       <c r="AS42" s="155"/>
       <c r="AT42" s="159"/>
       <c r="AU42" s="158"/>
@@ -24789,15 +24789,15 @@
       <c r="AY42" s="159"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="197"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="212" t="s">
+      <c r="B43" s="278"/>
+      <c r="C43" s="281"/>
+      <c r="D43" s="286" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="292"/>
+      <c r="F43" s="235"/>
       <c r="G43" s="96"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -24845,13 +24845,13 @@
       <c r="AY43" s="55"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="197"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="201"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="281"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="286"/>
+      <c r="F44" s="229"/>
       <c r="G44" s="96"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
@@ -24899,13 +24899,13 @@
       <c r="AY44" s="55"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="197"/>
-      <c r="C45" s="201"/>
-      <c r="D45" s="201"/>
+      <c r="B45" s="278"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
       <c r="E45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="286"/>
+      <c r="F45" s="229"/>
       <c r="G45" s="96"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -24953,13 +24953,13 @@
       <c r="AY45" s="55"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="197"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="203"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="281"/>
+      <c r="D46" s="287"/>
       <c r="E46" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="292"/>
+      <c r="F46" s="235"/>
       <c r="G46" s="96"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -25007,15 +25007,15 @@
       <c r="AY46" s="55"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="197"/>
-      <c r="C47" s="201"/>
+      <c r="B47" s="278"/>
+      <c r="C47" s="281"/>
       <c r="D47" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="248" t="s">
+      <c r="E47" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="293"/>
+      <c r="F47" s="236"/>
       <c r="G47" s="96"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -25063,15 +25063,15 @@
       <c r="AY47" s="55"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="197"/>
-      <c r="C48" s="201"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="248" t="s">
+      <c r="E48" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="293"/>
+      <c r="F48" s="236"/>
       <c r="G48" s="96"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
@@ -25098,7 +25098,7 @@
       <c r="AD48" s="31"/>
       <c r="AE48" s="32"/>
       <c r="AF48" s="46"/>
-      <c r="AG48" s="306"/>
+      <c r="AG48" s="249"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32"/>
@@ -25119,15 +25119,15 @@
       <c r="AY48" s="55"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="197"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="212" t="s">
+      <c r="B49" s="278"/>
+      <c r="C49" s="281"/>
+      <c r="D49" s="286" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="293"/>
+      <c r="F49" s="236"/>
       <c r="G49" s="96"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
@@ -25175,13 +25175,13 @@
       <c r="AY49" s="55"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="234"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="281"/>
+      <c r="D50" s="288"/>
       <c r="E50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="291"/>
+      <c r="F50" s="234"/>
       <c r="G50" s="96"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
@@ -25215,7 +25215,7 @@
       <c r="AK50" s="189"/>
       <c r="AL50" s="32"/>
       <c r="AM50" s="55"/>
-      <c r="AN50" s="304"/>
+      <c r="AN50" s="247"/>
       <c r="AO50" s="116"/>
       <c r="AP50" s="32"/>
       <c r="AQ50" s="32"/>
@@ -25229,13 +25229,13 @@
       <c r="AY50" s="55"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="234"/>
+      <c r="B51" s="278"/>
+      <c r="C51" s="281"/>
+      <c r="D51" s="288"/>
       <c r="E51" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="291"/>
+      <c r="F51" s="234"/>
       <c r="G51" s="96"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
@@ -25270,7 +25270,7 @@
       <c r="AL51" s="32"/>
       <c r="AM51" s="55"/>
       <c r="AN51" s="54"/>
-      <c r="AO51" s="305"/>
+      <c r="AO51" s="248"/>
       <c r="AP51" s="32"/>
       <c r="AQ51" s="32"/>
       <c r="AR51" s="32"/>
@@ -25283,13 +25283,13 @@
       <c r="AY51" s="55"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="197"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
+      <c r="B52" s="278"/>
+      <c r="C52" s="281"/>
+      <c r="D52" s="281"/>
       <c r="E52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="291"/>
+      <c r="F52" s="234"/>
       <c r="G52" s="96"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
@@ -25337,13 +25337,13 @@
       <c r="AY52" s="55"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="197"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="203"/>
+      <c r="B53" s="278"/>
+      <c r="C53" s="281"/>
+      <c r="D53" s="287"/>
       <c r="E53" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="292"/>
+      <c r="F53" s="235"/>
       <c r="G53" s="96"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
@@ -25378,7 +25378,7 @@
       <c r="AL53" s="32"/>
       <c r="AM53" s="55"/>
       <c r="AN53" s="54"/>
-      <c r="AO53" s="305"/>
+      <c r="AO53" s="248"/>
       <c r="AP53" s="116"/>
       <c r="AQ53" s="32"/>
       <c r="AR53" s="31"/>
@@ -25391,15 +25391,15 @@
       <c r="AY53" s="122"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="197"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="204" t="s">
+      <c r="B54" s="278"/>
+      <c r="C54" s="281"/>
+      <c r="D54" s="289" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="292"/>
+      <c r="F54" s="235"/>
       <c r="G54" s="96"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
@@ -25419,8 +25419,8 @@
       <c r="W54" s="31"/>
       <c r="X54" s="32"/>
       <c r="Y54" s="55"/>
-      <c r="Z54" s="303"/>
-      <c r="AA54" s="302"/>
+      <c r="Z54" s="246"/>
+      <c r="AA54" s="245"/>
       <c r="AB54" s="32"/>
       <c r="AC54" s="32"/>
       <c r="AD54" s="31"/>
@@ -25447,13 +25447,13 @@
       <c r="AY54" s="55"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="197"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
+      <c r="B55" s="278"/>
+      <c r="C55" s="281"/>
+      <c r="D55" s="281"/>
       <c r="E55" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="292"/>
+      <c r="F55" s="235"/>
       <c r="G55" s="96"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
@@ -25475,7 +25475,7 @@
       <c r="Y55" s="55"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="189"/>
-      <c r="AB55" s="302"/>
+      <c r="AB55" s="245"/>
       <c r="AC55" s="32"/>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
@@ -25501,13 +25501,13 @@
       <c r="AY55" s="55"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="197"/>
-      <c r="C56" s="201"/>
-      <c r="D56" s="201"/>
+      <c r="B56" s="278"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="281"/>
       <c r="E56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="292"/>
+      <c r="F56" s="235"/>
       <c r="G56" s="96"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
@@ -25529,7 +25529,7 @@
       <c r="Y56" s="55"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="32"/>
-      <c r="AB56" s="302"/>
+      <c r="AB56" s="245"/>
       <c r="AC56" s="189"/>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
@@ -25555,13 +25555,13 @@
       <c r="AY56" s="55"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="197"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="201"/>
+      <c r="B57" s="278"/>
+      <c r="C57" s="281"/>
+      <c r="D57" s="281"/>
       <c r="E57" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="292"/>
+      <c r="F57" s="235"/>
       <c r="G57" s="96"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
@@ -25609,13 +25609,13 @@
       <c r="AY57" s="55"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="197"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
+      <c r="B58" s="278"/>
+      <c r="C58" s="281"/>
+      <c r="D58" s="281"/>
       <c r="E58" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="292"/>
+      <c r="F58" s="235"/>
       <c r="G58" s="96"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
@@ -25663,13 +25663,13 @@
       <c r="AY58" s="55"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="197"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="281"/>
+      <c r="D59" s="281"/>
       <c r="E59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="292"/>
+      <c r="F59" s="235"/>
       <c r="G59" s="96"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
@@ -25717,13 +25717,13 @@
       <c r="AY59" s="55"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="197"/>
-      <c r="C60" s="201"/>
-      <c r="D60" s="201"/>
+      <c r="B60" s="278"/>
+      <c r="C60" s="281"/>
+      <c r="D60" s="281"/>
       <c r="E60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="292"/>
+      <c r="F60" s="235"/>
       <c r="G60" s="96"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
@@ -25771,13 +25771,13 @@
       <c r="AY60" s="55"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="197"/>
-      <c r="C61" s="201"/>
-      <c r="D61" s="203"/>
+      <c r="B61" s="278"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="287"/>
       <c r="E61" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="292"/>
+      <c r="F61" s="235"/>
       <c r="G61" s="96"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
@@ -25825,15 +25825,15 @@
       <c r="AY61" s="55"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="197"/>
-      <c r="C62" s="201"/>
-      <c r="D62" s="204" t="s">
+      <c r="B62" s="278"/>
+      <c r="C62" s="281"/>
+      <c r="D62" s="289" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="292"/>
+      <c r="F62" s="235"/>
       <c r="G62" s="96"/>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
@@ -25847,8 +25847,8 @@
       <c r="Q62" s="32"/>
       <c r="R62" s="46"/>
       <c r="S62" s="53"/>
-      <c r="T62" s="302"/>
-      <c r="U62" s="302"/>
+      <c r="T62" s="245"/>
+      <c r="U62" s="245"/>
       <c r="V62" s="31"/>
       <c r="W62" s="32"/>
       <c r="X62" s="32"/>
@@ -25881,13 +25881,13 @@
       <c r="AY62" s="55"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="197"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="250" t="s">
+      <c r="B63" s="278"/>
+      <c r="C63" s="281"/>
+      <c r="D63" s="290"/>
+      <c r="E63" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="292"/>
+      <c r="F63" s="235"/>
       <c r="G63" s="96"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
@@ -25902,8 +25902,8 @@
       <c r="R63" s="46"/>
       <c r="S63" s="53"/>
       <c r="T63" s="31"/>
-      <c r="U63" s="302"/>
-      <c r="V63" s="302"/>
+      <c r="U63" s="245"/>
+      <c r="V63" s="245"/>
       <c r="W63" s="32"/>
       <c r="X63" s="32"/>
       <c r="Y63" s="55"/>
@@ -25935,13 +25935,13 @@
       <c r="AY63" s="55"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B64" s="197"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="249"/>
+      <c r="B64" s="278"/>
+      <c r="C64" s="281"/>
+      <c r="D64" s="291"/>
       <c r="E64" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="292"/>
+      <c r="F64" s="235"/>
       <c r="G64" s="96"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
@@ -25957,8 +25957,8 @@
       <c r="S64" s="54"/>
       <c r="T64" s="31"/>
       <c r="U64" s="32"/>
-      <c r="V64" s="302"/>
-      <c r="W64" s="302"/>
+      <c r="V64" s="245"/>
+      <c r="W64" s="245"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="55"/>
       <c r="Z64" s="47"/>
@@ -25989,15 +25989,15 @@
       <c r="AY64" s="55"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="256" t="s">
+      <c r="B65" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="257"/>
-      <c r="D65" s="258"/>
-      <c r="E65" s="209" t="s">
+      <c r="C65" s="255"/>
+      <c r="D65" s="256"/>
+      <c r="E65" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="286"/>
+      <c r="F65" s="229"/>
       <c r="G65" s="89"/>
       <c r="H65" s="85"/>
       <c r="I65" s="85"/>
@@ -26023,21 +26023,21 @@
       <c r="AC65" s="155"/>
       <c r="AD65" s="155"/>
       <c r="AE65" s="170"/>
-      <c r="AF65" s="308"/>
+      <c r="AF65" s="251"/>
       <c r="AG65" s="158"/>
       <c r="AH65" s="155"/>
       <c r="AI65" s="155"/>
       <c r="AJ65" s="155"/>
       <c r="AK65" s="155"/>
       <c r="AL65" s="170"/>
-      <c r="AM65" s="308"/>
+      <c r="AM65" s="251"/>
       <c r="AN65" s="158"/>
       <c r="AO65" s="155"/>
       <c r="AP65" s="155"/>
       <c r="AQ65" s="155"/>
       <c r="AR65" s="155"/>
       <c r="AS65" s="170"/>
-      <c r="AT65" s="308"/>
+      <c r="AT65" s="251"/>
       <c r="AU65" s="158"/>
       <c r="AV65" s="155"/>
       <c r="AW65" s="155"/>
@@ -26045,11 +26045,11 @@
       <c r="AY65" s="159"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="259"/>
-      <c r="C66" s="260"/>
-      <c r="D66" s="261"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="292"/>
+      <c r="B66" s="257"/>
+      <c r="C66" s="258"/>
+      <c r="D66" s="259"/>
+      <c r="E66" s="284"/>
+      <c r="F66" s="235"/>
       <c r="G66" s="96"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
@@ -26075,21 +26075,21 @@
       <c r="AC66" s="32"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="172"/>
-      <c r="AF66" s="307"/>
+      <c r="AF66" s="250"/>
       <c r="AG66" s="54"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
       <c r="AJ66" s="32"/>
       <c r="AK66" s="32"/>
       <c r="AL66" s="172"/>
-      <c r="AM66" s="307"/>
+      <c r="AM66" s="250"/>
       <c r="AN66" s="54"/>
       <c r="AO66" s="32"/>
       <c r="AP66" s="32"/>
       <c r="AQ66" s="32"/>
       <c r="AR66" s="32"/>
       <c r="AS66" s="172"/>
-      <c r="AT66" s="307"/>
+      <c r="AT66" s="250"/>
       <c r="AU66" s="54"/>
       <c r="AV66" s="32"/>
       <c r="AW66" s="32"/>
@@ -26097,11 +26097,11 @@
       <c r="AY66" s="55"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="259"/>
-      <c r="C67" s="260"/>
-      <c r="D67" s="261"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="289"/>
+      <c r="B67" s="257"/>
+      <c r="C67" s="258"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="284"/>
+      <c r="F67" s="232"/>
       <c r="G67" s="96"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
@@ -26127,21 +26127,21 @@
       <c r="AC67" s="32"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="172"/>
-      <c r="AF67" s="309"/>
+      <c r="AF67" s="252"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
       <c r="AJ67" s="32"/>
       <c r="AK67" s="32"/>
       <c r="AL67" s="172"/>
-      <c r="AM67" s="309"/>
+      <c r="AM67" s="252"/>
       <c r="AN67" s="54"/>
       <c r="AO67" s="32"/>
       <c r="AP67" s="32"/>
       <c r="AQ67" s="32"/>
       <c r="AR67" s="32"/>
       <c r="AS67" s="172"/>
-      <c r="AT67" s="309"/>
+      <c r="AT67" s="252"/>
       <c r="AU67" s="54"/>
       <c r="AV67" s="32"/>
       <c r="AW67" s="32"/>
@@ -26149,13 +26149,13 @@
       <c r="AY67" s="55"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="259"/>
-      <c r="C68" s="260"/>
-      <c r="D68" s="261"/>
+      <c r="B68" s="257"/>
+      <c r="C68" s="258"/>
+      <c r="D68" s="259"/>
       <c r="E68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="294"/>
+      <c r="F68" s="237"/>
       <c r="G68" s="96"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
@@ -26203,13 +26203,13 @@
       <c r="AY68" s="29"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B69" s="262"/>
-      <c r="C69" s="263"/>
-      <c r="D69" s="264"/>
+      <c r="B69" s="260"/>
+      <c r="C69" s="261"/>
+      <c r="D69" s="262"/>
       <c r="E69" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="295"/>
+      <c r="F69" s="238"/>
       <c r="G69" s="173"/>
       <c r="H69" s="174"/>
       <c r="I69" s="174"/>
@@ -27176,11 +27176,26 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B65:D69"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="AL4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:AK4"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:D19"/>
@@ -27192,26 +27207,11 @@
     <mergeCell ref="D29:D37"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="C42:C64"/>
-    <mergeCell ref="AL4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:AK4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B65:D69"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -27226,11 +27226,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD985"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AF35" sqref="AF35"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -27247,11 +27247,11 @@
   <sheetData>
     <row r="1" spans="2:56" ht="6" customHeight="1"/>
     <row r="2" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="309" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -27289,25 +27289,25 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="162"/>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="193"/>
+      <c r="I3" s="253"/>
       <c r="J3" s="186"/>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="193"/>
+      <c r="L3" s="253"/>
       <c r="M3" s="185"/>
-      <c r="N3" s="193" t="s">
+      <c r="N3" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="253"/>
       <c r="P3" s="184"/>
-      <c r="Q3" s="193" t="s">
+      <c r="Q3" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="193"/>
+      <c r="R3" s="253"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -27316,147 +27316,147 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="BC3" s="193"/>
-      <c r="BD3" s="193"/>
+      <c r="BC3" s="253"/>
+      <c r="BD3" s="253"/>
     </row>
     <row r="4" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="214" t="s">
+      <c r="F4" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="255"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="255"/>
-      <c r="S4" s="255"/>
-      <c r="T4" s="255"/>
-      <c r="U4" s="255"/>
-      <c r="V4" s="255"/>
-      <c r="W4" s="255"/>
-      <c r="X4" s="255"/>
-      <c r="Y4" s="255"/>
-      <c r="Z4" s="255"/>
-      <c r="AA4" s="255"/>
-      <c r="AB4" s="255"/>
-      <c r="AC4" s="255"/>
-      <c r="AD4" s="255"/>
-      <c r="AE4" s="255"/>
-      <c r="AF4" s="255"/>
-      <c r="AG4" s="255"/>
-      <c r="AH4" s="255"/>
-      <c r="AI4" s="255"/>
-      <c r="AJ4" s="255"/>
-      <c r="AK4" s="255"/>
-      <c r="AL4" s="252" t="s">
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="266"/>
+      <c r="Z4" s="266"/>
+      <c r="AA4" s="266"/>
+      <c r="AB4" s="266"/>
+      <c r="AC4" s="266"/>
+      <c r="AD4" s="266"/>
+      <c r="AE4" s="266"/>
+      <c r="AF4" s="266"/>
+      <c r="AG4" s="266"/>
+      <c r="AH4" s="266"/>
+      <c r="AI4" s="266"/>
+      <c r="AJ4" s="266"/>
+      <c r="AK4" s="266"/>
+      <c r="AL4" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="252"/>
-      <c r="AN4" s="252"/>
-      <c r="AO4" s="252"/>
-      <c r="AP4" s="252"/>
-      <c r="AQ4" s="252"/>
-      <c r="AR4" s="252"/>
-      <c r="AS4" s="252"/>
-      <c r="AT4" s="252"/>
-      <c r="AU4" s="218"/>
-      <c r="AV4" s="218"/>
-      <c r="AW4" s="218"/>
-      <c r="AX4" s="218"/>
-      <c r="AY4" s="219"/>
+      <c r="AM4" s="270"/>
+      <c r="AN4" s="270"/>
+      <c r="AO4" s="270"/>
+      <c r="AP4" s="270"/>
+      <c r="AQ4" s="270"/>
+      <c r="AR4" s="270"/>
+      <c r="AS4" s="270"/>
+      <c r="AT4" s="270"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
+      <c r="AX4" s="271"/>
+      <c r="AY4" s="272"/>
     </row>
     <row r="5" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="197"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="251" t="s">
+      <c r="B5" s="278"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="263" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="251" t="s">
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="222"/>
-      <c r="S5" s="223" t="s">
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="274" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="220"/>
-      <c r="W5" s="220"/>
-      <c r="X5" s="220"/>
-      <c r="Y5" s="222"/>
-      <c r="Z5" s="253" t="s">
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="264"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="275" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="220"/>
-      <c r="AD5" s="220"/>
-      <c r="AE5" s="220"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="251" t="s">
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="264"/>
+      <c r="AF5" s="276"/>
+      <c r="AG5" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="AH5" s="220"/>
-      <c r="AI5" s="220"/>
-      <c r="AJ5" s="220"/>
-      <c r="AK5" s="220"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="221"/>
-      <c r="AN5" s="251" t="s">
+      <c r="AH5" s="264"/>
+      <c r="AI5" s="264"/>
+      <c r="AJ5" s="264"/>
+      <c r="AK5" s="264"/>
+      <c r="AL5" s="264"/>
+      <c r="AM5" s="276"/>
+      <c r="AN5" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="220"/>
-      <c r="AP5" s="220"/>
-      <c r="AQ5" s="220"/>
-      <c r="AR5" s="220"/>
-      <c r="AS5" s="220"/>
-      <c r="AT5" s="221"/>
-      <c r="AU5" s="215" t="s">
+      <c r="AO5" s="264"/>
+      <c r="AP5" s="264"/>
+      <c r="AQ5" s="264"/>
+      <c r="AR5" s="264"/>
+      <c r="AS5" s="264"/>
+      <c r="AT5" s="276"/>
+      <c r="AU5" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="216"/>
-      <c r="AW5" s="216"/>
-      <c r="AX5" s="216"/>
-      <c r="AY5" s="217"/>
+      <c r="AV5" s="268"/>
+      <c r="AW5" s="268"/>
+      <c r="AX5" s="268"/>
+      <c r="AY5" s="269"/>
     </row>
     <row r="6" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="198"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -27594,13 +27594,13 @@
       </c>
     </row>
     <row r="7" spans="2:56" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="196"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
       <c r="G7" s="57" t="s">
         <v>5</v>
       </c>
@@ -27738,11 +27738,11 @@
       </c>
     </row>
     <row r="8" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="302"/>
       <c r="E8" s="190" t="s">
         <v>13</v>
       </c>
@@ -27794,9 +27794,9 @@
       <c r="AY8" s="68"/>
     </row>
     <row r="9" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="229"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="305"/>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
@@ -27848,9 +27848,9 @@
       <c r="AY9" s="37"/>
     </row>
     <row r="10" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="305"/>
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
@@ -27902,9 +27902,9 @@
       <c r="AY10" s="37"/>
     </row>
     <row r="11" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="229"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="305"/>
       <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
@@ -27956,9 +27956,9 @@
       <c r="AY11" s="37"/>
     </row>
     <row r="12" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="305"/>
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
@@ -28010,9 +28010,9 @@
       <c r="AY12" s="37"/>
     </row>
     <row r="13" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="305"/>
       <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
@@ -28064,9 +28064,9 @@
       <c r="AY13" s="37"/>
     </row>
     <row r="14" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="305"/>
       <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
@@ -28118,9 +28118,9 @@
       <c r="AY14" s="37"/>
     </row>
     <row r="15" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="305"/>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
@@ -28172,9 +28172,9 @@
       <c r="AY15" s="38"/>
     </row>
     <row r="16" spans="2:56" ht="16.5" customHeight="1">
-      <c r="B16" s="227"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="229"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="305"/>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
@@ -28226,9 +28226,9 @@
       <c r="AY16" s="38"/>
     </row>
     <row r="17" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B17" s="227"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="229"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="305"/>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
@@ -28280,9 +28280,9 @@
       <c r="AY17" s="38"/>
     </row>
     <row r="18" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B18" s="227"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="305"/>
       <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
@@ -28334,9 +28334,9 @@
       <c r="AY18" s="38"/>
     </row>
     <row r="19" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="308"/>
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
@@ -28388,19 +28388,19 @@
       <c r="AY19" s="39"/>
     </row>
     <row r="20" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="200" t="s">
+      <c r="C20" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="202" t="s">
+      <c r="D20" s="297" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="285"/>
+      <c r="F20" s="228"/>
       <c r="G20" s="90"/>
       <c r="H20" s="84"/>
       <c r="I20" s="85"/>
@@ -28448,14 +28448,14 @@
       <c r="AY20" s="164"/>
     </row>
     <row r="21" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B21" s="197"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="286"/>
-      <c r="G21" s="282"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="225"/>
       <c r="H21" s="30"/>
       <c r="I21" s="28"/>
       <c r="J21" s="30"/>
@@ -28502,14 +28502,14 @@
       <c r="AY21" s="166"/>
     </row>
     <row r="22" spans="2:51" ht="15.75" customHeight="1">
-      <c r="B22" s="197"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="235" t="s">
+      <c r="B22" s="278"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="287"/>
-      <c r="G22" s="282"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="225"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -28556,16 +28556,16 @@
       <c r="AY22" s="95"/>
     </row>
     <row r="23" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B23" s="197"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="204" t="s">
+      <c r="B23" s="278"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="289" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="286"/>
-      <c r="G23" s="282"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="225"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -28612,14 +28612,14 @@
       <c r="AY23" s="55"/>
     </row>
     <row r="24" spans="2:51" ht="20.25">
-      <c r="B24" s="197"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
+      <c r="B24" s="278"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
       <c r="E24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="286"/>
-      <c r="G24" s="282"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="225"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="30"/>
@@ -28666,16 +28666,16 @@
       <c r="AY24" s="122"/>
     </row>
     <row r="25" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B25" s="197"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="204" t="s">
+      <c r="B25" s="278"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="289" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="286"/>
-      <c r="G25" s="282"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="225"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -28722,14 +28722,14 @@
       <c r="AY25" s="123"/>
     </row>
     <row r="26" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B26" s="197"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
       <c r="E26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="286"/>
-      <c r="G26" s="282"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="225"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -28776,14 +28776,14 @@
       <c r="AY26" s="122"/>
     </row>
     <row r="27" spans="2:51" ht="17.25" customHeight="1">
-      <c r="B27" s="197"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
       <c r="E27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="287"/>
-      <c r="G27" s="282"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="225"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -28830,14 +28830,14 @@
       <c r="AY27" s="122"/>
     </row>
     <row r="28" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B28" s="197"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="235" t="s">
+      <c r="B28" s="278"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="286"/>
-      <c r="G28" s="283"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="226"/>
       <c r="H28" s="167"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -28884,16 +28884,16 @@
       <c r="AY28" s="122"/>
     </row>
     <row r="29" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B29" s="197"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="206" t="s">
+      <c r="B29" s="278"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="298" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="288"/>
-      <c r="G29" s="282"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="225"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -28912,9 +28912,9 @@
       <c r="W29" s="127"/>
       <c r="X29" s="127"/>
       <c r="Y29" s="130"/>
-      <c r="Z29" s="271"/>
-      <c r="AA29" s="270"/>
-      <c r="AB29" s="270"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="213"/>
+      <c r="AB29" s="213"/>
       <c r="AC29" s="127"/>
       <c r="AD29" s="127"/>
       <c r="AE29" s="127"/>
@@ -28940,14 +28940,14 @@
       <c r="AY29" s="168"/>
     </row>
     <row r="30" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B30" s="197"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
       <c r="E30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="288"/>
-      <c r="G30" s="282"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="225"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -28968,9 +28968,9 @@
       <c r="Y30" s="130"/>
       <c r="Z30" s="133"/>
       <c r="AA30" s="127"/>
-      <c r="AB30" s="270"/>
-      <c r="AC30" s="270"/>
-      <c r="AD30" s="270"/>
+      <c r="AB30" s="213"/>
+      <c r="AC30" s="213"/>
+      <c r="AD30" s="213"/>
       <c r="AE30" s="127"/>
       <c r="AF30" s="128"/>
       <c r="AG30" s="132"/>
@@ -28994,14 +28994,14 @@
       <c r="AY30" s="168"/>
     </row>
     <row r="31" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B31" s="197"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
       <c r="E31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="288"/>
-      <c r="G31" s="282"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="225"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -29027,9 +29027,9 @@
       <c r="AD31" s="127"/>
       <c r="AE31" s="127"/>
       <c r="AF31" s="128"/>
-      <c r="AG31" s="273"/>
-      <c r="AH31" s="272"/>
-      <c r="AI31" s="272"/>
+      <c r="AG31" s="216"/>
+      <c r="AH31" s="215"/>
+      <c r="AI31" s="215"/>
       <c r="AJ31" s="116"/>
       <c r="AK31" s="116"/>
       <c r="AL31" s="32"/>
@@ -29048,14 +29048,14 @@
       <c r="AY31" s="168"/>
     </row>
     <row r="32" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B32" s="197"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="281"/>
       <c r="E32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="288"/>
-      <c r="G32" s="282"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="225"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -29083,9 +29083,9 @@
       <c r="AF32" s="128"/>
       <c r="AG32" s="129"/>
       <c r="AH32" s="116"/>
-      <c r="AI32" s="272"/>
-      <c r="AJ32" s="272"/>
-      <c r="AK32" s="272"/>
+      <c r="AI32" s="215"/>
+      <c r="AJ32" s="215"/>
+      <c r="AK32" s="215"/>
       <c r="AL32" s="32"/>
       <c r="AM32" s="55"/>
       <c r="AN32" s="129"/>
@@ -29102,14 +29102,14 @@
       <c r="AY32" s="168"/>
     </row>
     <row r="33" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B33" s="197"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
       <c r="E33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="287"/>
-      <c r="G33" s="282"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="225"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -29156,14 +29156,14 @@
       <c r="AY33" s="168"/>
     </row>
     <row r="34" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B34" s="197"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="281"/>
+      <c r="D34" s="281"/>
       <c r="E34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="287"/>
-      <c r="G34" s="282"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="225"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -29210,14 +29210,14 @@
       <c r="AY34" s="168"/>
     </row>
     <row r="35" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B35" s="197"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="281"/>
       <c r="E35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="286"/>
-      <c r="G35" s="282"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="225"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -29264,14 +29264,14 @@
       <c r="AY35" s="168"/>
     </row>
     <row r="36" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B36" s="197"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="281"/>
+      <c r="D36" s="281"/>
       <c r="E36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="286"/>
-      <c r="G36" s="282"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="225"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -29318,14 +29318,14 @@
       <c r="AY36" s="168"/>
     </row>
     <row r="37" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B37" s="197"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="236" t="s">
+      <c r="B37" s="278"/>
+      <c r="C37" s="281"/>
+      <c r="D37" s="287"/>
+      <c r="E37" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="286"/>
-      <c r="G37" s="282"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="225"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -29372,15 +29372,15 @@
       <c r="AY37" s="168"/>
     </row>
     <row r="38" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B38" s="197"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="233" t="s">
+      <c r="B38" s="278"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="192" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="289"/>
+      <c r="F38" s="232"/>
       <c r="G38" s="96"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -29394,8 +29394,8 @@
       <c r="Q38" s="142"/>
       <c r="R38" s="143"/>
       <c r="S38" s="139"/>
-      <c r="T38" s="269"/>
-      <c r="U38" s="274"/>
+      <c r="T38" s="212"/>
+      <c r="U38" s="217"/>
       <c r="V38" s="142"/>
       <c r="W38" s="142"/>
       <c r="X38" s="108"/>
@@ -29428,15 +29428,15 @@
       <c r="AY38" s="55"/>
     </row>
     <row r="39" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B39" s="197"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="206" t="s">
+      <c r="B39" s="278"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="298" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="289"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="96"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -29450,8 +29450,8 @@
       <c r="Q39" s="105"/>
       <c r="R39" s="106"/>
       <c r="S39" s="53"/>
-      <c r="T39" s="243"/>
-      <c r="U39" s="274"/>
+      <c r="T39" s="201"/>
+      <c r="U39" s="217"/>
       <c r="V39" s="184"/>
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>
@@ -29484,68 +29484,68 @@
       <c r="AY39" s="55"/>
     </row>
     <row r="40" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B40" s="197"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="237" t="s">
+      <c r="B40" s="278"/>
+      <c r="C40" s="281"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="289"/>
+      <c r="F40" s="232"/>
       <c r="G40" s="101"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="102"/>
-      <c r="L40" s="238"/>
-      <c r="M40" s="239"/>
-      <c r="N40" s="239"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="240"/>
-      <c r="Q40" s="239"/>
-      <c r="R40" s="241"/>
-      <c r="S40" s="242"/>
-      <c r="T40" s="243"/>
-      <c r="U40" s="243"/>
-      <c r="V40" s="275"/>
-      <c r="W40" s="275"/>
-      <c r="X40" s="243"/>
-      <c r="Y40" s="244"/>
-      <c r="Z40" s="245"/>
-      <c r="AA40" s="240"/>
-      <c r="AB40" s="243"/>
-      <c r="AC40" s="240"/>
-      <c r="AD40" s="243"/>
-      <c r="AE40" s="243"/>
-      <c r="AF40" s="246"/>
-      <c r="AG40" s="247"/>
-      <c r="AH40" s="243"/>
-      <c r="AI40" s="243"/>
-      <c r="AJ40" s="243"/>
-      <c r="AK40" s="243"/>
-      <c r="AL40" s="243"/>
-      <c r="AM40" s="244"/>
-      <c r="AN40" s="268"/>
-      <c r="AO40" s="267"/>
-      <c r="AP40" s="267"/>
-      <c r="AQ40" s="267"/>
-      <c r="AR40" s="267"/>
-      <c r="AS40" s="243"/>
-      <c r="AT40" s="244"/>
-      <c r="AU40" s="247"/>
-      <c r="AV40" s="243"/>
-      <c r="AW40" s="243"/>
-      <c r="AX40" s="243"/>
-      <c r="AY40" s="244"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="197"/>
+      <c r="R40" s="199"/>
+      <c r="S40" s="200"/>
+      <c r="T40" s="201"/>
+      <c r="U40" s="201"/>
+      <c r="V40" s="218"/>
+      <c r="W40" s="218"/>
+      <c r="X40" s="201"/>
+      <c r="Y40" s="202"/>
+      <c r="Z40" s="203"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="201"/>
+      <c r="AC40" s="198"/>
+      <c r="AD40" s="201"/>
+      <c r="AE40" s="201"/>
+      <c r="AF40" s="204"/>
+      <c r="AG40" s="205"/>
+      <c r="AH40" s="201"/>
+      <c r="AI40" s="201"/>
+      <c r="AJ40" s="201"/>
+      <c r="AK40" s="201"/>
+      <c r="AL40" s="201"/>
+      <c r="AM40" s="202"/>
+      <c r="AN40" s="211"/>
+      <c r="AO40" s="210"/>
+      <c r="AP40" s="210"/>
+      <c r="AQ40" s="210"/>
+      <c r="AR40" s="210"/>
+      <c r="AS40" s="201"/>
+      <c r="AT40" s="202"/>
+      <c r="AU40" s="205"/>
+      <c r="AV40" s="201"/>
+      <c r="AW40" s="201"/>
+      <c r="AX40" s="201"/>
+      <c r="AY40" s="202"/>
     </row>
     <row r="41" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B41" s="197"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="208"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="281"/>
+      <c r="D41" s="282"/>
       <c r="E41" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="290"/>
-      <c r="G41" s="284"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="145"/>
       <c r="I41" s="145"/>
       <c r="J41" s="145"/>
@@ -29592,8 +29592,8 @@
       <c r="AY41" s="150"/>
     </row>
     <row r="42" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B42" s="197"/>
-      <c r="C42" s="211" t="s">
+      <c r="B42" s="278"/>
+      <c r="C42" s="285" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -29602,7 +29602,7 @@
       <c r="E42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="291"/>
+      <c r="F42" s="234"/>
       <c r="G42" s="89"/>
       <c r="H42" s="85"/>
       <c r="I42" s="85"/>
@@ -29650,15 +29650,15 @@
       <c r="AY42" s="159"/>
     </row>
     <row r="43" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B43" s="197"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="212" t="s">
+      <c r="B43" s="278"/>
+      <c r="C43" s="281"/>
+      <c r="D43" s="286" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="292"/>
+      <c r="F43" s="235"/>
       <c r="G43" s="96"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -29706,13 +29706,13 @@
       <c r="AY43" s="55"/>
     </row>
     <row r="44" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B44" s="197"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="201"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="281"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="286"/>
+      <c r="F44" s="229"/>
       <c r="G44" s="96"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
@@ -29760,13 +29760,13 @@
       <c r="AY44" s="55"/>
     </row>
     <row r="45" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B45" s="197"/>
-      <c r="C45" s="201"/>
-      <c r="D45" s="201"/>
+      <c r="B45" s="278"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
       <c r="E45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="286"/>
+      <c r="F45" s="229"/>
       <c r="G45" s="96"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -29814,13 +29814,13 @@
       <c r="AY45" s="55"/>
     </row>
     <row r="46" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B46" s="197"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="203"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="281"/>
+      <c r="D46" s="287"/>
       <c r="E46" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="292"/>
+      <c r="F46" s="235"/>
       <c r="G46" s="96"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -29868,15 +29868,15 @@
       <c r="AY46" s="55"/>
     </row>
     <row r="47" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B47" s="197"/>
-      <c r="C47" s="201"/>
+      <c r="B47" s="278"/>
+      <c r="C47" s="281"/>
       <c r="D47" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="248" t="s">
+      <c r="E47" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="293"/>
+      <c r="F47" s="236"/>
       <c r="G47" s="96"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -29924,15 +29924,15 @@
       <c r="AY47" s="55"/>
     </row>
     <row r="48" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B48" s="197"/>
-      <c r="C48" s="201"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="248" t="s">
+      <c r="E48" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="293"/>
+      <c r="F48" s="236"/>
       <c r="G48" s="96"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
@@ -29980,15 +29980,15 @@
       <c r="AY48" s="55"/>
     </row>
     <row r="49" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B49" s="197"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="212" t="s">
+      <c r="B49" s="278"/>
+      <c r="C49" s="281"/>
+      <c r="D49" s="286" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="293"/>
+      <c r="F49" s="236"/>
       <c r="G49" s="96"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
@@ -30036,13 +30036,13 @@
       <c r="AY49" s="55"/>
     </row>
     <row r="50" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="234"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="281"/>
+      <c r="D50" s="288"/>
       <c r="E50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="291"/>
+      <c r="F50" s="234"/>
       <c r="G50" s="96"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
@@ -30090,13 +30090,13 @@
       <c r="AY50" s="55"/>
     </row>
     <row r="51" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="234"/>
+      <c r="B51" s="278"/>
+      <c r="C51" s="281"/>
+      <c r="D51" s="288"/>
       <c r="E51" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="291"/>
+      <c r="F51" s="234"/>
       <c r="G51" s="96"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
@@ -30144,13 +30144,13 @@
       <c r="AY51" s="55"/>
     </row>
     <row r="52" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B52" s="197"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
+      <c r="B52" s="278"/>
+      <c r="C52" s="281"/>
+      <c r="D52" s="281"/>
       <c r="E52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="291"/>
+      <c r="F52" s="234"/>
       <c r="G52" s="96"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
@@ -30198,13 +30198,13 @@
       <c r="AY52" s="55"/>
     </row>
     <row r="53" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B53" s="197"/>
-      <c r="C53" s="201"/>
-      <c r="D53" s="203"/>
+      <c r="B53" s="278"/>
+      <c r="C53" s="281"/>
+      <c r="D53" s="287"/>
       <c r="E53" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="292"/>
+      <c r="F53" s="235"/>
       <c r="G53" s="96"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
@@ -30252,15 +30252,15 @@
       <c r="AY53" s="122"/>
     </row>
     <row r="54" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B54" s="197"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="204" t="s">
+      <c r="B54" s="278"/>
+      <c r="C54" s="281"/>
+      <c r="D54" s="289" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="292"/>
+      <c r="F54" s="235"/>
       <c r="G54" s="96"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
@@ -30308,13 +30308,13 @@
       <c r="AY54" s="55"/>
     </row>
     <row r="55" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B55" s="197"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201"/>
+      <c r="B55" s="278"/>
+      <c r="C55" s="281"/>
+      <c r="D55" s="281"/>
       <c r="E55" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="292"/>
+      <c r="F55" s="235"/>
       <c r="G55" s="96"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
@@ -30362,13 +30362,13 @@
       <c r="AY55" s="55"/>
     </row>
     <row r="56" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B56" s="197"/>
-      <c r="C56" s="201"/>
-      <c r="D56" s="201"/>
+      <c r="B56" s="278"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="281"/>
       <c r="E56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="292"/>
+      <c r="F56" s="235"/>
       <c r="G56" s="96"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
@@ -30416,13 +30416,13 @@
       <c r="AY56" s="55"/>
     </row>
     <row r="57" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B57" s="197"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="201"/>
+      <c r="B57" s="278"/>
+      <c r="C57" s="281"/>
+      <c r="D57" s="281"/>
       <c r="E57" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="292"/>
+      <c r="F57" s="235"/>
       <c r="G57" s="96"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
@@ -30470,13 +30470,13 @@
       <c r="AY57" s="55"/>
     </row>
     <row r="58" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B58" s="197"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
+      <c r="B58" s="278"/>
+      <c r="C58" s="281"/>
+      <c r="D58" s="281"/>
       <c r="E58" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="292"/>
+      <c r="F58" s="235"/>
       <c r="G58" s="96"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
@@ -30524,13 +30524,13 @@
       <c r="AY58" s="55"/>
     </row>
     <row r="59" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B59" s="197"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="281"/>
+      <c r="D59" s="281"/>
       <c r="E59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="292"/>
+      <c r="F59" s="235"/>
       <c r="G59" s="96"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
@@ -30578,13 +30578,13 @@
       <c r="AY59" s="55"/>
     </row>
     <row r="60" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B60" s="197"/>
-      <c r="C60" s="201"/>
-      <c r="D60" s="201"/>
+      <c r="B60" s="278"/>
+      <c r="C60" s="281"/>
+      <c r="D60" s="281"/>
       <c r="E60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="292"/>
+      <c r="F60" s="235"/>
       <c r="G60" s="96"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
@@ -30632,13 +30632,13 @@
       <c r="AY60" s="55"/>
     </row>
     <row r="61" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B61" s="197"/>
-      <c r="C61" s="201"/>
-      <c r="D61" s="203"/>
+      <c r="B61" s="278"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="287"/>
       <c r="E61" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="292"/>
+      <c r="F61" s="235"/>
       <c r="G61" s="96"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
@@ -30686,15 +30686,15 @@
       <c r="AY61" s="55"/>
     </row>
     <row r="62" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B62" s="197"/>
-      <c r="C62" s="201"/>
-      <c r="D62" s="204" t="s">
+      <c r="B62" s="278"/>
+      <c r="C62" s="281"/>
+      <c r="D62" s="289" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="292"/>
+      <c r="F62" s="235"/>
       <c r="G62" s="96"/>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
@@ -30742,13 +30742,13 @@
       <c r="AY62" s="55"/>
     </row>
     <row r="63" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B63" s="197"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="250" t="s">
+      <c r="B63" s="278"/>
+      <c r="C63" s="281"/>
+      <c r="D63" s="290"/>
+      <c r="E63" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="292"/>
+      <c r="F63" s="235"/>
       <c r="G63" s="96"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
@@ -30796,13 +30796,13 @@
       <c r="AY63" s="55"/>
     </row>
     <row r="64" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B64" s="197"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="249"/>
+      <c r="B64" s="278"/>
+      <c r="C64" s="281"/>
+      <c r="D64" s="291"/>
       <c r="E64" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="292"/>
+      <c r="F64" s="235"/>
       <c r="G64" s="96"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
@@ -30850,15 +30850,15 @@
       <c r="AY64" s="55"/>
     </row>
     <row r="65" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B65" s="256" t="s">
+      <c r="B65" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="257"/>
-      <c r="D65" s="258"/>
-      <c r="E65" s="209" t="s">
+      <c r="C65" s="255"/>
+      <c r="D65" s="256"/>
+      <c r="E65" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="286"/>
+      <c r="F65" s="229"/>
       <c r="G65" s="89"/>
       <c r="H65" s="85"/>
       <c r="I65" s="85"/>
@@ -30884,21 +30884,21 @@
       <c r="AC65" s="155"/>
       <c r="AD65" s="155"/>
       <c r="AE65" s="170"/>
-      <c r="AF65" s="308"/>
+      <c r="AF65" s="251"/>
       <c r="AG65" s="158"/>
       <c r="AH65" s="155"/>
       <c r="AI65" s="155"/>
       <c r="AJ65" s="155"/>
       <c r="AK65" s="155"/>
       <c r="AL65" s="170"/>
-      <c r="AM65" s="308"/>
+      <c r="AM65" s="251"/>
       <c r="AN65" s="158"/>
       <c r="AO65" s="155"/>
       <c r="AP65" s="155"/>
       <c r="AQ65" s="155"/>
       <c r="AR65" s="155"/>
       <c r="AS65" s="170"/>
-      <c r="AT65" s="308"/>
+      <c r="AT65" s="251"/>
       <c r="AU65" s="158"/>
       <c r="AV65" s="155"/>
       <c r="AW65" s="155"/>
@@ -30906,11 +30906,11 @@
       <c r="AY65" s="159"/>
     </row>
     <row r="66" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B66" s="259"/>
-      <c r="C66" s="260"/>
-      <c r="D66" s="261"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="292"/>
+      <c r="B66" s="257"/>
+      <c r="C66" s="258"/>
+      <c r="D66" s="259"/>
+      <c r="E66" s="284"/>
+      <c r="F66" s="235"/>
       <c r="G66" s="96"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
@@ -30936,21 +30936,21 @@
       <c r="AC66" s="32"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="172"/>
-      <c r="AF66" s="307"/>
+      <c r="AF66" s="250"/>
       <c r="AG66" s="54"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
       <c r="AJ66" s="32"/>
       <c r="AK66" s="32"/>
       <c r="AL66" s="172"/>
-      <c r="AM66" s="307"/>
+      <c r="AM66" s="250"/>
       <c r="AN66" s="54"/>
       <c r="AO66" s="32"/>
       <c r="AP66" s="32"/>
       <c r="AQ66" s="32"/>
       <c r="AR66" s="32"/>
       <c r="AS66" s="172"/>
-      <c r="AT66" s="307"/>
+      <c r="AT66" s="250"/>
       <c r="AU66" s="54"/>
       <c r="AV66" s="32"/>
       <c r="AW66" s="32"/>
@@ -30958,11 +30958,11 @@
       <c r="AY66" s="55"/>
     </row>
     <row r="67" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B67" s="259"/>
-      <c r="C67" s="260"/>
-      <c r="D67" s="261"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="289"/>
+      <c r="B67" s="257"/>
+      <c r="C67" s="258"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="284"/>
+      <c r="F67" s="232"/>
       <c r="G67" s="96"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
@@ -30988,21 +30988,21 @@
       <c r="AC67" s="32"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="172"/>
-      <c r="AF67" s="309"/>
+      <c r="AF67" s="252"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
       <c r="AJ67" s="32"/>
       <c r="AK67" s="32"/>
       <c r="AL67" s="172"/>
-      <c r="AM67" s="309"/>
+      <c r="AM67" s="252"/>
       <c r="AN67" s="54"/>
       <c r="AO67" s="32"/>
       <c r="AP67" s="32"/>
       <c r="AQ67" s="32"/>
       <c r="AR67" s="32"/>
       <c r="AS67" s="172"/>
-      <c r="AT67" s="309"/>
+      <c r="AT67" s="252"/>
       <c r="AU67" s="54"/>
       <c r="AV67" s="32"/>
       <c r="AW67" s="32"/>
@@ -31010,13 +31010,13 @@
       <c r="AY67" s="55"/>
     </row>
     <row r="68" spans="2:51" ht="16.5" customHeight="1">
-      <c r="B68" s="259"/>
-      <c r="C68" s="260"/>
-      <c r="D68" s="261"/>
+      <c r="B68" s="257"/>
+      <c r="C68" s="258"/>
+      <c r="D68" s="259"/>
       <c r="E68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="294"/>
+      <c r="F68" s="237"/>
       <c r="G68" s="96"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
@@ -31064,13 +31064,13 @@
       <c r="AY68" s="29"/>
     </row>
     <row r="69" spans="2:51" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B69" s="262"/>
-      <c r="C69" s="263"/>
-      <c r="D69" s="264"/>
+      <c r="B69" s="260"/>
+      <c r="C69" s="261"/>
+      <c r="D69" s="262"/>
       <c r="E69" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="295"/>
+      <c r="F69" s="238"/>
       <c r="G69" s="173"/>
       <c r="H69" s="174"/>
       <c r="I69" s="174"/>
@@ -32037,11 +32037,26 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B65:D69"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="AL4:AY4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="AU5:AY5"/>
+    <mergeCell ref="G4:AK4"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:D19"/>
@@ -32053,26 +32068,11 @@
     <mergeCell ref="D29:D37"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="C42:C64"/>
-    <mergeCell ref="AL4:AY4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="AU5:AY5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:AK4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B65:D69"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
